--- a/GameBalance.xlsx
+++ b/GameBalance.xlsx
@@ -8,23 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmitr\source\repos\TextGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B9068B-4950-43BF-ADFE-3025FBCC8F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3634160-9999-4302-A0EE-0A0F16C3403B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4E46E8D9-8B4F-4CE6-92DC-8BA3C6E9B9B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4E46E8D9-8B4F-4CE6-92DC-8BA3C6E9B9B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Баланс" sheetId="7" r:id="rId1"/>
-    <sheet name="Общее" sheetId="8" r:id="rId2"/>
-    <sheet name="Игрок" sheetId="1" r:id="rId3"/>
-    <sheet name="Противники" sheetId="2" r:id="rId4"/>
-    <sheet name="Оружие" sheetId="3" r:id="rId5"/>
-    <sheet name="Броня" sheetId="5" r:id="rId6"/>
-    <sheet name="Хил" sheetId="6" r:id="rId7"/>
+    <sheet name="Игрок" sheetId="1" r:id="rId2"/>
+    <sheet name="Комнаты" sheetId="9" r:id="rId3"/>
+    <sheet name="Предметы" sheetId="8" r:id="rId4"/>
+    <sheet name="Противники" sheetId="2" r:id="rId5"/>
+    <sheet name="Оружие" sheetId="3" r:id="rId6"/>
+    <sheet name="Броня" sheetId="5" r:id="rId7"/>
+    <sheet name="Хил" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -145,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="56">
   <si>
     <t>ХП</t>
   </si>
@@ -270,16 +274,60 @@
     <t>Магазин</t>
   </si>
   <si>
-    <t>Добавить распределение комнат</t>
+    <t>Пустая</t>
   </si>
   <si>
-    <t>Распределение предметов по комнатам, сундукам и магазинам</t>
+    <t>Маленькая</t>
+  </si>
+  <si>
+    <t>Большая</t>
+  </si>
+  <si>
+    <t>Выход</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Вероятность дойти до</t>
+  </si>
+  <si>
+    <t>Ключ</t>
+  </si>
+  <si>
+    <t>Монеты</t>
+  </si>
+  <si>
+    <t>Карта</t>
+  </si>
+  <si>
+    <t>Добавить отсутствие врага</t>
+  </si>
+  <si>
+    <t>Оружие</t>
+  </si>
+  <si>
+    <t>Броня</t>
+  </si>
+  <si>
+    <t>Хил</t>
+  </si>
+  <si>
+    <t>Ничего</t>
+  </si>
+  <si>
+    <t>Заперт</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="181" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -313,15 +361,21 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -394,12 +448,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,6 +496,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -443,7 +509,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -463,6 +542,2501 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Комнаты!$E$1:$AI$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Комнаты!$E$7:$AI$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9551197902516542E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9623636650261789E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8722744420383139E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6997098907141313E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4230733424774016E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0256348419925656E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4961423029862955E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8290862584663761E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0246176591111644E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0881448977079478E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0296591407831834E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8628541836451609E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.6041171983725768E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.2714695220114849E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.88353243916958E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4585828357467494E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0137492177562795E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5643817433779784E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1236124775313373E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7021057334308957E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3079844573610925E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9469080410360884E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5585975409486044E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2987086144885918E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0691203074563414E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.6964324311748914E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.9905287160963968E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.5536846092125343E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.361108541677006E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.3852780139973365E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8269-4C93-B480-7F8F226A947F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1014586655"/>
+        <c:axId val="1014587487"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1014586655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1014587487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1014587487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1014586655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Хил!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Бинт</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Хил!$T$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Хил!$T$2:$U$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8623-46F3-99AD-36B4DC1EF5B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Хил!$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Реген</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Хил!$T$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Хил!$T$3:$U$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8623-46F3-99AD-36B4DC1EF5B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Хил!$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Сила</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Хил!$T$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Хил!$T$4:$U$4</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8623-46F3-99AD-36B4DC1EF5B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Хил!$S$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Рандом</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Хил!$T$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Хил!$T$5:$U$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-8623-46F3-99AD-36B4DC1EF5B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="404330671"/>
+        <c:axId val="404328591"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="404330671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404328591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="404328591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404330671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Хил!$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Бинт</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Хил!$Y$1:$Z$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Хил!$Y$2:$Z$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-09CB-44C7-8B1C-53B4A2B4D2F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Хил!$X$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Реген</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Хил!$Y$1:$Z$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Хил!$Y$3:$Z$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-09CB-44C7-8B1C-53B4A2B4D2F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Хил!$X$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Сила</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Хил!$Y$1:$Z$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Хил!$Y$4:$Z$4</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-09CB-44C7-8B1C-53B4A2B4D2F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Хил!$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Рандом</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Хил!$Y$1:$Z$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Хил!$Y$5:$Z$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-09CB-44C7-8B1C-53B4A2B4D2F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="404330671"/>
+        <c:axId val="404328591"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="404330671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404328591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="404328591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404330671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Противники!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Скелетор</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Противники!$B$37:$V$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Противники!$B$38:$V$38</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-84</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-108</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-132</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-156</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-168</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92E9-49B6-878B-449F5DCF2C8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Противники!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Лучник</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Противники!$B$37:$V$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Противники!$B$39:$V$39</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-67</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-73</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-92E9-49B6-878B-449F5DCF2C8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Противники!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Зомба</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Противники!$B$37:$V$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Противники!$B$40:$V$40</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-92E9-49B6-878B-449F5DCF2C8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Противники!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Призрак</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Противники!$B$37:$V$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Противники!$B$41:$V$41</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-92E9-49B6-878B-449F5DCF2C8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Противники!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Лич</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Противники!$B$37:$V$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Противники!$B$42:$V$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6315789473684208</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2631578947368416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8947368421052628</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.526315789473683</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.157894736842104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.789473684210526</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.421052631578945</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.052631578947366</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.684210526315788</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.315789473684209</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.94736842105263</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.578947368421051</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.210526315789473</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36.84210526315789</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.473684210526315</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42.105263157894733</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44.736842105263158</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.368421052631575</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-92E9-49B6-878B-449F5DCF2C8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="976472271"/>
+        <c:axId val="976472687"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="976472271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="976472687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="976472687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="976472271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -1062,7 +3636,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -1752,7 +4326,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2354,7 +4928,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2892,7 +5466,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -3453,7 +6027,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -3992,7 +6566,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4553,957 +7127,87 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Хил!$S$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Бинт</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Хил!$T$1:$U$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Хил!$T$2:$U$2</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-8623-46F3-99AD-36B4DC1EF5B2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Хил!$S$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Реген</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Хил!$T$1:$U$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Хил!$T$3:$U$3</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-8623-46F3-99AD-36B4DC1EF5B2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Хил!$S$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Сила</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Хил!$T$1:$U$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Хил!$T$4:$U$4</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-8623-46F3-99AD-36B4DC1EF5B2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Хил!$S$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Рандом</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Хил!$T$1:$U$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Хил!$T$5:$U$5</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-8623-46F3-99AD-36B4DC1EF5B2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="404330671"/>
-        <c:axId val="404328591"/>
-        <c:extLst/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="404330671"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="404328591"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="404328591"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="404330671"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Хил!$X$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Бинт</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Хил!$Y$1:$Z$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Хил!$Y$2:$Z$2</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-09CB-44C7-8B1C-53B4A2B4D2F6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Хил!$X$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Реген</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Хил!$Y$1:$Z$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Хил!$Y$3:$Z$3</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-09CB-44C7-8B1C-53B4A2B4D2F6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Хил!$X$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Сила</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Хил!$Y$1:$Z$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Хил!$Y$4:$Z$4</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-09CB-44C7-8B1C-53B4A2B4D2F6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Хил!$X$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Рандом</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Хил!$Y$1:$Z$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Хил!$Y$5:$Z$5</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-09CB-44C7-8B1C-53B4A2B4D2F6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="404330671"/>
-        <c:axId val="404328591"/>
-        <c:extLst/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="404330671"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="404328591"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="404328591"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="404330671"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5864,6 +7568,527 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6379,7 +8604,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6895,7 +9120,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7411,7 +9636,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7927,7 +10152,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8443,7 +10668,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8959,7 +11184,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9475,7 +11700,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9991,7 +12216,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10507,7 +12732,609 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43157DB4-E6C5-468C-91A6-6E4F985029B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C922DE3-10B5-4DAA-A2C9-258E95948BE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10626,7 +13453,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10745,7 +13572,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11221,31 +14048,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62381594-8D3E-489F-BDC2-402FECB14F0E}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91429075-37CB-469C-98A8-A9CDFB6F6906}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -11271,34 +14073,1162 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38E34A5-E026-47EB-BBDA-E748A36D966E}">
-  <dimension ref="A1:Z35"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEFE8A6-7B0F-4C4F-B26F-9BE0B785C7AE}">
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>10</v>
+      </c>
+      <c r="G1">
+        <v>20</v>
+      </c>
+      <c r="H1">
+        <v>30</v>
+      </c>
+      <c r="I1">
+        <v>40</v>
+      </c>
+      <c r="J1">
+        <v>50</v>
+      </c>
+      <c r="K1">
+        <v>60</v>
+      </c>
+      <c r="L1">
+        <v>70</v>
+      </c>
+      <c r="M1">
+        <v>80</v>
+      </c>
+      <c r="N1">
+        <v>90</v>
+      </c>
+      <c r="O1">
+        <v>100</v>
+      </c>
+      <c r="P1">
+        <v>110</v>
+      </c>
+      <c r="Q1">
+        <v>120</v>
+      </c>
+      <c r="R1">
+        <v>130</v>
+      </c>
+      <c r="S1">
+        <v>140</v>
+      </c>
+      <c r="T1">
+        <v>150</v>
+      </c>
+      <c r="U1">
+        <v>160</v>
+      </c>
+      <c r="V1">
+        <v>170</v>
+      </c>
+      <c r="W1">
+        <v>180</v>
+      </c>
+      <c r="X1">
+        <v>190</v>
+      </c>
+      <c r="Y1">
+        <v>200</v>
+      </c>
+      <c r="Z1">
+        <v>210</v>
+      </c>
+      <c r="AA1">
+        <v>220</v>
+      </c>
+      <c r="AB1">
+        <v>230</v>
+      </c>
+      <c r="AC1">
+        <v>240</v>
+      </c>
+      <c r="AD1">
+        <v>250</v>
+      </c>
+      <c r="AE1">
+        <v>260</v>
+      </c>
+      <c r="AF1">
+        <v>270</v>
+      </c>
+      <c r="AG1">
+        <v>280</v>
+      </c>
+      <c r="AH1">
+        <v>290</v>
+      </c>
+      <c r="AI1">
+        <v>300</v>
+      </c>
+      <c r="AJ1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="30">
+        <f>ROUND(E1*$B$5/(E1*$B$5+100),3)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="30">
+        <f t="shared" ref="F2:AJ2" si="0">ROUND(F1*$B$5/(F1*$B$5+100),3)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="G2" s="30">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+      <c r="H2" s="30">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I2" s="30">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J2" s="30">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K2" s="30">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L2" s="30">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M2" s="30">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N2" s="30">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O2" s="30">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="P2" s="30">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Q2" s="30">
+        <f t="shared" si="0"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="R2" s="30">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="S2" s="30">
+        <f t="shared" si="0"/>
+        <v>1.4E-2</v>
+      </c>
+      <c r="T2" s="30">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="U2" s="30">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="V2" s="30">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="W2" s="30">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="X2" s="30">
+        <f t="shared" si="0"/>
+        <v>1.9E-2</v>
+      </c>
+      <c r="Y2" s="30">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="Z2" s="30">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AA2" s="30">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="AB2" s="30">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="AC2" s="30">
+        <f t="shared" si="0"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="AD2" s="30">
+        <f t="shared" si="0"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="AE2" s="30">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AF2" s="30">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AG2" s="30">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="AH2" s="30">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AI2" s="30">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="AJ2" s="30">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="30">
+        <f>1-((1-E2)^10)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="30">
+        <f t="shared" ref="F3:Z3" si="1">1-((1-F2)^10)</f>
+        <v>9.9551197902516542E-3</v>
+      </c>
+      <c r="G3" s="30">
+        <f t="shared" si="1"/>
+        <v>1.9820956648050503E-2</v>
+      </c>
+      <c r="H3" s="30">
+        <f t="shared" si="1"/>
+        <v>2.9598223051083061E-2</v>
+      </c>
+      <c r="I3" s="30">
+        <f t="shared" si="1"/>
+        <v>3.9287626497189754E-2</v>
+      </c>
+      <c r="J3" s="30">
+        <f t="shared" si="1"/>
+        <v>4.8889869534228025E-2</v>
+      </c>
+      <c r="K3" s="30">
+        <f t="shared" si="1"/>
+        <v>5.8405649789787573E-2</v>
+      </c>
+      <c r="L3" s="30">
+        <f t="shared" si="1"/>
+        <v>6.783566000075647E-2</v>
+      </c>
+      <c r="M3" s="30">
+        <f t="shared" si="1"/>
+        <v>7.7180588042736975E-2</v>
+      </c>
+      <c r="N3" s="30">
+        <f t="shared" si="1"/>
+        <v>8.6441116959317443E-2</v>
+      </c>
+      <c r="O3" s="30">
+        <f t="shared" si="1"/>
+        <v>9.5617924991195702E-2</v>
+      </c>
+      <c r="P3" s="30">
+        <f t="shared" si="1"/>
+        <v>0.10471168560515287</v>
+      </c>
+      <c r="Q3" s="30">
+        <f t="shared" si="1"/>
+        <v>0.11372306752288774</v>
+      </c>
+      <c r="R3" s="30">
+        <f t="shared" si="1"/>
+        <v>0.12265273474969962</v>
+      </c>
+      <c r="S3" s="30">
+        <f t="shared" si="1"/>
+        <v>0.13150134660302926</v>
+      </c>
+      <c r="T3" s="30">
+        <f>1-((1-T2)^10)</f>
+        <v>0.14026955774085692</v>
+      </c>
+      <c r="U3" s="30">
+        <f t="shared" si="1"/>
+        <v>0.14895801818995635</v>
+      </c>
+      <c r="V3" s="30">
+        <f t="shared" si="1"/>
+        <v>0.15756737337400273</v>
+      </c>
+      <c r="W3" s="30">
+        <f t="shared" si="1"/>
+        <v>0.1660982641415415</v>
+      </c>
+      <c r="X3" s="30">
+        <f t="shared" si="1"/>
+        <v>0.17455132679381646</v>
+      </c>
+      <c r="Y3" s="30">
+        <f t="shared" si="1"/>
+        <v>0.18292719311245342</v>
+      </c>
+      <c r="Z3" s="30">
+        <f t="shared" si="1"/>
+        <v>0.19122649038700312</v>
+      </c>
+      <c r="AA3" s="30">
+        <f t="shared" ref="AA3" si="2">1-((1-AA2)^10)</f>
+        <v>0.19944984144234978</v>
+      </c>
+      <c r="AB3" s="30">
+        <f t="shared" ref="AB3" si="3">1-((1-AB2)^10)</f>
+        <v>0.19944984144234978</v>
+      </c>
+      <c r="AC3" s="30">
+        <f t="shared" ref="AC3" si="4">1-((1-AC2)^10)</f>
+        <v>0.20759786466597252</v>
+      </c>
+      <c r="AD3" s="30">
+        <f t="shared" ref="AD3" si="5">1-((1-AD2)^10)</f>
+        <v>0.21567117403507274</v>
+      </c>
+      <c r="AE3" s="30">
+        <f t="shared" ref="AE3" si="6">1-((1-AE2)^10)</f>
+        <v>0.22367037914356247</v>
+      </c>
+      <c r="AF3" s="30">
+        <f t="shared" ref="AF3" si="7">1-((1-AF2)^10)</f>
+        <v>0.23159608522891328</v>
+      </c>
+      <c r="AG3" s="30">
+        <f t="shared" ref="AG3:AH3" si="8">1-((1-AG2)^10)</f>
+        <v>0.23944889319887064</v>
+      </c>
+      <c r="AH3" s="30">
+        <f t="shared" si="8"/>
+        <v>0.24722939965802815</v>
+      </c>
+      <c r="AI3" s="30">
+        <f t="shared" ref="AI3:AJ3" si="9">1-((1-AI2)^10)</f>
+        <v>0.25493819693426967</v>
+      </c>
+      <c r="AJ3" s="30">
+        <f t="shared" si="9"/>
+        <v>0.25493819693426967</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>-10</v>
+      </c>
+      <c r="E4" s="2">
+        <f>1-E3</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:Z4" si="10">1-F3</f>
+        <v>0.99004488020974835</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="10"/>
+        <v>0.9801790433519495</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="10"/>
+        <v>0.97040177694891694</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="10"/>
+        <v>0.96071237350281025</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="10"/>
+        <v>0.95111013046577197</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="10"/>
+        <v>0.94159435021021243</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="10"/>
+        <v>0.93216433999924353</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="10"/>
+        <v>0.92281941195726302</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="10"/>
+        <v>0.91355888304068256</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="10"/>
+        <v>0.9043820750088043</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="10"/>
+        <v>0.89528831439484713</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" si="10"/>
+        <v>0.88627693247711226</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" si="10"/>
+        <v>0.87734726525030038</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" si="10"/>
+        <v>0.86849865339697074</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" si="10"/>
+        <v>0.85973044225914308</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" si="10"/>
+        <v>0.85104198181004365</v>
+      </c>
+      <c r="V4" s="2">
+        <f t="shared" si="10"/>
+        <v>0.84243262662599727</v>
+      </c>
+      <c r="W4" s="2">
+        <f t="shared" si="10"/>
+        <v>0.8339017358584585</v>
+      </c>
+      <c r="X4" s="2">
+        <f t="shared" si="10"/>
+        <v>0.82544867320618354</v>
+      </c>
+      <c r="Y4" s="2">
+        <f t="shared" si="10"/>
+        <v>0.81707280688754658</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" si="10"/>
+        <v>0.80877350961299688</v>
+      </c>
+      <c r="AA4" s="2">
+        <f t="shared" ref="AA4" si="11">1-AA3</f>
+        <v>0.80055015855765022</v>
+      </c>
+      <c r="AB4" s="2">
+        <f t="shared" ref="AB4" si="12">1-AB3</f>
+        <v>0.80055015855765022</v>
+      </c>
+      <c r="AC4" s="2">
+        <f t="shared" ref="AC4" si="13">1-AC3</f>
+        <v>0.79240213533402748</v>
+      </c>
+      <c r="AD4" s="2">
+        <f t="shared" ref="AD4" si="14">1-AD3</f>
+        <v>0.78432882596492726</v>
+      </c>
+      <c r="AE4" s="2">
+        <f t="shared" ref="AE4" si="15">1-AE3</f>
+        <v>0.77632962085643753</v>
+      </c>
+      <c r="AF4" s="2">
+        <f t="shared" ref="AF4" si="16">1-AF3</f>
+        <v>0.76840391477108672</v>
+      </c>
+      <c r="AG4" s="2">
+        <f t="shared" ref="AG4:AH4" si="17">1-AG3</f>
+        <v>0.76055110680112936</v>
+      </c>
+      <c r="AH4" s="2">
+        <f t="shared" si="17"/>
+        <v>0.75277060034197185</v>
+      </c>
+      <c r="AI4" s="2">
+        <f t="shared" ref="AI4:AJ4" si="18">1-AI3</f>
+        <v>0.74506180306573033</v>
+      </c>
+      <c r="AJ4" s="2">
+        <f t="shared" si="18"/>
+        <v>0.74506180306573033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="30">
+        <f>PRODUCT($E$4:E4)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="30">
+        <f>PRODUCT($E$4:E4)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="30">
+        <f>PRODUCT($E$4:F4)</f>
+        <v>0.99004488020974835</v>
+      </c>
+      <c r="H5" s="30">
+        <f>PRODUCT($E$4:G4)</f>
+        <v>0.97042124355948656</v>
+      </c>
+      <c r="I5" s="30">
+        <f>PRODUCT($E$4:H4)</f>
+        <v>0.94169849913910342</v>
+      </c>
+      <c r="J5" s="30">
+        <f>PRODUCT($E$4:I4)</f>
+        <v>0.90470140023196211</v>
+      </c>
+      <c r="K5" s="30">
+        <f>PRODUCT($E$4:J4)</f>
+        <v>0.86047066680718809</v>
+      </c>
+      <c r="L5" s="30">
+        <f>PRODUCT($E$4:K4)</f>
+        <v>0.81021431838726243</v>
+      </c>
+      <c r="M5" s="30">
+        <f>PRODUCT($E$4:L4)</f>
+        <v>0.75525289535739948</v>
+      </c>
+      <c r="N5" s="30">
+        <f>PRODUCT($E$4:M4)</f>
+        <v>0.69696203277273572</v>
+      </c>
+      <c r="O5" s="30">
+        <f>PRODUCT($E$4:N4)</f>
+        <v>0.63671585618162407</v>
+      </c>
+      <c r="P5" s="30">
+        <f>PRODUCT($E$4:O4)</f>
+        <v>0.5758344072045446</v>
+      </c>
+      <c r="Q5" s="30">
+        <f>PRODUCT($E$4:P4)</f>
+        <v>0.51553781579671276</v>
+      </c>
+      <c r="R5" s="30">
+        <f>PRODUCT($E$4:Q4)</f>
+        <v>0.45690927396026115</v>
+      </c>
+      <c r="S5" s="30">
+        <f>PRODUCT($E$4:R4)</f>
+        <v>0.40086810197653538</v>
+      </c>
+      <c r="T5" s="30">
+        <f>PRODUCT($E$4:S4)</f>
+        <v>0.34815340675642054</v>
+      </c>
+      <c r="U5" s="30">
+        <f>PRODUCT($E$4:T4)</f>
+        <v>0.29931808236472474</v>
+      </c>
+      <c r="V5" s="30">
+        <f>PRODUCT($E$4:U4)</f>
+        <v>0.25473225400725724</v>
+      </c>
+      <c r="W5" s="30">
+        <f>PRODUCT($E$4:V4)</f>
+        <v>0.21459476182969445</v>
+      </c>
+      <c r="X5" s="30">
+        <f>PRODUCT($E$4:W4)</f>
+        <v>0.17895094439591466</v>
+      </c>
+      <c r="Y5" s="30">
+        <f>PRODUCT($E$4:X4)</f>
+        <v>0.14771481962060129</v>
+      </c>
+      <c r="Z5" s="30">
+        <f>PRODUCT($E$4:Y4)</f>
+        <v>0.12069376228629233</v>
+      </c>
+      <c r="AA5" s="30">
+        <f>PRODUCT($E$4:Z4)</f>
+        <v>9.7613917712681408E-2</v>
+      </c>
+      <c r="AB5" s="30">
+        <f>PRODUCT($E$4:AA4)</f>
+        <v>7.8144837302320524E-2</v>
+      </c>
+      <c r="AC5" s="30">
+        <f>PRODUCT($E$4:AB4)</f>
+        <v>6.255886189283448E-2</v>
+      </c>
+      <c r="AD5" s="30">
+        <f>PRODUCT($E$4:AC4)</f>
+        <v>4.9571775747948563E-2</v>
+      </c>
+      <c r="AE5" s="30">
+        <f>PRODUCT($E$4:AD4)</f>
+        <v>3.8880572673385148E-2</v>
+      </c>
+      <c r="AF5" s="30">
+        <f>PRODUCT($E$4:AE4)</f>
+        <v>3.0184140242210257E-2</v>
+      </c>
+      <c r="AG5" s="30">
+        <f>PRODUCT($E$4:AF4)</f>
+        <v>2.319361152611386E-2</v>
+      </c>
+      <c r="AH5" s="30">
+        <f>PRODUCT($E$4:AG4)</f>
+        <v>1.7639926916901326E-2</v>
+      </c>
+      <c r="AI5" s="30">
+        <f>PRODUCT($E$4:AH4)</f>
+        <v>1.327881837522432E-2</v>
+      </c>
+      <c r="AJ5" s="30">
+        <f>PRODUCT($E$4:AI4)</f>
+        <v>9.8935403612269834E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="30"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="E7" s="2">
+        <f>E5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" ref="F7:AI7" si="19">F5-G5</f>
+        <v>9.9551197902516542E-3</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="19"/>
+        <v>1.9623636650261789E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="19"/>
+        <v>2.8722744420383139E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="19"/>
+        <v>3.6997098907141313E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="19"/>
+        <v>4.4230733424774016E-2</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0256348419925656E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="19"/>
+        <v>5.4961423029862955E-2</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="19"/>
+        <v>5.8290862584663761E-2</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="19"/>
+        <v>6.0246176591111644E-2</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="19"/>
+        <v>6.0881448977079478E-2</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="19"/>
+        <v>6.0296591407831834E-2</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="19"/>
+        <v>5.8628541836451609E-2</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="19"/>
+        <v>5.6041171983725768E-2</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="19"/>
+        <v>5.2714695220114849E-2</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="19"/>
+        <v>4.88353243916958E-2</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="19"/>
+        <v>4.4585828357467494E-2</v>
+      </c>
+      <c r="V7" s="2">
+        <f t="shared" si="19"/>
+        <v>4.0137492177562795E-2</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="19"/>
+        <v>3.5643817433779784E-2</v>
+      </c>
+      <c r="X7" s="2">
+        <f t="shared" si="19"/>
+        <v>3.1236124775313373E-2</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" si="19"/>
+        <v>2.7021057334308957E-2</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="19"/>
+        <v>2.3079844573610925E-2</v>
+      </c>
+      <c r="AA7" s="2">
+        <f t="shared" si="19"/>
+        <v>1.9469080410360884E-2</v>
+      </c>
+      <c r="AB7" s="2">
+        <f t="shared" si="19"/>
+        <v>1.5585975409486044E-2</v>
+      </c>
+      <c r="AC7" s="2">
+        <f t="shared" si="19"/>
+        <v>1.2987086144885918E-2</v>
+      </c>
+      <c r="AD7" s="2">
+        <f t="shared" si="19"/>
+        <v>1.0691203074563414E-2</v>
+      </c>
+      <c r="AE7" s="2">
+        <f t="shared" si="19"/>
+        <v>8.6964324311748914E-3</v>
+      </c>
+      <c r="AF7" s="2">
+        <f t="shared" si="19"/>
+        <v>6.9905287160963968E-3</v>
+      </c>
+      <c r="AG7" s="2">
+        <f t="shared" si="19"/>
+        <v>5.5536846092125343E-3</v>
+      </c>
+      <c r="AH7" s="2">
+        <f t="shared" si="19"/>
+        <v>4.361108541677006E-3</v>
+      </c>
+      <c r="AI7" s="2">
+        <f t="shared" si="19"/>
+        <v>3.3852780139973365E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62381594-8D3E-489F-BDC2-402FECB14F0E}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="G2" s="7">
+        <f>1-(1-D2)^5</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="G3" s="7">
+        <f>1-(1-D3)^5</f>
+        <v>0.40950999999999982</v>
+      </c>
+      <c r="I3" s="31">
+        <f>_xlfn.BINOM.DIST(I2,$N$2,$D$3,FALSE)</f>
+        <v>0.59048999999999996</v>
+      </c>
+      <c r="J3" s="31">
+        <f>_xlfn.BINOM.DIST(J2,$N$2,$D$3,FALSE)</f>
+        <v>0.32805000000000001</v>
+      </c>
+      <c r="K3" s="31">
+        <f>_xlfn.BINOM.DIST(K2,$N$2,$D$3,FALSE)</f>
+        <v>7.2899999999999979E-2</v>
+      </c>
+      <c r="L3" s="31">
+        <f>_xlfn.BINOM.DIST(L2,$N$2,$D$3,FALSE)</f>
+        <v>8.0999999999999961E-3</v>
+      </c>
+      <c r="M3" s="31">
+        <f>_xlfn.BINOM.DIST(M2,$N$2,$D$3,FALSE)</f>
+        <v>4.5000000000000064E-4</v>
+      </c>
+      <c r="N3" s="31">
+        <f>_xlfn.BINOM.DIST(N2,$N$2,$D$3,FALSE)</f>
+        <v>1.0000000000000016E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="G4" s="7">
+        <f>1-(1-D4)^5</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>I2*I3</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:N4" si="0">J2*J3</f>
+        <v>0.32805000000000001</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.14579999999999996</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>2.4299999999999988E-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000026E-3</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000077E-5</v>
+      </c>
+      <c r="O4" s="35">
+        <f>SUM(I4:N4)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="G5" s="7">
+        <f>1-(1-D5)^5</f>
+        <v>0.1412659743000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <f>1-(1-D6)^5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G7" s="7">
+        <f>1-(1-D7)^5</f>
+        <v>0.81957706490000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G8" s="7">
+        <f>1-(1-D8)^5</f>
+        <v>0.81957706490000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G9" s="7">
+        <f>1-(1-D9)^5</f>
+        <v>0.81957706490000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <f>SUM(B2:B9)</f>
+        <v>1.05</v>
+      </c>
+      <c r="C10" s="7">
+        <f>SUM(C2:C9)</f>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="D10" s="7">
+        <f>SUM(D2:D9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="30">
+        <f>B14</f>
+        <v>0.25</v>
+      </c>
+      <c r="F13" s="2">
+        <f>B3</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="2">
+        <f>E13-SUM(F13:F15)</f>
+        <v>9.2499999999999971E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <f>B6*C3</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F15" s="32">
+        <f>Комнаты!B4*O4</f>
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38E34A5-E026-47EB-BBDA-E748A36D966E}">
+  <dimension ref="A1:Z43"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
@@ -11322,6 +15252,9 @@
       </c>
       <c r="Q1" s="3">
         <v>100</v>
+      </c>
+      <c r="R1" s="28">
+        <v>200</v>
       </c>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
@@ -11364,7 +15297,6 @@
         <v>2</v>
       </c>
       <c r="N2" s="8">
-        <f>0.6</f>
         <v>0.6</v>
       </c>
       <c r="O2" s="8">
@@ -11374,15 +15306,15 @@
         <v>0.15</v>
       </c>
       <c r="Q2" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="S2" t="str">
+        <v>-0.6</v>
+      </c>
+      <c r="R2" s="29"/>
+      <c r="T2" t="str">
         <f>"y="&amp;(Q2-N2)&amp;"x"&amp;"+"&amp;N2*100</f>
-        <v>y=-0,55x+60</v>
-      </c>
-      <c r="T2" s="9"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="11"/>
+        <v>y=-1,2x+60</v>
+      </c>
+      <c r="U2" s="9"/>
+      <c r="X2" s="10"/>
       <c r="Y2" s="11"/>
       <c r="Z2" s="11"/>
     </row>
@@ -11434,7 +15366,6 @@
         <v>3</v>
       </c>
       <c r="N3" s="8">
-        <f>0.3</f>
         <v>0.3</v>
       </c>
       <c r="O3" s="8">
@@ -11444,27 +15375,21 @@
         <v>0.25</v>
       </c>
       <c r="Q3" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="S3" t="str">
-        <f>"y="&amp;(O3-N3)/10&amp;"x"&amp;"+"&amp;N3*100&amp;" при 0&gt;x&lt;10"</f>
-        <v>y=0,005x+30 при 0&gt;x&lt;10</v>
-      </c>
-      <c r="T3" s="1" t="s">
+        <v>-0.25</v>
+      </c>
+      <c r="R3" s="29"/>
+      <c r="T3" t="str">
+        <f>"y="&amp;(O3-N3)*O1&amp;"x"&amp;"+"&amp;N3*100&amp;" при 0&gt;x&lt;10"</f>
+        <v>y=0,5x+30 при 0&gt;x&lt;10</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U3" t="str">
-        <f>"y="&amp;ROUND((Q3-O3)/(Q1-O1),5)&amp;"x"&amp;"+"&amp;O3*100&amp;" при 10&lt;=x&lt;100"</f>
-        <v>y=-0,00278x+35 при 10&lt;=x&lt;100</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="W3" t="str">
-        <f>"y=5 при x&gt;=100"</f>
-        <v>y=5 при x&gt;=100</v>
-      </c>
-      <c r="X3" s="11"/>
+      <c r="V3" t="str">
+        <f>"y="&amp;ROUND((Q3-O3)/(Q1-O1)*100,5)&amp;"(x-"&amp;O1&amp;")"&amp;"+"&amp;O3*100&amp;" при 10&lt;=x&lt;100"</f>
+        <v>y=-0,66667(x-10)+35 при 10&lt;=x&lt;100</v>
+      </c>
+      <c r="W3" s="1"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
     </row>
@@ -11516,7 +15441,6 @@
         <v>4</v>
       </c>
       <c r="N4" s="8">
-        <f>0.1</f>
         <v>0.1</v>
       </c>
       <c r="O4" s="8">
@@ -11526,15 +15450,29 @@
         <v>0.25</v>
       </c>
       <c r="Q4" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="S4" t="str">
-        <f>"y="&amp;(Q4-N4)&amp;"x"&amp;"+"&amp;N4*100</f>
-        <v>y=0,15x+10</v>
-      </c>
-      <c r="T4" s="9"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="11"/>
+        <v>0.3</v>
+      </c>
+      <c r="R4" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="T4" t="str">
+        <f>"y="&amp;(Q4-N4)&amp;"x"&amp;"+"&amp;N4*100&amp;" при 10&lt;x&lt;=100"</f>
+        <v>y=0,2x+10 при 10&lt;x&lt;=100</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" t="str">
+        <f>"y="&amp;ROUND((R4-Q4),5)&amp;"(x-"&amp;Q1&amp;")"&amp;"+"&amp;Q4*100&amp;" при 100&lt;x&lt;=200"</f>
+        <v>y=-0,1(x-100)+30 при 100&lt;x&lt;=200</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X4" t="str">
+        <f>"у=20, при x&gt;200"</f>
+        <v>у=20, при x&gt;200</v>
+      </c>
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
     </row>
@@ -11595,15 +15533,29 @@
         <v>0.25</v>
       </c>
       <c r="Q5" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="S5" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="R5" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="T5" t="str">
         <f>"y="&amp;(Q5-N5)&amp;"x"&amp;"+"&amp;N5*100</f>
-        <v>y=0,35x+0</v>
-      </c>
-      <c r="T5" s="9"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="11"/>
+        <v>y=0,4x+0</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V5" t="str">
+        <f>"y="&amp;ROUND((R5-Q5),5)&amp;"(x-"&amp;Q1&amp;")"&amp;"+"&amp;Q5*100&amp;" при 100&lt;x&lt;=200"</f>
+        <v>y=-0,1(x-100)+40 при 100&lt;x&lt;=200</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" t="str">
+        <f>"у=30, при x&gt;200"</f>
+        <v>у=30, при x&gt;200</v>
+      </c>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
     </row>
@@ -11662,21 +15614,29 @@
         <v>0.1</v>
       </c>
       <c r="Q6" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="S6" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="R6" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="T6" t="str">
         <f>"у=0, при x&lt;=10"</f>
         <v>у=0, при x&lt;=10</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="U6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="U6" t="str">
-        <f>"y="&amp;(Q6-N6)&amp;"x"&amp;"+"&amp;N6*100&amp;" при x&gt;10"</f>
-        <v>y=0,25x+0 при x&gt;10</v>
-      </c>
-      <c r="W6" s="10"/>
-      <c r="X6" s="11"/>
+      <c r="V6" t="str">
+        <f>"y="&amp;ROUND((R6-N6)/(R1-O1)*100,5)&amp;"(x-"&amp;O1&amp;")"&amp;"+"&amp;N6*100&amp;" при x&gt;10"</f>
+        <v>y=0,26316(x-10)+0 при x&gt;10</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X6" t="str">
+        <f>"у=50, при x&gt;200"</f>
+        <v>у=50, при x&gt;200</v>
+      </c>
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
     </row>
@@ -11769,17 +15729,25 @@
         <f>$D8*(1+Баланс!$B$1)</f>
         <v>5.3999999999999995</v>
       </c>
+      <c r="X8" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>10</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="5" t="s">
         <v>0</v>
       </c>
@@ -11792,6 +15760,9 @@
         <v>9</v>
       </c>
       <c r="K10" s="5"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -12092,12 +16063,12 @@
       <c r="A19" s="3">
         <v>50</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="5" t="s">
         <v>0</v>
       </c>
@@ -12411,12 +16382,12 @@
       <c r="A28" s="3">
         <v>100</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="5" t="s">
         <v>0</v>
       </c>
@@ -12595,7 +16566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
@@ -12639,7 +16610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
@@ -12683,7 +16654,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
@@ -12723,6 +16694,603 @@
       <c r="K35" s="6">
         <f>(1+($A$28*Баланс!$B$2))*K8</f>
         <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3">
+        <v>20</v>
+      </c>
+      <c r="E37" s="3">
+        <v>30</v>
+      </c>
+      <c r="F37" s="3">
+        <v>40</v>
+      </c>
+      <c r="G37" s="3">
+        <v>50</v>
+      </c>
+      <c r="H37" s="3">
+        <v>60</v>
+      </c>
+      <c r="I37" s="3">
+        <v>70</v>
+      </c>
+      <c r="J37" s="3">
+        <v>80</v>
+      </c>
+      <c r="K37" s="3">
+        <v>90</v>
+      </c>
+      <c r="L37" s="3">
+        <v>100</v>
+      </c>
+      <c r="M37" s="3">
+        <v>110</v>
+      </c>
+      <c r="N37" s="3">
+        <v>120</v>
+      </c>
+      <c r="O37" s="3">
+        <v>130</v>
+      </c>
+      <c r="P37" s="3">
+        <v>140</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>150</v>
+      </c>
+      <c r="R37" s="3">
+        <v>160</v>
+      </c>
+      <c r="S37" s="3">
+        <v>170</v>
+      </c>
+      <c r="T37" s="3">
+        <v>180</v>
+      </c>
+      <c r="U37" s="3">
+        <v>190</v>
+      </c>
+      <c r="V37" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="26">
+        <f>($Q$2-$N$2)*B37+$N$2*100</f>
+        <v>60</v>
+      </c>
+      <c r="C38" s="26">
+        <f t="shared" ref="C38:V38" si="0">($Q$2-$N$2)*C37+$N$2*100</f>
+        <v>48</v>
+      </c>
+      <c r="D38" s="26">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E38" s="26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F38" s="26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G38" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="26">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+      <c r="I38" s="26">
+        <f t="shared" si="0"/>
+        <v>-24</v>
+      </c>
+      <c r="J38" s="26">
+        <f t="shared" si="0"/>
+        <v>-36</v>
+      </c>
+      <c r="K38" s="26">
+        <f t="shared" si="0"/>
+        <v>-48</v>
+      </c>
+      <c r="L38" s="26">
+        <f t="shared" si="0"/>
+        <v>-60</v>
+      </c>
+      <c r="M38" s="26">
+        <f t="shared" si="0"/>
+        <v>-72</v>
+      </c>
+      <c r="N38" s="26">
+        <f t="shared" si="0"/>
+        <v>-84</v>
+      </c>
+      <c r="O38" s="26">
+        <f t="shared" si="0"/>
+        <v>-96</v>
+      </c>
+      <c r="P38" s="26">
+        <f t="shared" si="0"/>
+        <v>-108</v>
+      </c>
+      <c r="Q38" s="26">
+        <f t="shared" si="0"/>
+        <v>-120</v>
+      </c>
+      <c r="R38" s="26">
+        <f t="shared" si="0"/>
+        <v>-132</v>
+      </c>
+      <c r="S38" s="26">
+        <f t="shared" si="0"/>
+        <v>-144</v>
+      </c>
+      <c r="T38" s="26">
+        <f t="shared" si="0"/>
+        <v>-156</v>
+      </c>
+      <c r="U38" s="26">
+        <f t="shared" si="0"/>
+        <v>-168</v>
+      </c>
+      <c r="V38" s="26">
+        <f t="shared" si="0"/>
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="6">
+        <f>IF(AND(B37&gt;=$N$1,B37&lt;=$O$1),($O$3-$N$3)*$O$1*B37+$N$3*100,($Q$3-$O$3)*(B37-$O$1)+$O$3*$Q$1)</f>
+        <v>30</v>
+      </c>
+      <c r="C39" s="6">
+        <f t="shared" ref="C39:V39" si="1">IF(AND(C37&gt;=$N$1,C37&lt;=$O$1),($O$3-$N$3)*$O$1*C37+$N$3*100,($Q$3-$O$3)*(C37-$O$1)+$O$3*$Q$1)</f>
+        <v>35</v>
+      </c>
+      <c r="D39" s="6">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H39" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I39" s="6">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="J39" s="6">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="K39" s="6">
+        <f t="shared" si="1"/>
+        <v>-13</v>
+      </c>
+      <c r="L39" s="6">
+        <f t="shared" si="1"/>
+        <v>-19</v>
+      </c>
+      <c r="M39" s="6">
+        <f t="shared" si="1"/>
+        <v>-25</v>
+      </c>
+      <c r="N39" s="6">
+        <f t="shared" si="1"/>
+        <v>-31</v>
+      </c>
+      <c r="O39" s="6">
+        <f t="shared" si="1"/>
+        <v>-37</v>
+      </c>
+      <c r="P39" s="6">
+        <f t="shared" si="1"/>
+        <v>-43</v>
+      </c>
+      <c r="Q39" s="6">
+        <f t="shared" si="1"/>
+        <v>-49</v>
+      </c>
+      <c r="R39" s="6">
+        <f t="shared" si="1"/>
+        <v>-55</v>
+      </c>
+      <c r="S39" s="6">
+        <f t="shared" si="1"/>
+        <v>-61</v>
+      </c>
+      <c r="T39" s="6">
+        <f t="shared" si="1"/>
+        <v>-67</v>
+      </c>
+      <c r="U39" s="6">
+        <f t="shared" si="1"/>
+        <v>-73</v>
+      </c>
+      <c r="V39" s="6">
+        <f t="shared" si="1"/>
+        <v>-79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="6">
+        <f>IF(B37&lt;=100,($Q$4-$N$4)*B37+$N$4*100,(($R$4-$Q$4))*(B37-$Q$1)+$Q$4*100)</f>
+        <v>10</v>
+      </c>
+      <c r="C40" s="6">
+        <f t="shared" ref="C40:V40" si="2">IF(C37&lt;=100,($Q$4-$N$4)*C37+$N$4*100,(($R$4-$Q$4))*(C37-$Q$1)+$Q$4*100)</f>
+        <v>12</v>
+      </c>
+      <c r="D40" s="6">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E40" s="6">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H40" s="6">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I40" s="6">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="J40" s="6">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="K40" s="6">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="L40" s="6">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="M40" s="6">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="N40" s="6">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="O40" s="6">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="P40" s="6">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="Q40" s="6">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="R40" s="6">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="S40" s="6">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="T40" s="6">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="U40" s="6">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="V40" s="6">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="6">
+        <f>IF(B37&lt;=100,($Q$5-$N$5)*B37+$N$5*100,(($R$5-$Q$5))*(B37-$Q$1)+$Q$5*100)</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="6">
+        <f t="shared" ref="C41:V41" si="3">IF(C37&lt;=100,($Q$5-$N$5)*C37+$N$5*100,(($R$5-$Q$5))*(C37-$Q$1)+$Q$5*100)</f>
+        <v>4</v>
+      </c>
+      <c r="D41" s="6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="E41" s="6">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F41" s="6">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H41" s="6">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="I41" s="6">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="J41" s="6">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="K41" s="6">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="L41" s="6">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="M41" s="6">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="N41" s="6">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="O41" s="6">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="P41" s="6">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="Q41" s="6">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="R41" s="6">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="S41" s="6">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="T41" s="6">
+        <f t="shared" si="3"/>
+        <v>31.999999999999996</v>
+      </c>
+      <c r="U41" s="6">
+        <f t="shared" si="3"/>
+        <v>30.999999999999996</v>
+      </c>
+      <c r="V41" s="6">
+        <f t="shared" si="3"/>
+        <v>29.999999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="6">
+        <f>IF(B37&lt;=$O$1,$O$6,($R$6-$O$6)/($R$1-$O$1)*$Q$1*(B37-$O$1))</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="6">
+        <f t="shared" ref="C42:V42" si="4">IF(C37&lt;=$O$1,$O$6,($R$6-$O$6)/($R$1-$O$1)*$Q$1*(C37-$O$1))</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <f t="shared" si="4"/>
+        <v>2.6315789473684208</v>
+      </c>
+      <c r="E42" s="6">
+        <f t="shared" si="4"/>
+        <v>5.2631578947368416</v>
+      </c>
+      <c r="F42" s="6">
+        <f t="shared" si="4"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="4"/>
+        <v>10.526315789473683</v>
+      </c>
+      <c r="H42" s="6">
+        <f t="shared" si="4"/>
+        <v>13.157894736842104</v>
+      </c>
+      <c r="I42" s="6">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="J42" s="6">
+        <f t="shared" si="4"/>
+        <v>18.421052631578945</v>
+      </c>
+      <c r="K42" s="6">
+        <f t="shared" si="4"/>
+        <v>21.052631578947366</v>
+      </c>
+      <c r="L42" s="6">
+        <f t="shared" si="4"/>
+        <v>23.684210526315788</v>
+      </c>
+      <c r="M42" s="6">
+        <f t="shared" si="4"/>
+        <v>26.315789473684209</v>
+      </c>
+      <c r="N42" s="6">
+        <f t="shared" si="4"/>
+        <v>28.94736842105263</v>
+      </c>
+      <c r="O42" s="6">
+        <f t="shared" si="4"/>
+        <v>31.578947368421051</v>
+      </c>
+      <c r="P42" s="6">
+        <f t="shared" si="4"/>
+        <v>34.210526315789473</v>
+      </c>
+      <c r="Q42" s="6">
+        <f t="shared" si="4"/>
+        <v>36.84210526315789</v>
+      </c>
+      <c r="R42" s="6">
+        <f t="shared" si="4"/>
+        <v>39.473684210526315</v>
+      </c>
+      <c r="S42" s="6">
+        <f t="shared" si="4"/>
+        <v>42.105263157894733</v>
+      </c>
+      <c r="T42" s="6">
+        <f t="shared" si="4"/>
+        <v>44.736842105263158</v>
+      </c>
+      <c r="U42" s="6">
+        <f t="shared" si="4"/>
+        <v>47.368421052631575</v>
+      </c>
+      <c r="V42" s="6">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B43" s="27">
+        <f>SUMIF(B38:B42,"&gt;0",B38:B42)</f>
+        <v>100</v>
+      </c>
+      <c r="C43" s="27">
+        <f t="shared" ref="C43:V43" si="5">SUMIF(C38:C42,"&gt;0",C38:C42)</f>
+        <v>99</v>
+      </c>
+      <c r="D43" s="27">
+        <f t="shared" si="5"/>
+        <v>89.631578947368425</v>
+      </c>
+      <c r="E43" s="27">
+        <f t="shared" si="5"/>
+        <v>80.263157894736835</v>
+      </c>
+      <c r="F43" s="27">
+        <f t="shared" si="5"/>
+        <v>70.89473684210526</v>
+      </c>
+      <c r="G43" s="27">
+        <f t="shared" si="5"/>
+        <v>61.526315789473685</v>
+      </c>
+      <c r="H43" s="27">
+        <f t="shared" si="5"/>
+        <v>64.15789473684211</v>
+      </c>
+      <c r="I43" s="27">
+        <f t="shared" si="5"/>
+        <v>67.78947368421052</v>
+      </c>
+      <c r="J43" s="27">
+        <f t="shared" si="5"/>
+        <v>76.421052631578945</v>
+      </c>
+      <c r="K43" s="27">
+        <f t="shared" si="5"/>
+        <v>85.05263157894737</v>
+      </c>
+      <c r="L43" s="27">
+        <f t="shared" si="5"/>
+        <v>93.68421052631578</v>
+      </c>
+      <c r="M43" s="27">
+        <f t="shared" si="5"/>
+        <v>94.315789473684205</v>
+      </c>
+      <c r="N43" s="27">
+        <f t="shared" si="5"/>
+        <v>94.94736842105263</v>
+      </c>
+      <c r="O43" s="27">
+        <f t="shared" si="5"/>
+        <v>95.578947368421055</v>
+      </c>
+      <c r="P43" s="27">
+        <f t="shared" si="5"/>
+        <v>96.21052631578948</v>
+      </c>
+      <c r="Q43" s="27">
+        <f t="shared" si="5"/>
+        <v>96.84210526315789</v>
+      </c>
+      <c r="R43" s="27">
+        <f t="shared" si="5"/>
+        <v>97.473684210526315</v>
+      </c>
+      <c r="S43" s="27">
+        <f t="shared" si="5"/>
+        <v>98.10526315789474</v>
+      </c>
+      <c r="T43" s="27">
+        <f t="shared" si="5"/>
+        <v>98.73684210526315</v>
+      </c>
+      <c r="U43" s="27">
+        <f t="shared" si="5"/>
+        <v>99.368421052631575</v>
+      </c>
+      <c r="V43" s="27">
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -12733,10 +17301,11 @@
     <mergeCell ref="B28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AA5C88-78CF-41FA-ADC3-A5739524DA6F}">
   <dimension ref="A1:AA29"/>
   <sheetViews>
@@ -12772,27 +17341,27 @@
       <c r="A1" s="4">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="22" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
       <c r="N1" s="3" t="s">
         <v>33</v>
       </c>
@@ -12811,7 +17380,7 @@
       <c r="U1" s="3">
         <v>100</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="21" t="s">
         <v>40</v>
       </c>
       <c r="Y1" s="3">
@@ -12853,37 +17422,37 @@
       <c r="K2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="21" t="s">
         <v>40</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="8">
-        <f>J4</f>
+        <f t="shared" ref="O2:O7" si="0">J4</f>
         <v>0.89</v>
       </c>
       <c r="P2" s="8">
-        <f>J14</f>
+        <f t="shared" ref="P2:P7" si="1">J14</f>
         <v>0.2</v>
       </c>
       <c r="Q2" t="str">
-        <f t="shared" ref="Q2:Q7" si="0">"y="&amp;(P2-O2)&amp;"x"&amp;"+"&amp;O2*100</f>
+        <f t="shared" ref="Q2:Q7" si="2">"y="&amp;(P2-O2)&amp;"x"&amp;"+"&amp;O2*100</f>
         <v>y=-0,69x+89</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="T2" s="8">
-        <f>K4</f>
+        <f t="shared" ref="T2:T7" si="3">K4</f>
         <v>0.4</v>
       </c>
       <c r="U2" s="8">
-        <f>K14</f>
+        <f t="shared" ref="U2:U7" si="4">K14</f>
         <v>-0.4</v>
       </c>
       <c r="V2" t="str">
-        <f t="shared" ref="V2:V7" si="1">"y="&amp;(U2-T2)&amp;"x"&amp;"+"&amp;T2*100</f>
+        <f t="shared" ref="V2:V7" si="5">"y="&amp;(U2-T2)&amp;"x"&amp;"+"&amp;T2*100</f>
         <v>y=-0,8x+40</v>
       </c>
       <c r="X2" s="3" t="s">
@@ -12898,7 +17467,7 @@
         <v>-0.7</v>
       </c>
       <c r="AA2" t="str">
-        <f t="shared" ref="AA2:AA7" si="2">"y="&amp;(Z2-Y2)&amp;"x"&amp;"+"&amp;Y2*100</f>
+        <f t="shared" ref="AA2:AA7" si="6">"y="&amp;(Z2-Y2)&amp;"x"&amp;"+"&amp;Y2*100</f>
         <v>y=-1x+30</v>
       </c>
     </row>
@@ -12938,45 +17507,45 @@
         <v>18</v>
       </c>
       <c r="O3" s="8">
-        <f>J5</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="P3" s="8">
-        <f>J15</f>
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>y=0,25x+5</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="T3" s="8">
-        <f>K5</f>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="U3" s="8">
-        <f>K15</f>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="V3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>y=0,25x+15</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="Y3" s="8">
-        <f t="shared" ref="Y3:Y7" si="3">L5</f>
+        <f t="shared" ref="Y3:Y7" si="7">L5</f>
         <v>0.2</v>
       </c>
       <c r="Z3" s="8">
-        <f t="shared" ref="Z3:Z7" si="4">L15</f>
+        <f t="shared" ref="Z3:Z7" si="8">L15</f>
         <v>0.35</v>
       </c>
       <c r="AA3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>y=0,15x+20</v>
       </c>
     </row>
@@ -13009,11 +17578,11 @@
         <v>9</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" ref="H4:I8" si="5">IF($C4&lt;&gt;"",(D4*F4)/10,D4*2)</f>
+        <f t="shared" ref="H4:I8" si="9">IF($C4&lt;&gt;"",(D4*F4)/10,D4*2)</f>
         <v>7.2</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>16.2</v>
       </c>
       <c r="J4" s="8">
@@ -13029,45 +17598,45 @@
         <v>19</v>
       </c>
       <c r="O4" s="8">
-        <f>J6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4" s="8">
-        <f>J16</f>
+        <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>y=0,15x+0</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="T4" s="8">
-        <f>K6</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="U4" s="8">
-        <f>K16</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="V4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>y=0,1x+5</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Y4" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.05</v>
       </c>
       <c r="Z4" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
       <c r="AA4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>y=0,15x+5</v>
       </c>
     </row>
@@ -13100,11 +17669,11 @@
         <v>21</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>29.4</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>66.150000000000006</v>
       </c>
       <c r="J5" s="8">
@@ -13120,45 +17689,45 @@
         <v>20</v>
       </c>
       <c r="O5" s="8">
-        <f>J7</f>
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="P5" s="8">
-        <f>J17</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>y=0x+1</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="T5" s="8">
-        <f>K7</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="U5" s="8">
-        <f>K17</f>
+        <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
       <c r="V5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>y=0x+5</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="Y5" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>y=0x+0</v>
       </c>
     </row>
@@ -13191,11 +17760,11 @@
         <v>15.75</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>44.1</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>99.224999999999994</v>
       </c>
       <c r="J6" s="8">
@@ -13211,45 +17780,45 @@
         <v>21</v>
       </c>
       <c r="O6" s="8">
-        <f>J8</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="P6" s="8">
-        <f>J18</f>
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>y=0,25x+5</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="T6" s="8">
-        <f>K8</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="U6" s="8">
-        <f>K18</f>
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
       <c r="V6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>y=0,05x+25</v>
       </c>
       <c r="X6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Y6" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
       <c r="Z6" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="AA6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>y=0x+30</v>
       </c>
     </row>
@@ -13281,11 +17850,11 @@
         <v>1.2</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.3728000000000007</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>16.588799999999999</v>
       </c>
       <c r="J7" s="8">
@@ -13301,45 +17870,45 @@
         <v>22</v>
       </c>
       <c r="O7" s="8">
-        <f>J9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P7" s="8">
-        <f>J19</f>
+        <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>y=0,04x+0</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="T7" s="8">
-        <f>K9</f>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="U7" s="8">
-        <f>K19</f>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="V7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>y=0x+10</v>
       </c>
       <c r="X7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Y7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.15</v>
       </c>
       <c r="Z7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.15</v>
       </c>
       <c r="AA7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>y=0x+15</v>
       </c>
     </row>
@@ -13369,11 +17938,11 @@
         <v>0</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>49.5</v>
       </c>
       <c r="J8" s="8">
@@ -13438,27 +18007,27 @@
       <c r="A11" s="4">
         <v>100</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="22" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="22" t="s">
+      <c r="G11" s="25"/>
+      <c r="H11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="21" t="s">
+      <c r="I11" s="25"/>
+      <c r="J11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -13492,7 +18061,7 @@
       <c r="K12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="21" t="s">
         <v>40</v>
       </c>
     </row>
@@ -13556,11 +18125,11 @@
         <v>9</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" ref="H14:I18" si="6">IF($C14&lt;&gt;"",(D14*F14)/10,D14*2)</f>
+        <f t="shared" ref="H14:I18" si="10">IF($C14&lt;&gt;"",(D14*F14)/10,D14*2)</f>
         <v>14.4</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>32.4</v>
       </c>
       <c r="J14" s="8">
@@ -13582,7 +18151,7 @@
         <v>52.5</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" ref="C15:C19" si="7">C5</f>
+        <f t="shared" ref="C15:C19" si="11">C5</f>
         <v>17.5</v>
       </c>
       <c r="D15" s="6">
@@ -13602,11 +18171,11 @@
         <v>21</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>58.8</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>132.30000000000001</v>
       </c>
       <c r="J15" s="8">
@@ -13628,7 +18197,7 @@
         <v>105</v>
       </c>
       <c r="C16" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13.125</v>
       </c>
       <c r="D16" s="6">
@@ -13648,11 +18217,11 @@
         <v>15.75</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>88.2</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>198.45</v>
       </c>
       <c r="J16" s="8">
@@ -13674,7 +18243,7 @@
         <v>230.4</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D17" s="6">
@@ -13694,11 +18263,11 @@
         <v>1.2</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>14.745600000000001</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>33.177599999999998</v>
       </c>
       <c r="J17" s="8">
@@ -13720,7 +18289,7 @@
         <v>41.25</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D18" s="6">
@@ -13740,11 +18309,11 @@
         <v>0</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J18" s="8">
@@ -13766,7 +18335,7 @@
         <v>82.5</v>
       </c>
       <c r="C19" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D19" s="6">
@@ -13941,7 +18510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2CD9FF-C807-4A2F-A500-2F255D657DD7}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
@@ -13979,27 +18548,27 @@
       <c r="A1" s="3">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="22" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
       <c r="N1" s="3" t="s">
         <v>33</v>
       </c>
@@ -14502,27 +19071,27 @@
       <c r="A9" s="3">
         <v>100</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="22" t="s">
+      <c r="E9" s="25"/>
+      <c r="F9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="22" t="s">
+      <c r="G9" s="25"/>
+      <c r="H9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="21" t="s">
+      <c r="I9" s="25"/>
+      <c r="J9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -14808,7 +19377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AE4E99-011F-49E2-A8A1-00960F03427B}">
   <dimension ref="A1:AA14"/>
   <sheetViews>
@@ -14838,27 +19407,27 @@
       <c r="A1" s="3">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
       <c r="M1" s="10"/>
       <c r="N1" s="17" t="s">
         <v>33</v>
@@ -15272,27 +19841,27 @@
       <c r="A8" s="3">
         <v>100</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21" t="s">
+      <c r="G8" s="22"/>
+      <c r="H8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21" t="s">
+      <c r="I8" s="22"/>
+      <c r="J8" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>

--- a/GameBalance.xlsx
+++ b/GameBalance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmitr\source\repos\TextGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3634160-9999-4302-A0EE-0A0F16C3403B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D829DDD-EEB0-4FEA-9718-12A0B5D8595C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4E46E8D9-8B4F-4CE6-92DC-8BA3C6E9B9B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E46E8D9-8B4F-4CE6-92DC-8BA3C6E9B9B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Баланс" sheetId="7" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="58">
   <si>
     <t>ХП</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>База</t>
-  </si>
-  <si>
-    <t>Процент усиления противника за 1 комнату</t>
   </si>
   <si>
     <t>Вероятность</t>
@@ -301,9 +298,6 @@
     <t>Карта</t>
   </si>
   <si>
-    <t>Добавить отсутствие врага</t>
-  </si>
-  <si>
     <t>Оружие</t>
   </si>
   <si>
@@ -318,15 +312,27 @@
   <si>
     <t>Заперт</t>
   </si>
+  <si>
+    <t>Нехватка ключей</t>
+  </si>
+  <si>
+    <t>СРЗНАЧ(Оружие!H4:I4)</t>
+  </si>
+  <si>
+    <t>Рассчёт стоимости</t>
+  </si>
+  <si>
+    <t>Процент усиления за 1 комнату</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="0.000%"/>
-    <numFmt numFmtId="181" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -370,12 +376,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -459,12 +465,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -497,6 +534,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -509,20 +554,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1949,11 +1994,116 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="5"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Противники!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ничего</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Противники!$B$38:$V$38</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0185-471B-8135-6DFA23E710B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Противники!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2048,72 +2198,72 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Противники!$B$38:$V$38</c:f>
+              <c:f>Противники!$B$39:$V$39</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>14.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>9.6000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>4.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-12</c:v>
+                  <c:v>-4.7999999999999972</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>-9.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-14.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-19.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>-24</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>-36</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>-28.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-33.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-38.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-43.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>-48</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>-60</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
+                  <c:v>-52.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-57.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-62.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-67.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>-72</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-84</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-96</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-108</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-120</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-132</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-144</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-156</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-168</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2121,16 +2271,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-92E9-49B6-878B-449F5DCF2C8F}"/>
+              <c16:uniqueId val="{00000000-0185-471B-8135-6DFA23E710B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Противники!$A$39</c:f>
+              <c:f>Противники!$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2225,72 +2375,72 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Противники!$B$39:$V$39</c:f>
+              <c:f>Противники!$B$40:$V$40</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7</c:v>
+                  <c:v>-2.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-13</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-19</c:v>
+                  <c:v>-7.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-12.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-17.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-22.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>-25</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>-31</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-37</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-43</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-49</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-61</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>-67</c:v>
+                  <c:v>-27.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-73</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-79</c:v>
+                  <c:v>-32.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2298,16 +2448,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-92E9-49B6-878B-449F5DCF2C8F}"/>
+              <c16:uniqueId val="{00000001-0185-471B-8135-6DFA23E710B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Противники!$A$40</c:f>
+              <c:f>Противники!$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2402,72 +2552,72 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Противники!$B$40:$V$40</c:f>
+              <c:f>Противники!$B$41:$V$41</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>15.999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2475,16 +2625,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-92E9-49B6-878B-449F5DCF2C8F}"/>
+              <c16:uniqueId val="{00000002-0185-471B-8135-6DFA23E710B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Противники!$A$41</c:f>
+              <c:f>Противники!$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2579,7 +2729,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Противники!$B$41:$V$41</c:f>
+              <c:f>Противники!$B$42:$V$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2587,64 +2737,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>31.999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>30.999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>29.999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2652,16 +2802,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-92E9-49B6-878B-449F5DCF2C8F}"/>
+              <c16:uniqueId val="{00000003-0185-471B-8135-6DFA23E710B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Противники!$A$42</c:f>
+              <c:f>Противники!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2756,7 +2906,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Противники!$B$42:$V$42</c:f>
+              <c:f>Противники!$B$43:$V$43</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2767,61 +2917,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6315789473684208</c:v>
+                  <c:v>2.1052631578947367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2631578947368416</c:v>
+                  <c:v>4.2105263157894735</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8947368421052628</c:v>
+                  <c:v>6.3157894736842106</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>8.4210526315789469</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>10.526315789473683</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.157894736842104</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.789473684210526</c:v>
+                  <c:v>12.631578947368421</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.421052631578945</c:v>
+                  <c:v>14.736842105263158</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>16.842105263157894</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.94736842105263</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>21.052631578947366</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>23.684210526315788</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>26.315789473684209</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.94736842105263</c:v>
+                  <c:v>23.157894736842103</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>25.263157894736842</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.368421052631579</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.473684210526315</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>31.578947368421051</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>34.210526315789473</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>36.84210526315789</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>39.473684210526315</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>42.105263157894733</c:v>
+                  <c:v>33.684210526315788</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44.736842105263158</c:v>
+                  <c:v>35.789473684210527</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>47.368421052631575</c:v>
+                  <c:v>37.89473684210526</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2829,7 +2979,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-92E9-49B6-878B-449F5DCF2C8F}"/>
+              <c16:uniqueId val="{00000004-0185-471B-8135-6DFA23E710B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3107,7 +3257,7 @@
                   <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13297,21 +13447,21 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
+        <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C922DE3-10B5-4DAA-A2C9-258E95948BE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{205BFA2B-1F7D-4BE9-9208-BA093DD55920}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13991,7 +14141,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14001,7 +14151,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2">
         <v>0.2</v>
@@ -14009,7 +14159,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B2" s="7">
         <v>0.01</v>
@@ -14052,7 +14202,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14077,8 +14227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEFE8A6-7B0F-4C4F-B26F-9BE0B785C7AE}">
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14090,13 +14240,13 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="8">
         <v>0.3</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -14197,7 +14347,7 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="8">
         <v>0.4</v>
@@ -14205,138 +14355,138 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="25">
         <f>ROUND(E1*$B$5/(E1*$B$5+100),3)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="25">
         <f t="shared" ref="F2:AJ2" si="0">ROUND(F1*$B$5/(F1*$B$5+100),3)</f>
         <v>1E-3</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="25">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="25">
         <f t="shared" si="0"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="25">
         <f t="shared" si="0"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J2" s="30">
+      <c r="J2" s="25">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K2" s="30">
+      <c r="K2" s="25">
         <f t="shared" si="0"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="L2" s="30">
+      <c r="L2" s="25">
         <f t="shared" si="0"/>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="M2" s="30">
+      <c r="M2" s="25">
         <f t="shared" si="0"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N2" s="30">
+      <c r="N2" s="25">
         <f t="shared" si="0"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="O2" s="30">
+      <c r="O2" s="25">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="P2" s="30">
+      <c r="P2" s="25">
         <f t="shared" si="0"/>
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="Q2" s="30">
+      <c r="Q2" s="25">
         <f t="shared" si="0"/>
         <v>1.2E-2</v>
       </c>
-      <c r="R2" s="30">
+      <c r="R2" s="25">
         <f t="shared" si="0"/>
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="S2" s="30">
+      <c r="S2" s="25">
         <f t="shared" si="0"/>
         <v>1.4E-2</v>
       </c>
-      <c r="T2" s="30">
+      <c r="T2" s="25">
         <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="U2" s="30">
+      <c r="U2" s="25">
         <f t="shared" si="0"/>
         <v>1.6E-2</v>
       </c>
-      <c r="V2" s="30">
+      <c r="V2" s="25">
         <f t="shared" si="0"/>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="W2" s="30">
+      <c r="W2" s="25">
         <f t="shared" si="0"/>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="X2" s="30">
+      <c r="X2" s="25">
         <f t="shared" si="0"/>
         <v>1.9E-2</v>
       </c>
-      <c r="Y2" s="30">
+      <c r="Y2" s="25">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="Z2" s="30">
+      <c r="Z2" s="25">
         <f t="shared" si="0"/>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AA2" s="30">
+      <c r="AA2" s="25">
         <f t="shared" si="0"/>
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="AB2" s="30">
+      <c r="AB2" s="25">
         <f t="shared" si="0"/>
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="AC2" s="30">
+      <c r="AC2" s="25">
         <f t="shared" si="0"/>
         <v>2.3E-2</v>
       </c>
-      <c r="AD2" s="30">
+      <c r="AD2" s="25">
         <f t="shared" si="0"/>
         <v>2.4E-2</v>
       </c>
-      <c r="AE2" s="30">
+      <c r="AE2" s="25">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF2" s="30">
+      <c r="AF2" s="25">
         <f t="shared" si="0"/>
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="AG2" s="30">
+      <c r="AG2" s="25">
         <f t="shared" si="0"/>
         <v>2.7E-2</v>
       </c>
-      <c r="AH2" s="30">
+      <c r="AH2" s="25">
         <f t="shared" si="0"/>
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AI2" s="30">
+      <c r="AI2" s="25">
         <f t="shared" si="0"/>
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="AJ2" s="30">
+      <c r="AJ2" s="25">
         <f t="shared" si="0"/>
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="8">
         <v>0.2</v>
@@ -14344,138 +14494,138 @@
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="25">
         <f>1-((1-E2)^10)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="25">
         <f t="shared" ref="F3:Z3" si="1">1-((1-F2)^10)</f>
         <v>9.9551197902516542E-3</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="25">
         <f t="shared" si="1"/>
         <v>1.9820956648050503E-2</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="25">
         <f t="shared" si="1"/>
         <v>2.9598223051083061E-2</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="25">
         <f t="shared" si="1"/>
         <v>3.9287626497189754E-2</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="25">
         <f t="shared" si="1"/>
         <v>4.8889869534228025E-2</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="25">
         <f t="shared" si="1"/>
         <v>5.8405649789787573E-2</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="25">
         <f t="shared" si="1"/>
         <v>6.783566000075647E-2</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3" s="25">
         <f t="shared" si="1"/>
         <v>7.7180588042736975E-2</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="25">
         <f t="shared" si="1"/>
         <v>8.6441116959317443E-2</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="25">
         <f t="shared" si="1"/>
         <v>9.5617924991195702E-2</v>
       </c>
-      <c r="P3" s="30">
+      <c r="P3" s="25">
         <f t="shared" si="1"/>
         <v>0.10471168560515287</v>
       </c>
-      <c r="Q3" s="30">
+      <c r="Q3" s="25">
         <f t="shared" si="1"/>
         <v>0.11372306752288774</v>
       </c>
-      <c r="R3" s="30">
+      <c r="R3" s="25">
         <f t="shared" si="1"/>
         <v>0.12265273474969962</v>
       </c>
-      <c r="S3" s="30">
+      <c r="S3" s="25">
         <f t="shared" si="1"/>
         <v>0.13150134660302926</v>
       </c>
-      <c r="T3" s="30">
+      <c r="T3" s="25">
         <f>1-((1-T2)^10)</f>
         <v>0.14026955774085692</v>
       </c>
-      <c r="U3" s="30">
+      <c r="U3" s="25">
         <f t="shared" si="1"/>
         <v>0.14895801818995635</v>
       </c>
-      <c r="V3" s="30">
+      <c r="V3" s="25">
         <f t="shared" si="1"/>
         <v>0.15756737337400273</v>
       </c>
-      <c r="W3" s="30">
+      <c r="W3" s="25">
         <f t="shared" si="1"/>
         <v>0.1660982641415415</v>
       </c>
-      <c r="X3" s="30">
+      <c r="X3" s="25">
         <f t="shared" si="1"/>
         <v>0.17455132679381646</v>
       </c>
-      <c r="Y3" s="30">
+      <c r="Y3" s="25">
         <f t="shared" si="1"/>
         <v>0.18292719311245342</v>
       </c>
-      <c r="Z3" s="30">
+      <c r="Z3" s="25">
         <f t="shared" si="1"/>
         <v>0.19122649038700312</v>
       </c>
-      <c r="AA3" s="30">
+      <c r="AA3" s="25">
         <f t="shared" ref="AA3" si="2">1-((1-AA2)^10)</f>
         <v>0.19944984144234978</v>
       </c>
-      <c r="AB3" s="30">
+      <c r="AB3" s="25">
         <f t="shared" ref="AB3" si="3">1-((1-AB2)^10)</f>
         <v>0.19944984144234978</v>
       </c>
-      <c r="AC3" s="30">
+      <c r="AC3" s="25">
         <f t="shared" ref="AC3" si="4">1-((1-AC2)^10)</f>
         <v>0.20759786466597252</v>
       </c>
-      <c r="AD3" s="30">
+      <c r="AD3" s="25">
         <f t="shared" ref="AD3" si="5">1-((1-AD2)^10)</f>
         <v>0.21567117403507274</v>
       </c>
-      <c r="AE3" s="30">
+      <c r="AE3" s="25">
         <f t="shared" ref="AE3" si="6">1-((1-AE2)^10)</f>
         <v>0.22367037914356247</v>
       </c>
-      <c r="AF3" s="30">
+      <c r="AF3" s="25">
         <f t="shared" ref="AF3" si="7">1-((1-AF2)^10)</f>
         <v>0.23159608522891328</v>
       </c>
-      <c r="AG3" s="30">
+      <c r="AG3" s="25">
         <f t="shared" ref="AG3:AH3" si="8">1-((1-AG2)^10)</f>
         <v>0.23944889319887064</v>
       </c>
-      <c r="AH3" s="30">
+      <c r="AH3" s="25">
         <f t="shared" si="8"/>
         <v>0.24722939965802815</v>
       </c>
-      <c r="AI3" s="30">
+      <c r="AI3" s="25">
         <f t="shared" ref="AI3:AJ3" si="9">1-((1-AI2)^10)</f>
         <v>0.25493819693426967</v>
       </c>
-      <c r="AJ3" s="30">
+      <c r="AJ3" s="25">
         <f t="shared" si="9"/>
         <v>0.25493819693426967</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="8">
         <v>0.1</v>
@@ -14614,145 +14764,145 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3">
         <v>0.01</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="30">
+        <v>45</v>
+      </c>
+      <c r="E5" s="25">
         <f>PRODUCT($E$4:E4)</f>
         <v>1</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="25">
         <f>PRODUCT($E$4:E4)</f>
         <v>1</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="25">
         <f>PRODUCT($E$4:F4)</f>
         <v>0.99004488020974835</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="25">
         <f>PRODUCT($E$4:G4)</f>
         <v>0.97042124355948656</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="25">
         <f>PRODUCT($E$4:H4)</f>
         <v>0.94169849913910342</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="25">
         <f>PRODUCT($E$4:I4)</f>
         <v>0.90470140023196211</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="25">
         <f>PRODUCT($E$4:J4)</f>
         <v>0.86047066680718809</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="25">
         <f>PRODUCT($E$4:K4)</f>
         <v>0.81021431838726243</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="25">
         <f>PRODUCT($E$4:L4)</f>
         <v>0.75525289535739948</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="25">
         <f>PRODUCT($E$4:M4)</f>
         <v>0.69696203277273572</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="25">
         <f>PRODUCT($E$4:N4)</f>
         <v>0.63671585618162407</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="25">
         <f>PRODUCT($E$4:O4)</f>
         <v>0.5758344072045446</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="25">
         <f>PRODUCT($E$4:P4)</f>
         <v>0.51553781579671276</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="25">
         <f>PRODUCT($E$4:Q4)</f>
         <v>0.45690927396026115</v>
       </c>
-      <c r="S5" s="30">
+      <c r="S5" s="25">
         <f>PRODUCT($E$4:R4)</f>
         <v>0.40086810197653538</v>
       </c>
-      <c r="T5" s="30">
+      <c r="T5" s="25">
         <f>PRODUCT($E$4:S4)</f>
         <v>0.34815340675642054</v>
       </c>
-      <c r="U5" s="30">
+      <c r="U5" s="25">
         <f>PRODUCT($E$4:T4)</f>
         <v>0.29931808236472474</v>
       </c>
-      <c r="V5" s="30">
+      <c r="V5" s="25">
         <f>PRODUCT($E$4:U4)</f>
         <v>0.25473225400725724</v>
       </c>
-      <c r="W5" s="30">
+      <c r="W5" s="25">
         <f>PRODUCT($E$4:V4)</f>
         <v>0.21459476182969445</v>
       </c>
-      <c r="X5" s="30">
+      <c r="X5" s="25">
         <f>PRODUCT($E$4:W4)</f>
         <v>0.17895094439591466</v>
       </c>
-      <c r="Y5" s="30">
+      <c r="Y5" s="25">
         <f>PRODUCT($E$4:X4)</f>
         <v>0.14771481962060129</v>
       </c>
-      <c r="Z5" s="30">
+      <c r="Z5" s="25">
         <f>PRODUCT($E$4:Y4)</f>
         <v>0.12069376228629233</v>
       </c>
-      <c r="AA5" s="30">
+      <c r="AA5" s="25">
         <f>PRODUCT($E$4:Z4)</f>
         <v>9.7613917712681408E-2</v>
       </c>
-      <c r="AB5" s="30">
+      <c r="AB5" s="25">
         <f>PRODUCT($E$4:AA4)</f>
         <v>7.8144837302320524E-2</v>
       </c>
-      <c r="AC5" s="30">
+      <c r="AC5" s="25">
         <f>PRODUCT($E$4:AB4)</f>
         <v>6.255886189283448E-2</v>
       </c>
-      <c r="AD5" s="30">
+      <c r="AD5" s="25">
         <f>PRODUCT($E$4:AC4)</f>
         <v>4.9571775747948563E-2</v>
       </c>
-      <c r="AE5" s="30">
+      <c r="AE5" s="25">
         <f>PRODUCT($E$4:AD4)</f>
         <v>3.8880572673385148E-2</v>
       </c>
-      <c r="AF5" s="30">
+      <c r="AF5" s="25">
         <f>PRODUCT($E$4:AE4)</f>
         <v>3.0184140242210257E-2</v>
       </c>
-      <c r="AG5" s="30">
+      <c r="AG5" s="25">
         <f>PRODUCT($E$4:AF4)</f>
         <v>2.319361152611386E-2</v>
       </c>
-      <c r="AH5" s="30">
+      <c r="AH5" s="25">
         <f>PRODUCT($E$4:AG4)</f>
         <v>1.7639926916901326E-2</v>
       </c>
-      <c r="AI5" s="30">
+      <c r="AI5" s="25">
         <f>PRODUCT($E$4:AH4)</f>
         <v>1.327881837522432E-2</v>
       </c>
-      <c r="AJ5" s="30">
+      <c r="AJ5" s="25">
         <f>PRODUCT($E$4:AI4)</f>
         <v>9.8935403612269834E-3</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AJ6" s="30"/>
+      <c r="AJ6" s="25"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E7" s="2">
@@ -14888,16 +15038,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62381594-8D3E-489F-BDC2-402FECB14F0E}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -14905,34 +15055,34 @@
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>25</v>
+        <v>39</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="8">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="C2" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="10"/>
       <c r="G2" s="7">
-        <f>1-(1-D2)^5</f>
+        <f t="shared" ref="G2:G9" si="0">1-(1-D2)^5</f>
         <v>0</v>
       </c>
       <c r="I2">
@@ -14956,53 +15106,53 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="C3" s="8">
         <v>0.1</v>
       </c>
-      <c r="C3" s="8">
-        <v>0.05</v>
-      </c>
       <c r="D3" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E3" s="10"/>
       <c r="G3" s="7">
-        <f>1-(1-D3)^5</f>
-        <v>0.40950999999999982</v>
-      </c>
-      <c r="I3" s="31">
-        <f>_xlfn.BINOM.DIST(I2,$N$2,$D$3,FALSE)</f>
-        <v>0.59048999999999996</v>
-      </c>
-      <c r="J3" s="31">
-        <f>_xlfn.BINOM.DIST(J2,$N$2,$D$3,FALSE)</f>
-        <v>0.32805000000000001</v>
-      </c>
-      <c r="K3" s="31">
-        <f>_xlfn.BINOM.DIST(K2,$N$2,$D$3,FALSE)</f>
-        <v>7.2899999999999979E-2</v>
-      </c>
-      <c r="L3" s="31">
-        <f>_xlfn.BINOM.DIST(L2,$N$2,$D$3,FALSE)</f>
-        <v>8.0999999999999961E-3</v>
-      </c>
-      <c r="M3" s="31">
-        <f>_xlfn.BINOM.DIST(M2,$N$2,$D$3,FALSE)</f>
-        <v>4.5000000000000064E-4</v>
-      </c>
-      <c r="N3" s="31">
-        <f>_xlfn.BINOM.DIST(N2,$N$2,$D$3,FALSE)</f>
-        <v>1.0000000000000016E-5</v>
+        <f t="shared" si="0"/>
+        <v>0.52957298240000017</v>
+      </c>
+      <c r="I3" s="26">
+        <f t="shared" ref="I3:N3" si="1">_xlfn.BINOM.DIST(I2,$N$2,$D$3,FALSE)</f>
+        <v>0.47042701759999994</v>
+      </c>
+      <c r="J3" s="26">
+        <f t="shared" si="1"/>
+        <v>0.38290571200000001</v>
+      </c>
+      <c r="K3" s="26">
+        <f t="shared" si="1"/>
+        <v>0.12466697600000003</v>
+      </c>
+      <c r="L3" s="26">
+        <f t="shared" si="1"/>
+        <v>2.0294624000000004E-2</v>
+      </c>
+      <c r="M3" s="26">
+        <f t="shared" si="1"/>
+        <v>1.651888000000002E-3</v>
+      </c>
+      <c r="N3" s="26">
+        <f t="shared" si="1"/>
+        <v>5.3782400000000043E-5</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="8">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C4" s="8">
         <v>0.3</v>
@@ -15010,9 +15160,9 @@
       <c r="D4" s="8">
         <v>0</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="10"/>
       <c r="G4" s="7">
-        <f>1-(1-D4)^5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4">
@@ -15020,33 +15170,33 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:N4" si="0">J2*J3</f>
-        <v>0.32805000000000001</v>
+        <f t="shared" ref="J4:N4" si="2">J2*J3</f>
+        <v>0.38290571200000001</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
-        <v>0.14579999999999996</v>
+        <f t="shared" si="2"/>
+        <v>0.24933395200000005</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
-        <v>2.4299999999999988E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.0883872000000012E-2</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
-        <v>1.8000000000000026E-3</v>
+        <f t="shared" si="2"/>
+        <v>6.6075520000000078E-3</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000077E-5</v>
-      </c>
-      <c r="O4" s="35">
+        <f t="shared" si="2"/>
+        <v>2.6891200000000022E-4</v>
+      </c>
+      <c r="O4" s="27">
         <f>SUM(I4:N4)</f>
-        <v>0.5</v>
+        <v>0.70000000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="8">
         <v>0</v>
@@ -15055,20 +15205,22 @@
         <v>0.05</v>
       </c>
       <c r="D5" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="E5" s="32">
+        <v>100</v>
+      </c>
       <c r="G5" s="7">
-        <f>1-(1-D5)^5</f>
-        <v>0.1412659743000001</v>
+        <f t="shared" si="0"/>
+        <v>0.18462730240000003</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="8">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="C6" s="8">
         <v>0</v>
@@ -15077,13 +15229,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="7">
-        <f>1-(1-D6)^5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" s="8">
         <v>0.1</v>
@@ -15092,16 +15244,16 @@
         <v>0.2</v>
       </c>
       <c r="D7" s="8">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G7" s="7">
-        <f>1-(1-D7)^5</f>
-        <v>0.81957706490000004</v>
+        <f t="shared" si="0"/>
+        <v>0.80650823680000006</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="8">
         <v>0.05</v>
@@ -15110,39 +15262,39 @@
         <v>0.1</v>
       </c>
       <c r="D8" s="8">
-        <v>0.28999999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="G8" s="7">
-        <f>1-(1-D8)^5</f>
-        <v>0.81957706490000004</v>
+        <f t="shared" si="0"/>
+        <v>0.79269284070000001</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="8">
         <v>0.15</v>
       </c>
       <c r="C9" s="8">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D9" s="8">
-        <v>0.28999999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="G9" s="7">
-        <f>1-(1-D9)^5</f>
-        <v>0.81957706490000004</v>
+        <f t="shared" si="0"/>
+        <v>0.79269284070000001</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <f>SUM(B2:B9)</f>
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="C10" s="7">
         <f>SUM(C2:C9)</f>
-        <v>1.0999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
         <f>SUM(D2:D9)</f>
@@ -15150,57 +15302,290 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="30">
-        <f>B14</f>
-        <v>0.25</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="D13" s="33"/>
+      <c r="E13" s="34">
+        <f>B6*B14</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="F13" s="36">
         <f>B3</f>
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="8">
         <v>0.5</v>
       </c>
-      <c r="E14" s="2">
+      <c r="D14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="39">
         <f>E13-SUM(F13:F15)</f>
-        <v>9.2499999999999971E-2</v>
-      </c>
-      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="37">
         <f>B6*C3</f>
-        <v>7.4999999999999997E-3</v>
+        <v>2.0000000000000004E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F15" s="32">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="38">
         <f>Комнаты!B4*O4</f>
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>0</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="6">
+        <f>ROUND(Оружие!B4*Оружие!C4/10,0)</f>
+        <v>11</v>
+      </c>
+      <c r="C19" s="6">
+        <f>$B19*(1-Баланс!$B$1)</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D19" s="6">
+        <f>$B19*(1+Баланс!$B$1)</f>
+        <v>13.2</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="6">
+        <f>((C4*B19+C5*E5+C7*G20+C8*H20+C9*I20)*1.1)*3/2</f>
+        <v>35.355223200000005</v>
+      </c>
+      <c r="C20" s="6">
+        <f>$B20*(1-Баланс!$B$1)</f>
+        <v>28.284178560000004</v>
+      </c>
+      <c r="D20" s="6">
+        <f>$B20*(1+Баланс!$B$1)</f>
+        <v>42.426267840000001</v>
+      </c>
+      <c r="G20" s="6">
+        <f>SUM(G21:G26)</f>
+        <v>22.23864</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" ref="H20:I20" si="3">SUM(H21:H26)</f>
+        <v>6.7968000000000011</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="40">
+        <f>AVERAGE(Оружие!H4*Оружие!K4)</f>
+        <v>2.8800000000000003</v>
+      </c>
+      <c r="H21" s="40">
+        <f>Броня!H3*Броня!K3</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="40">
+        <f>Хил!H3*Хил!K3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>100</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="G22" s="40">
+        <f>AVERAGE(Оружие!H5*Оружие!K5)</f>
+        <v>4.4099999999999993</v>
+      </c>
+      <c r="H22" s="40">
+        <f>Броня!H4*Броня!K4</f>
+        <v>1.6896000000000004</v>
+      </c>
+      <c r="I22" s="40">
+        <f>Хил!H4*Хил!K4</f>
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="40">
+        <f>AVERAGE(Оружие!H6*Оружие!K6)</f>
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="H23" s="40">
+        <f>Броня!H5*Броня!K5</f>
+        <v>1.7280000000000004</v>
+      </c>
+      <c r="I23" s="40">
+        <f>Хил!H5*Хил!K5</f>
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="6">
+        <f>(1+(Баланс!$B$2 *$A$22))*B19</f>
+        <v>22</v>
+      </c>
+      <c r="C24" s="6">
+        <f>$B24*(1-Баланс!$B$1)</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D24" s="6">
+        <f>$B24*(1+Баланс!$B$1)</f>
+        <v>26.4</v>
+      </c>
+      <c r="G24" s="40">
+        <f>AVERAGE(Оружие!H7*Оружие!K7)</f>
+        <v>0.36864000000000008</v>
+      </c>
+      <c r="H24" s="40">
+        <f>Броня!H6*Броня!K6</f>
+        <v>1.7203200000000005</v>
+      </c>
+      <c r="I24" s="40">
+        <f>Хил!H6*Хил!K6</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="6">
+        <f>(1+(Баланс!$B$2 *$A$22))*B20</f>
+        <v>70.710446400000009</v>
+      </c>
+      <c r="C25" s="6">
+        <f>$B25*(1-Баланс!$B$1)</f>
+        <v>56.568357120000009</v>
+      </c>
+      <c r="D25" s="6">
+        <f>$B25*(1+Баланс!$B$1)</f>
+        <v>84.852535680000003</v>
+      </c>
+      <c r="G25" s="40">
+        <f>AVERAGE(Оружие!H8*Оружие!K8)</f>
+        <v>8.25</v>
+      </c>
+      <c r="H25" s="40">
+        <f>Броня!H7*Броня!K7</f>
+        <v>1.6588800000000004</v>
+      </c>
+      <c r="I25" s="40"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="40">
+        <f>AVERAGE(Оружие!H9*Оружие!K9)</f>
+        <v>4.125</v>
+      </c>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="str">
+        <f>"y="&amp;(B24-B19)/$A$22&amp;"x+"&amp;B19</f>
+        <v>y=0,11x+11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="str">
+        <f>"y="&amp;ROUND((B25-B20)/$A$22,5)&amp;"x+"&amp;ROUND(B20,0)</f>
+        <v>y=0,35355x+35</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:D22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38E34A5-E026-47EB-BBDA-E748A36D966E}">
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15211,24 +15596,24 @@
     <col min="9" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
@@ -15241,27 +15626,24 @@
         <v>9</v>
       </c>
       <c r="K1" s="5"/>
-      <c r="N1" s="3">
+      <c r="N1" s="41">
         <v>0</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="41">
         <v>10</v>
       </c>
-      <c r="P1" s="3">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="3">
+      <c r="P1" s="41">
         <v>100</v>
       </c>
-      <c r="R1" s="28">
+      <c r="Q1" s="42">
         <v>200</v>
       </c>
+      <c r="V1" s="10"/>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -15273,7 +15655,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>10</v>
@@ -15294,31 +15676,35 @@
         <v>11</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="N2" s="8">
         <v>0.6</v>
       </c>
       <c r="O2" s="8">
-        <v>0.4</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="P2" s="8">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="Q2" s="8">
-        <v>-0.6</v>
-      </c>
-      <c r="R2" s="29"/>
-      <c r="T2" t="str">
-        <f>"y="&amp;(Q2-N2)&amp;"x"&amp;"+"&amp;N2*100</f>
-        <v>y=-1,2x+60</v>
-      </c>
-      <c r="U2" s="9"/>
-      <c r="X2" s="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="S2" t="str">
+        <f>"y="&amp;(P2-N2)&amp;"x"&amp;"+"&amp;N2*100</f>
+        <v>y=-0,4x+60</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" t="str">
+        <f>"у=20, при x&gt;=100"</f>
+        <v>у=20, при x&gt;=100</v>
+      </c>
+      <c r="X2" s="11"/>
       <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -15363,37 +15749,28 @@
         <v>2.4</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3" s="8">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="O3" s="8">
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
       <c r="P3" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>-0.25</v>
-      </c>
-      <c r="R3" s="29"/>
-      <c r="T3" t="str">
-        <f>"y="&amp;(O3-N3)*O1&amp;"x"&amp;"+"&amp;N3*100&amp;" при 0&gt;x&lt;10"</f>
-        <v>y=0,5x+30 при 0&gt;x&lt;10</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V3" t="str">
-        <f>"y="&amp;ROUND((Q3-O3)/(Q1-O1)*100,5)&amp;"(x-"&amp;O1&amp;")"&amp;"+"&amp;O3*100&amp;" при 10&lt;=x&lt;100"</f>
-        <v>y=-0,66667(x-10)+35 при 10&lt;=x&lt;100</v>
-      </c>
-      <c r="W3" s="1"/>
+        <v>-0.24</v>
+      </c>
+      <c r="Q3" s="24"/>
+      <c r="S3" t="str">
+        <f>"y="&amp;(P3-N3)&amp;"x"&amp;"+"&amp;N3*100</f>
+        <v>y=-0,48x+24</v>
+      </c>
+      <c r="T3" s="9"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -15438,45 +15815,34 @@
         <v>1.2</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4" s="8">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="O4" s="8">
         <v>0.15</v>
       </c>
       <c r="P4" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="R4" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="T4" t="str">
-        <f>"y="&amp;(Q4-N4)&amp;"x"&amp;"+"&amp;N4*100&amp;" при 10&lt;x&lt;=100"</f>
-        <v>y=0,2x+10 при 10&lt;x&lt;=100</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V4" t="str">
-        <f>"y="&amp;ROUND((R4-Q4),5)&amp;"(x-"&amp;Q1&amp;")"&amp;"+"&amp;Q4*100&amp;" при 100&lt;x&lt;=200"</f>
-        <v>y=-0,1(x-100)+30 при 100&lt;x&lt;=200</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X4" t="str">
-        <f>"у=20, при x&gt;200"</f>
-        <v>у=20, при x&gt;200</v>
-      </c>
+        <v>-0.1</v>
+      </c>
+      <c r="Q4" s="24"/>
+      <c r="S4" t="str">
+        <f>"y="&amp;(O4-N4)*O1&amp;"x"&amp;"+"&amp;N4*100&amp;" при 0&gt;x&lt;10"</f>
+        <v>y=0,3x+12 при 0&gt;x&lt;10</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" t="str">
+        <f>"y="&amp;ROUND((P4-O4)/(P1-O1)*100,5)&amp;"(x-"&amp;O1&amp;")"&amp;"+"&amp;O4*100&amp;" при 10&lt;=x&lt;100"</f>
+        <v>y=-0,27778(x-10)+15 при 10&lt;=x&lt;100</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -15521,45 +15887,43 @@
         <v>3</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" s="8">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="O5" s="8">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P5" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="R5" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="T5" t="str">
-        <f>"y="&amp;(Q5-N5)&amp;"x"&amp;"+"&amp;N5*100</f>
-        <v>y=0,4x+0</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V5" t="str">
-        <f>"y="&amp;ROUND((R5-Q5),5)&amp;"(x-"&amp;Q1&amp;")"&amp;"+"&amp;Q5*100&amp;" при 100&lt;x&lt;=200"</f>
-        <v>y=-0,1(x-100)+40 при 100&lt;x&lt;=200</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X5" t="str">
-        <f>"у=30, при x&gt;200"</f>
-        <v>у=30, при x&gt;200</v>
-      </c>
+        <v>0.24</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="R5" s="43"/>
+      <c r="S5" t="str">
+        <f>"y="&amp;(P5-N5)&amp;"x"&amp;"+"&amp;N5*100&amp;" при 10&lt;x&lt;=100"</f>
+        <v>y=0,2x+4 при 10&lt;x&lt;=100</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" t="str">
+        <f>"y="&amp;ROUND((Q5-P5),5)&amp;"(x-"&amp;P1&amp;")"&amp;"+"&amp;P5*100&amp;" при 100&lt;x&lt;=200"</f>
+        <v>y=-0,08(x-100)+24 при 100&lt;x&lt;=200</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" t="str">
+        <f>"у=20, при x&gt;200"</f>
+        <v>у=20, при x&gt;200</v>
+      </c>
+      <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -15602,45 +15966,43 @@
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N6" s="8">
         <v>0</v>
       </c>
       <c r="O6" s="8">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="P6" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="R6" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="T6" t="str">
-        <f>"у=0, при x&lt;=10"</f>
-        <v>у=0, при x&lt;=10</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="V6" t="str">
-        <f>"y="&amp;ROUND((R6-N6)/(R1-O1)*100,5)&amp;"(x-"&amp;O1&amp;")"&amp;"+"&amp;N6*100&amp;" при x&gt;10"</f>
-        <v>y=0,26316(x-10)+0 при x&gt;10</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X6" t="str">
-        <f>"у=50, при x&gt;200"</f>
-        <v>у=50, при x&gt;200</v>
-      </c>
+        <v>0.32</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>0.24</v>
+      </c>
+      <c r="R6" s="43"/>
+      <c r="S6" t="str">
+        <f>"y="&amp;(P6-N6)&amp;"x"&amp;"+"&amp;N6*100</f>
+        <v>y=0,32x+0</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" t="str">
+        <f>"y="&amp;ROUND((Q6-P6),5)&amp;"(x-"&amp;P1&amp;")"&amp;"+"&amp;P6*100&amp;" при 100&lt;x&lt;=200"</f>
+        <v>y=-0,08(x-100)+32 при 100&lt;x&lt;=200</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6" t="str">
+        <f>"у=30, при x&gt;200"</f>
+        <v>у=30, при x&gt;200</v>
+      </c>
+      <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -15683,12 +16045,44 @@
         <f>$D7*(1+Баланс!$B$1)</f>
         <v>9.6</v>
       </c>
-      <c r="W7" s="10"/>
+      <c r="M7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="R7" s="43"/>
+      <c r="S7" t="str">
+        <f>"у=0, при x&lt;=10"</f>
+        <v>у=0, при x&lt;=10</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" t="str">
+        <f>"y="&amp;ROUND((Q7-N7)/(Q1-O1)*100,5)&amp;"(x-"&amp;O1&amp;")"&amp;"+"&amp;N7*100&amp;" при x&gt;10"</f>
+        <v>y=0,21053(x-10)+0 при x&gt;10</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7" t="str">
+        <f>"у=50, при x&gt;200"</f>
+        <v>у=50, при x&gt;200</v>
+      </c>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -15729,25 +16123,38 @@
         <f>$D8*(1+Баланс!$B$1)</f>
         <v>5.3999999999999995</v>
       </c>
-      <c r="X8" s="33" t="s">
-        <v>50</v>
+      <c r="N8" s="7">
+        <f>SUMIF(N2:N7,"&gt;0",N2:N7)</f>
+        <v>1</v>
+      </c>
+      <c r="O8" s="7">
+        <f>SUMIF(O2:O7,"&gt;0",O2:O7)</f>
+        <v>1</v>
+      </c>
+      <c r="P8" s="7">
+        <f>SUMIF(P2:P7,"&gt;0",P2:P7)</f>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="7">
+        <f>SUMIF(Q2:Q7,"&gt;0",Q2:Q7)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>10</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="5" t="s">
         <v>0</v>
       </c>
@@ -15764,7 +16171,7 @@
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="5" t="s">
         <v>0</v>
@@ -15776,7 +16183,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>10</v>
@@ -15797,7 +16204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -15841,7 +16248,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -15885,7 +16292,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -15929,7 +16336,7 @@
         <v>3.3000000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -15973,7 +16380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -16063,12 +16470,12 @@
       <c r="A19" s="3">
         <v>50</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="5" t="s">
         <v>0</v>
       </c>
@@ -16094,7 +16501,7 @@
         <v>9</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>10</v>
@@ -16382,12 +16789,12 @@
       <c r="A28" s="3">
         <v>100</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="5" t="s">
         <v>0</v>
       </c>
@@ -16413,7 +16820,7 @@
         <v>9</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -16763,534 +17170,623 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="26">
-        <f>($Q$2-$N$2)*B37+$N$2*100</f>
+      <c r="A38" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="22">
+        <f>IF(B37&lt;100,($P$2-$N$2)*B37+$N$2*100,20)</f>
         <v>60</v>
       </c>
-      <c r="C38" s="26">
-        <f t="shared" ref="C38:V38" si="0">($Q$2-$N$2)*C37+$N$2*100</f>
+      <c r="C38" s="22">
+        <f>IF(C37&lt;100,($P$2-$N$2)*C37+$N$2*100,20)</f>
+        <v>56</v>
+      </c>
+      <c r="D38" s="22">
+        <f>IF(D37&lt;100,($P$2-$N$2)*D37+$N$2*100,20)</f>
+        <v>52</v>
+      </c>
+      <c r="E38" s="22">
+        <f>IF(E37&lt;100,($P$2-$N$2)*E37+$N$2*100,20)</f>
         <v>48</v>
       </c>
-      <c r="D38" s="26">
-        <f t="shared" si="0"/>
+      <c r="F38" s="22">
+        <f>IF(F37&lt;100,($P$2-$N$2)*F37+$N$2*100,20)</f>
+        <v>44</v>
+      </c>
+      <c r="G38" s="22">
+        <f>IF(G37&lt;100,($P$2-$N$2)*G37+$N$2*100,20)</f>
+        <v>40</v>
+      </c>
+      <c r="H38" s="22">
+        <f>IF(H37&lt;100,($P$2-$N$2)*H37+$N$2*100,20)</f>
         <v>36</v>
       </c>
-      <c r="E38" s="26">
-        <f t="shared" si="0"/>
+      <c r="I38" s="22">
+        <f>IF(I37&lt;100,($P$2-$N$2)*I37+$N$2*100,20)</f>
+        <v>32</v>
+      </c>
+      <c r="J38" s="22">
+        <f>IF(J37&lt;100,($P$2-$N$2)*J37+$N$2*100,20)</f>
+        <v>28.000000000000004</v>
+      </c>
+      <c r="K38" s="22">
+        <f>IF(K37&lt;100,($P$2-$N$2)*K37+$N$2*100,20)</f>
         <v>24</v>
       </c>
-      <c r="F38" s="26">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G38" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="26">
-        <f t="shared" si="0"/>
-        <v>-12</v>
-      </c>
-      <c r="I38" s="26">
-        <f t="shared" si="0"/>
-        <v>-24</v>
-      </c>
-      <c r="J38" s="26">
-        <f t="shared" si="0"/>
-        <v>-36</v>
-      </c>
-      <c r="K38" s="26">
-        <f t="shared" si="0"/>
-        <v>-48</v>
-      </c>
-      <c r="L38" s="26">
-        <f t="shared" si="0"/>
-        <v>-60</v>
-      </c>
-      <c r="M38" s="26">
-        <f t="shared" si="0"/>
-        <v>-72</v>
-      </c>
-      <c r="N38" s="26">
-        <f t="shared" si="0"/>
-        <v>-84</v>
-      </c>
-      <c r="O38" s="26">
-        <f t="shared" si="0"/>
-        <v>-96</v>
-      </c>
-      <c r="P38" s="26">
-        <f t="shared" si="0"/>
-        <v>-108</v>
-      </c>
-      <c r="Q38" s="26">
-        <f t="shared" si="0"/>
-        <v>-120</v>
-      </c>
-      <c r="R38" s="26">
-        <f t="shared" si="0"/>
-        <v>-132</v>
-      </c>
-      <c r="S38" s="26">
-        <f t="shared" si="0"/>
-        <v>-144</v>
-      </c>
-      <c r="T38" s="26">
-        <f t="shared" si="0"/>
-        <v>-156</v>
-      </c>
-      <c r="U38" s="26">
-        <f t="shared" si="0"/>
-        <v>-168</v>
-      </c>
-      <c r="V38" s="26">
-        <f t="shared" si="0"/>
-        <v>-180</v>
+      <c r="L38" s="22">
+        <f>IF(L37&lt;100,($P$2-$N$2)*L37+$N$2*100,20)</f>
+        <v>20</v>
+      </c>
+      <c r="M38" s="22">
+        <f>IF(M37&lt;100,($P$2-$N$2)*M37+$N$2*100,20)</f>
+        <v>20</v>
+      </c>
+      <c r="N38" s="22">
+        <f>IF(N37&lt;100,($P$2-$N$2)*N37+$N$2*100,20)</f>
+        <v>20</v>
+      </c>
+      <c r="O38" s="22">
+        <f>IF(O37&lt;100,($P$2-$N$2)*O37+$N$2*100,20)</f>
+        <v>20</v>
+      </c>
+      <c r="P38" s="22">
+        <f>IF(P37&lt;100,($P$2-$N$2)*P37+$N$2*100,20)</f>
+        <v>20</v>
+      </c>
+      <c r="Q38" s="22">
+        <f>IF(Q37&lt;100,($P$2-$N$2)*Q37+$N$2*100,20)</f>
+        <v>20</v>
+      </c>
+      <c r="R38" s="22">
+        <f>IF(R37&lt;100,($P$2-$N$2)*R37+$N$2*100,20)</f>
+        <v>20</v>
+      </c>
+      <c r="S38" s="22">
+        <f>IF(S37&lt;100,($P$2-$N$2)*S37+$N$2*100,20)</f>
+        <v>20</v>
+      </c>
+      <c r="T38" s="22">
+        <f>IF(T37&lt;100,($P$2-$N$2)*T37+$N$2*100,20)</f>
+        <v>20</v>
+      </c>
+      <c r="U38" s="22">
+        <f>IF(U37&lt;100,($P$2-$N$2)*U37+$N$2*100,20)</f>
+        <v>20</v>
+      </c>
+      <c r="V38" s="22">
+        <f>IF(V37&lt;100,($P$2-$N$2)*V37+$N$2*100,20)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="6">
-        <f>IF(AND(B37&gt;=$N$1,B37&lt;=$O$1),($O$3-$N$3)*$O$1*B37+$N$3*100,($Q$3-$O$3)*(B37-$O$1)+$O$3*$Q$1)</f>
-        <v>30</v>
-      </c>
-      <c r="C39" s="6">
-        <f t="shared" ref="C39:V39" si="1">IF(AND(C37&gt;=$N$1,C37&lt;=$O$1),($O$3-$N$3)*$O$1*C37+$N$3*100,($Q$3-$O$3)*(C37-$O$1)+$O$3*$Q$1)</f>
-        <v>35</v>
-      </c>
-      <c r="D39" s="6">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="E39" s="6">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="F39" s="6">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="G39" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H39" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I39" s="6">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J39" s="6">
-        <f t="shared" si="1"/>
-        <v>-7</v>
-      </c>
-      <c r="K39" s="6">
-        <f t="shared" si="1"/>
-        <v>-13</v>
-      </c>
-      <c r="L39" s="6">
-        <f t="shared" si="1"/>
-        <v>-19</v>
-      </c>
-      <c r="M39" s="6">
-        <f t="shared" si="1"/>
-        <v>-25</v>
-      </c>
-      <c r="N39" s="6">
-        <f t="shared" si="1"/>
-        <v>-31</v>
-      </c>
-      <c r="O39" s="6">
-        <f t="shared" si="1"/>
-        <v>-37</v>
-      </c>
-      <c r="P39" s="6">
-        <f t="shared" si="1"/>
-        <v>-43</v>
-      </c>
-      <c r="Q39" s="6">
-        <f t="shared" si="1"/>
-        <v>-49</v>
-      </c>
-      <c r="R39" s="6">
-        <f t="shared" si="1"/>
-        <v>-55</v>
-      </c>
-      <c r="S39" s="6">
-        <f t="shared" si="1"/>
-        <v>-61</v>
-      </c>
-      <c r="T39" s="6">
-        <f t="shared" si="1"/>
-        <v>-67</v>
-      </c>
-      <c r="U39" s="6">
-        <f t="shared" si="1"/>
-        <v>-73</v>
-      </c>
-      <c r="V39" s="6">
-        <f t="shared" si="1"/>
-        <v>-79</v>
+        <v>2</v>
+      </c>
+      <c r="B39" s="22">
+        <f>($P$3-$N$3)*B37+$N$3*100</f>
+        <v>24</v>
+      </c>
+      <c r="C39" s="22">
+        <f>($P$3-$N$3)*C37+$N$3*100</f>
+        <v>19.2</v>
+      </c>
+      <c r="D39" s="22">
+        <f>($P$3-$N$3)*D37+$N$3*100</f>
+        <v>14.4</v>
+      </c>
+      <c r="E39" s="22">
+        <f>($P$3-$N$3)*E37+$N$3*100</f>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="F39" s="22">
+        <f>($P$3-$N$3)*F37+$N$3*100</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="G39" s="22">
+        <f>($P$3-$N$3)*G37+$N$3*100</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="22">
+        <f>($P$3-$N$3)*H37+$N$3*100</f>
+        <v>-4.7999999999999972</v>
+      </c>
+      <c r="I39" s="22">
+        <f>($P$3-$N$3)*I37+$N$3*100</f>
+        <v>-9.6000000000000014</v>
+      </c>
+      <c r="J39" s="22">
+        <f>($P$3-$N$3)*J37+$N$3*100</f>
+        <v>-14.399999999999999</v>
+      </c>
+      <c r="K39" s="22">
+        <f>($P$3-$N$3)*K37+$N$3*100</f>
+        <v>-19.199999999999996</v>
+      </c>
+      <c r="L39" s="22">
+        <f>($P$3-$N$3)*L37+$N$3*100</f>
+        <v>-24</v>
+      </c>
+      <c r="M39" s="22">
+        <f>($P$3-$N$3)*M37+$N$3*100</f>
+        <v>-28.799999999999997</v>
+      </c>
+      <c r="N39" s="22">
+        <f>($P$3-$N$3)*N37+$N$3*100</f>
+        <v>-33.599999999999994</v>
+      </c>
+      <c r="O39" s="22">
+        <f>($P$3-$N$3)*O37+$N$3*100</f>
+        <v>-38.4</v>
+      </c>
+      <c r="P39" s="22">
+        <f>($P$3-$N$3)*P37+$N$3*100</f>
+        <v>-43.2</v>
+      </c>
+      <c r="Q39" s="22">
+        <f>($P$3-$N$3)*Q37+$N$3*100</f>
+        <v>-48</v>
+      </c>
+      <c r="R39" s="22">
+        <f>($P$3-$N$3)*R37+$N$3*100</f>
+        <v>-52.8</v>
+      </c>
+      <c r="S39" s="22">
+        <f>($P$3-$N$3)*S37+$N$3*100</f>
+        <v>-57.599999999999994</v>
+      </c>
+      <c r="T39" s="22">
+        <f>($P$3-$N$3)*T37+$N$3*100</f>
+        <v>-62.399999999999991</v>
+      </c>
+      <c r="U39" s="22">
+        <f>($P$3-$N$3)*U37+$N$3*100</f>
+        <v>-67.2</v>
+      </c>
+      <c r="V39" s="22">
+        <f>($P$3-$N$3)*V37+$N$3*100</f>
+        <v>-72</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" s="6">
-        <f>IF(B37&lt;=100,($Q$4-$N$4)*B37+$N$4*100,(($R$4-$Q$4))*(B37-$Q$1)+$Q$4*100)</f>
+        <f>IF(AND(B37&gt;=$N$1,B37&lt;=$O$1),($O$4-$N$4)*$O$1*B37+$N$4*100,($P$4-$O$4)*(B37-$O$1)+$O$4*$P$1)</f>
+        <v>12</v>
+      </c>
+      <c r="C40" s="6">
+        <f>IF(AND(C37&gt;=$N$1,C37&lt;=$O$1),($O$4-$N$4)*$O$1*C37+$N$4*100,($P$4-$O$4)*(C37-$O$1)+$O$4*$P$1)</f>
+        <v>15</v>
+      </c>
+      <c r="D40" s="6">
+        <f>IF(AND(D37&gt;=$N$1,D37&lt;=$O$1),($O$4-$N$4)*$O$1*D37+$N$4*100,($P$4-$O$4)*(D37-$O$1)+$O$4*$P$1)</f>
+        <v>12.5</v>
+      </c>
+      <c r="E40" s="6">
+        <f>IF(AND(E37&gt;=$N$1,E37&lt;=$O$1),($O$4-$N$4)*$O$1*E37+$N$4*100,($P$4-$O$4)*(E37-$O$1)+$O$4*$P$1)</f>
         <v>10</v>
       </c>
-      <c r="C40" s="6">
-        <f t="shared" ref="C40:V40" si="2">IF(C37&lt;=100,($Q$4-$N$4)*C37+$N$4*100,(($R$4-$Q$4))*(C37-$Q$1)+$Q$4*100)</f>
-        <v>12</v>
-      </c>
-      <c r="D40" s="6">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="E40" s="6">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
       <c r="F40" s="6">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f>IF(AND(F37&gt;=$N$1,F37&lt;=$O$1),($O$4-$N$4)*$O$1*F37+$N$4*100,($P$4-$O$4)*(F37-$O$1)+$O$4*$P$1)</f>
+        <v>7.5</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>IF(AND(G37&gt;=$N$1,G37&lt;=$O$1),($O$4-$N$4)*$O$1*G37+$N$4*100,($P$4-$O$4)*(G37-$O$1)+$O$4*$P$1)</f>
+        <v>5</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f>IF(AND(H37&gt;=$N$1,H37&lt;=$O$1),($O$4-$N$4)*$O$1*H37+$N$4*100,($P$4-$O$4)*(H37-$O$1)+$O$4*$P$1)</f>
+        <v>2.5</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f>IF(AND(I37&gt;=$N$1,I37&lt;=$O$1),($O$4-$N$4)*$O$1*I37+$N$4*100,($P$4-$O$4)*(I37-$O$1)+$O$4*$P$1)</f>
+        <v>0</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f>IF(AND(J37&gt;=$N$1,J37&lt;=$O$1),($O$4-$N$4)*$O$1*J37+$N$4*100,($P$4-$O$4)*(J37-$O$1)+$O$4*$P$1)</f>
+        <v>-2.5</v>
       </c>
       <c r="K40" s="6">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <f>IF(AND(K37&gt;=$N$1,K37&lt;=$O$1),($O$4-$N$4)*$O$1*K37+$N$4*100,($P$4-$O$4)*(K37-$O$1)+$O$4*$P$1)</f>
+        <v>-5</v>
       </c>
       <c r="L40" s="6">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f>IF(AND(L37&gt;=$N$1,L37&lt;=$O$1),($O$4-$N$4)*$O$1*L37+$N$4*100,($P$4-$O$4)*(L37-$O$1)+$O$4*$P$1)</f>
+        <v>-7.5</v>
       </c>
       <c r="M40" s="6">
-        <f t="shared" si="2"/>
-        <v>29</v>
+        <f>IF(AND(M37&gt;=$N$1,M37&lt;=$O$1),($O$4-$N$4)*$O$1*M37+$N$4*100,($P$4-$O$4)*(M37-$O$1)+$O$4*$P$1)</f>
+        <v>-10</v>
       </c>
       <c r="N40" s="6">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <f>IF(AND(N37&gt;=$N$1,N37&lt;=$O$1),($O$4-$N$4)*$O$1*N37+$N$4*100,($P$4-$O$4)*(N37-$O$1)+$O$4*$P$1)</f>
+        <v>-12.5</v>
       </c>
       <c r="O40" s="6">
-        <f t="shared" si="2"/>
-        <v>27</v>
+        <f>IF(AND(O37&gt;=$N$1,O37&lt;=$O$1),($O$4-$N$4)*$O$1*O37+$N$4*100,($P$4-$O$4)*(O37-$O$1)+$O$4*$P$1)</f>
+        <v>-15</v>
       </c>
       <c r="P40" s="6">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f>IF(AND(P37&gt;=$N$1,P37&lt;=$O$1),($O$4-$N$4)*$O$1*P37+$N$4*100,($P$4-$O$4)*(P37-$O$1)+$O$4*$P$1)</f>
+        <v>-17.5</v>
       </c>
       <c r="Q40" s="6">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f>IF(AND(Q37&gt;=$N$1,Q37&lt;=$O$1),($O$4-$N$4)*$O$1*Q37+$N$4*100,($P$4-$O$4)*(Q37-$O$1)+$O$4*$P$1)</f>
+        <v>-20</v>
       </c>
       <c r="R40" s="6">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f>IF(AND(R37&gt;=$N$1,R37&lt;=$O$1),($O$4-$N$4)*$O$1*R37+$N$4*100,($P$4-$O$4)*(R37-$O$1)+$O$4*$P$1)</f>
+        <v>-22.5</v>
       </c>
       <c r="S40" s="6">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <f>IF(AND(S37&gt;=$N$1,S37&lt;=$O$1),($O$4-$N$4)*$O$1*S37+$N$4*100,($P$4-$O$4)*(S37-$O$1)+$O$4*$P$1)</f>
+        <v>-25</v>
       </c>
       <c r="T40" s="6">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f>IF(AND(T37&gt;=$N$1,T37&lt;=$O$1),($O$4-$N$4)*$O$1*T37+$N$4*100,($P$4-$O$4)*(T37-$O$1)+$O$4*$P$1)</f>
+        <v>-27.5</v>
       </c>
       <c r="U40" s="6">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f>IF(AND(U37&gt;=$N$1,U37&lt;=$O$1),($O$4-$N$4)*$O$1*U37+$N$4*100,($P$4-$O$4)*(U37-$O$1)+$O$4*$P$1)</f>
+        <v>-30</v>
       </c>
       <c r="V40" s="6">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>IF(AND(V37&gt;=$N$1,V37&lt;=$O$1),($O$4-$N$4)*$O$1*V37+$N$4*100,($P$4-$O$4)*(V37-$O$1)+$O$4*$P$1)</f>
+        <v>-32.5</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" s="6">
-        <f>IF(B37&lt;=100,($Q$5-$N$5)*B37+$N$5*100,(($R$5-$Q$5))*(B37-$Q$1)+$Q$5*100)</f>
-        <v>0</v>
+        <f>IF(B37&lt;=100,($P$5-$N$5)*B37+$N$5*100,(($Q$5-$P$5))*(B37-$P$1)+$P$5*100)</f>
+        <v>4</v>
       </c>
       <c r="C41" s="6">
-        <f t="shared" ref="C41:V41" si="3">IF(C37&lt;=100,($Q$5-$N$5)*C37+$N$5*100,(($R$5-$Q$5))*(C37-$Q$1)+$Q$5*100)</f>
-        <v>4</v>
+        <f>IF(C37&lt;=100,($P$5-$N$5)*C37+$N$5*100,(($Q$5-$P$5))*(C37-$P$1)+$P$5*100)</f>
+        <v>6</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="3"/>
+        <f>IF(D37&lt;=100,($P$5-$N$5)*D37+$N$5*100,(($Q$5-$P$5))*(D37-$P$1)+$P$5*100)</f>
         <v>8</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" si="3"/>
+        <f>IF(E37&lt;=100,($P$5-$N$5)*E37+$N$5*100,(($Q$5-$P$5))*(E37-$P$1)+$P$5*100)</f>
+        <v>10</v>
+      </c>
+      <c r="F41" s="6">
+        <f>IF(F37&lt;=100,($P$5-$N$5)*F37+$N$5*100,(($Q$5-$P$5))*(F37-$P$1)+$P$5*100)</f>
         <v>12</v>
       </c>
-      <c r="F41" s="6">
-        <f t="shared" si="3"/>
+      <c r="G41" s="6">
+        <f>IF(G37&lt;=100,($P$5-$N$5)*G37+$N$5*100,(($Q$5-$P$5))*(G37-$P$1)+$P$5*100)</f>
+        <v>14</v>
+      </c>
+      <c r="H41" s="6">
+        <f>IF(H37&lt;=100,($P$5-$N$5)*H37+$N$5*100,(($Q$5-$P$5))*(H37-$P$1)+$P$5*100)</f>
+        <v>15.999999999999998</v>
+      </c>
+      <c r="I41" s="6">
+        <f>IF(I37&lt;=100,($P$5-$N$5)*I37+$N$5*100,(($Q$5-$P$5))*(I37-$P$1)+$P$5*100)</f>
+        <v>18</v>
+      </c>
+      <c r="J41" s="6">
+        <f>IF(J37&lt;=100,($P$5-$N$5)*J37+$N$5*100,(($Q$5-$P$5))*(J37-$P$1)+$P$5*100)</f>
+        <v>20</v>
+      </c>
+      <c r="K41" s="6">
+        <f>IF(K37&lt;=100,($P$5-$N$5)*K37+$N$5*100,(($Q$5-$P$5))*(K37-$P$1)+$P$5*100)</f>
+        <v>22</v>
+      </c>
+      <c r="L41" s="6">
+        <f>IF(L37&lt;=100,($P$5-$N$5)*L37+$N$5*100,(($Q$5-$P$5))*(L37-$P$1)+$P$5*100)</f>
+        <v>24</v>
+      </c>
+      <c r="M41" s="6">
+        <f>IF(M37&lt;=100,($P$5-$N$5)*M37+$N$5*100,(($Q$5-$P$5))*(M37-$P$1)+$P$5*100)</f>
+        <v>23.2</v>
+      </c>
+      <c r="N41" s="6">
+        <f>IF(N37&lt;=100,($P$5-$N$5)*N37+$N$5*100,(($Q$5-$P$5))*(N37-$P$1)+$P$5*100)</f>
+        <v>22.4</v>
+      </c>
+      <c r="O41" s="6">
+        <f>IF(O37&lt;=100,($P$5-$N$5)*O37+$N$5*100,(($Q$5-$P$5))*(O37-$P$1)+$P$5*100)</f>
+        <v>21.6</v>
+      </c>
+      <c r="P41" s="6">
+        <f>IF(P37&lt;=100,($P$5-$N$5)*P37+$N$5*100,(($Q$5-$P$5))*(P37-$P$1)+$P$5*100)</f>
+        <v>20.8</v>
+      </c>
+      <c r="Q41" s="6">
+        <f>IF(Q37&lt;=100,($P$5-$N$5)*Q37+$N$5*100,(($Q$5-$P$5))*(Q37-$P$1)+$P$5*100)</f>
+        <v>20</v>
+      </c>
+      <c r="R41" s="6">
+        <f>IF(R37&lt;=100,($P$5-$N$5)*R37+$N$5*100,(($Q$5-$P$5))*(R37-$P$1)+$P$5*100)</f>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="S41" s="6">
+        <f>IF(S37&lt;=100,($P$5-$N$5)*S37+$N$5*100,(($Q$5-$P$5))*(S37-$P$1)+$P$5*100)</f>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="T41" s="6">
+        <f>IF(T37&lt;=100,($P$5-$N$5)*T37+$N$5*100,(($Q$5-$P$5))*(T37-$P$1)+$P$5*100)</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="U41" s="6">
+        <f>IF(U37&lt;=100,($P$5-$N$5)*U37+$N$5*100,(($Q$5-$P$5))*(U37-$P$1)+$P$5*100)</f>
+        <v>16.8</v>
+      </c>
+      <c r="V41" s="6">
+        <f>IF(V37&lt;=100,($P$5-$N$5)*V37+$N$5*100,(($Q$5-$P$5))*(V37-$P$1)+$P$5*100)</f>
         <v>16</v>
-      </c>
-      <c r="G41" s="6">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="H41" s="6">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="I41" s="6">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="J41" s="6">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="K41" s="6">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="L41" s="6">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="M41" s="6">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="N41" s="6">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="O41" s="6">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="P41" s="6">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="Q41" s="6">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="R41" s="6">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="S41" s="6">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="T41" s="6">
-        <f t="shared" si="3"/>
-        <v>31.999999999999996</v>
-      </c>
-      <c r="U41" s="6">
-        <f t="shared" si="3"/>
-        <v>30.999999999999996</v>
-      </c>
-      <c r="V41" s="6">
-        <f t="shared" si="3"/>
-        <v>29.999999999999996</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" s="6">
-        <f>IF(B37&lt;=$O$1,$O$6,($R$6-$O$6)/($R$1-$O$1)*$Q$1*(B37-$O$1))</f>
+        <f>IF(B37&lt;=100,($P$6-$N$6)*B37+$N$6*100,(($Q$6-$P$6))*(B37-$P$1)+$P$6*100)</f>
         <v>0</v>
       </c>
       <c r="C42" s="6">
-        <f t="shared" ref="C42:V42" si="4">IF(C37&lt;=$O$1,$O$6,($R$6-$O$6)/($R$1-$O$1)*$Q$1*(C37-$O$1))</f>
-        <v>0</v>
+        <f>IF(C37&lt;=100,($P$6-$N$6)*C37+$N$6*100,(($Q$6-$P$6))*(C37-$P$1)+$P$6*100)</f>
+        <v>3.2</v>
       </c>
       <c r="D42" s="6">
-        <f t="shared" si="4"/>
-        <v>2.6315789473684208</v>
+        <f>IF(D37&lt;=100,($P$6-$N$6)*D37+$N$6*100,(($Q$6-$P$6))*(D37-$P$1)+$P$6*100)</f>
+        <v>6.4</v>
       </c>
       <c r="E42" s="6">
-        <f t="shared" si="4"/>
-        <v>5.2631578947368416</v>
+        <f>IF(E37&lt;=100,($P$6-$N$6)*E37+$N$6*100,(($Q$6-$P$6))*(E37-$P$1)+$P$6*100)</f>
+        <v>9.6</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" si="4"/>
-        <v>7.8947368421052628</v>
+        <f>IF(F37&lt;=100,($P$6-$N$6)*F37+$N$6*100,(($Q$6-$P$6))*(F37-$P$1)+$P$6*100)</f>
+        <v>12.8</v>
       </c>
       <c r="G42" s="6">
-        <f t="shared" si="4"/>
-        <v>10.526315789473683</v>
+        <f>IF(G37&lt;=100,($P$6-$N$6)*G37+$N$6*100,(($Q$6-$P$6))*(G37-$P$1)+$P$6*100)</f>
+        <v>16</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" si="4"/>
-        <v>13.157894736842104</v>
+        <f>IF(H37&lt;=100,($P$6-$N$6)*H37+$N$6*100,(($Q$6-$P$6))*(H37-$P$1)+$P$6*100)</f>
+        <v>19.2</v>
       </c>
       <c r="I42" s="6">
-        <f t="shared" si="4"/>
-        <v>15.789473684210526</v>
+        <f>IF(I37&lt;=100,($P$6-$N$6)*I37+$N$6*100,(($Q$6-$P$6))*(I37-$P$1)+$P$6*100)</f>
+        <v>22.400000000000002</v>
       </c>
       <c r="J42" s="6">
-        <f t="shared" si="4"/>
-        <v>18.421052631578945</v>
+        <f>IF(J37&lt;=100,($P$6-$N$6)*J37+$N$6*100,(($Q$6-$P$6))*(J37-$P$1)+$P$6*100)</f>
+        <v>25.6</v>
       </c>
       <c r="K42" s="6">
-        <f t="shared" si="4"/>
-        <v>21.052631578947366</v>
+        <f>IF(K37&lt;=100,($P$6-$N$6)*K37+$N$6*100,(($Q$6-$P$6))*(K37-$P$1)+$P$6*100)</f>
+        <v>28.8</v>
       </c>
       <c r="L42" s="6">
-        <f t="shared" si="4"/>
-        <v>23.684210526315788</v>
+        <f>IF(L37&lt;=100,($P$6-$N$6)*L37+$N$6*100,(($Q$6-$P$6))*(L37-$P$1)+$P$6*100)</f>
+        <v>32</v>
       </c>
       <c r="M42" s="6">
-        <f t="shared" si="4"/>
-        <v>26.315789473684209</v>
+        <f>IF(M37&lt;=100,($P$6-$N$6)*M37+$N$6*100,(($Q$6-$P$6))*(M37-$P$1)+$P$6*100)</f>
+        <v>31.2</v>
       </c>
       <c r="N42" s="6">
-        <f t="shared" si="4"/>
-        <v>28.94736842105263</v>
+        <f>IF(N37&lt;=100,($P$6-$N$6)*N37+$N$6*100,(($Q$6-$P$6))*(N37-$P$1)+$P$6*100)</f>
+        <v>30.4</v>
       </c>
       <c r="O42" s="6">
-        <f t="shared" si="4"/>
-        <v>31.578947368421051</v>
+        <f>IF(O37&lt;=100,($P$6-$N$6)*O37+$N$6*100,(($Q$6-$P$6))*(O37-$P$1)+$P$6*100)</f>
+        <v>29.6</v>
       </c>
       <c r="P42" s="6">
-        <f t="shared" si="4"/>
-        <v>34.210526315789473</v>
+        <f>IF(P37&lt;=100,($P$6-$N$6)*P37+$N$6*100,(($Q$6-$P$6))*(P37-$P$1)+$P$6*100)</f>
+        <v>28.8</v>
       </c>
       <c r="Q42" s="6">
-        <f t="shared" si="4"/>
-        <v>36.84210526315789</v>
+        <f>IF(Q37&lt;=100,($P$6-$N$6)*Q37+$N$6*100,(($Q$6-$P$6))*(Q37-$P$1)+$P$6*100)</f>
+        <v>28</v>
       </c>
       <c r="R42" s="6">
-        <f t="shared" si="4"/>
-        <v>39.473684210526315</v>
+        <f>IF(R37&lt;=100,($P$6-$N$6)*R37+$N$6*100,(($Q$6-$P$6))*(R37-$P$1)+$P$6*100)</f>
+        <v>27.2</v>
       </c>
       <c r="S42" s="6">
-        <f t="shared" si="4"/>
-        <v>42.105263157894733</v>
+        <f>IF(S37&lt;=100,($P$6-$N$6)*S37+$N$6*100,(($Q$6-$P$6))*(S37-$P$1)+$P$6*100)</f>
+        <v>26.4</v>
       </c>
       <c r="T42" s="6">
-        <f t="shared" si="4"/>
-        <v>44.736842105263158</v>
+        <f>IF(T37&lt;=100,($P$6-$N$6)*T37+$N$6*100,(($Q$6-$P$6))*(T37-$P$1)+$P$6*100)</f>
+        <v>25.599999999999998</v>
       </c>
       <c r="U42" s="6">
-        <f t="shared" si="4"/>
-        <v>47.368421052631575</v>
+        <f>IF(U37&lt;=100,($P$6-$N$6)*U37+$N$6*100,(($Q$6-$P$6))*(U37-$P$1)+$P$6*100)</f>
+        <v>24.799999999999997</v>
       </c>
       <c r="V42" s="6">
-        <f t="shared" si="4"/>
-        <v>50</v>
+        <f>IF(V37&lt;=100,($P$6-$N$6)*V37+$N$6*100,(($Q$6-$P$6))*(V37-$P$1)+$P$6*100)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="27">
-        <f>SUMIF(B38:B42,"&gt;0",B38:B42)</f>
-        <v>100</v>
-      </c>
-      <c r="C43" s="27">
-        <f t="shared" ref="C43:V43" si="5">SUMIF(C38:C42,"&gt;0",C38:C42)</f>
-        <v>99</v>
-      </c>
-      <c r="D43" s="27">
-        <f t="shared" si="5"/>
-        <v>89.631578947368425</v>
-      </c>
-      <c r="E43" s="27">
-        <f t="shared" si="5"/>
-        <v>80.263157894736835</v>
-      </c>
-      <c r="F43" s="27">
-        <f t="shared" si="5"/>
-        <v>70.89473684210526</v>
-      </c>
-      <c r="G43" s="27">
-        <f t="shared" si="5"/>
-        <v>61.526315789473685</v>
-      </c>
-      <c r="H43" s="27">
-        <f t="shared" si="5"/>
-        <v>64.15789473684211</v>
-      </c>
-      <c r="I43" s="27">
-        <f t="shared" si="5"/>
-        <v>67.78947368421052</v>
-      </c>
-      <c r="J43" s="27">
-        <f t="shared" si="5"/>
-        <v>76.421052631578945</v>
-      </c>
-      <c r="K43" s="27">
-        <f t="shared" si="5"/>
-        <v>85.05263157894737</v>
-      </c>
-      <c r="L43" s="27">
-        <f t="shared" si="5"/>
-        <v>93.68421052631578</v>
-      </c>
-      <c r="M43" s="27">
-        <f t="shared" si="5"/>
-        <v>94.315789473684205</v>
-      </c>
-      <c r="N43" s="27">
-        <f t="shared" si="5"/>
-        <v>94.94736842105263</v>
-      </c>
-      <c r="O43" s="27">
-        <f t="shared" si="5"/>
-        <v>95.578947368421055</v>
-      </c>
-      <c r="P43" s="27">
-        <f t="shared" si="5"/>
-        <v>96.21052631578948</v>
-      </c>
-      <c r="Q43" s="27">
-        <f t="shared" si="5"/>
-        <v>96.84210526315789</v>
-      </c>
-      <c r="R43" s="27">
-        <f t="shared" si="5"/>
-        <v>97.473684210526315</v>
-      </c>
-      <c r="S43" s="27">
-        <f t="shared" si="5"/>
-        <v>98.10526315789474</v>
-      </c>
-      <c r="T43" s="27">
-        <f t="shared" si="5"/>
-        <v>98.73684210526315</v>
-      </c>
-      <c r="U43" s="27">
-        <f t="shared" si="5"/>
-        <v>99.368421052631575</v>
-      </c>
-      <c r="V43" s="27">
-        <f t="shared" si="5"/>
-        <v>100</v>
+      <c r="A43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="6">
+        <f>IF(B37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(B37-$O$1))</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="6">
+        <f>IF(C37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(C37-$O$1))</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <f>IF(D37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(D37-$O$1))</f>
+        <v>2.1052631578947367</v>
+      </c>
+      <c r="E43" s="6">
+        <f>IF(E37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(E37-$O$1))</f>
+        <v>4.2105263157894735</v>
+      </c>
+      <c r="F43" s="6">
+        <f>IF(F37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(F37-$O$1))</f>
+        <v>6.3157894736842106</v>
+      </c>
+      <c r="G43" s="6">
+        <f>IF(G37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(G37-$O$1))</f>
+        <v>8.4210526315789469</v>
+      </c>
+      <c r="H43" s="6">
+        <f>IF(H37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(H37-$O$1))</f>
+        <v>10.526315789473683</v>
+      </c>
+      <c r="I43" s="6">
+        <f>IF(I37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(I37-$O$1))</f>
+        <v>12.631578947368421</v>
+      </c>
+      <c r="J43" s="6">
+        <f>IF(J37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(J37-$O$1))</f>
+        <v>14.736842105263158</v>
+      </c>
+      <c r="K43" s="6">
+        <f>IF(K37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(K37-$O$1))</f>
+        <v>16.842105263157894</v>
+      </c>
+      <c r="L43" s="6">
+        <f>IF(L37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(L37-$O$1))</f>
+        <v>18.94736842105263</v>
+      </c>
+      <c r="M43" s="6">
+        <f>IF(M37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(M37-$O$1))</f>
+        <v>21.052631578947366</v>
+      </c>
+      <c r="N43" s="6">
+        <f>IF(N37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(N37-$O$1))</f>
+        <v>23.157894736842103</v>
+      </c>
+      <c r="O43" s="6">
+        <f>IF(O37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(O37-$O$1))</f>
+        <v>25.263157894736842</v>
+      </c>
+      <c r="P43" s="6">
+        <f>IF(P37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(P37-$O$1))</f>
+        <v>27.368421052631579</v>
+      </c>
+      <c r="Q43" s="6">
+        <f>IF(Q37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(Q37-$O$1))</f>
+        <v>29.473684210526315</v>
+      </c>
+      <c r="R43" s="6">
+        <f>IF(R37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(R37-$O$1))</f>
+        <v>31.578947368421051</v>
+      </c>
+      <c r="S43" s="6">
+        <f>IF(S37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(S37-$O$1))</f>
+        <v>33.684210526315788</v>
+      </c>
+      <c r="T43" s="6">
+        <f>IF(T37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(T37-$O$1))</f>
+        <v>35.789473684210527</v>
+      </c>
+      <c r="U43" s="6">
+        <f>IF(U37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(U37-$O$1))</f>
+        <v>37.89473684210526</v>
+      </c>
+      <c r="V43" s="6">
+        <f>IF(V37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(V37-$O$1))</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B44" s="23">
+        <f>SUMIF(B39:B43,"&gt;0",B39:B43)</f>
+        <v>40</v>
+      </c>
+      <c r="C44" s="23">
+        <f t="shared" ref="C44:V44" si="0">SUMIF(C39:C43,"&gt;0",C39:C43)</f>
+        <v>43.400000000000006</v>
+      </c>
+      <c r="D44" s="23">
+        <f t="shared" si="0"/>
+        <v>43.405263157894737</v>
+      </c>
+      <c r="E44" s="23">
+        <f t="shared" si="0"/>
+        <v>43.410526315789475</v>
+      </c>
+      <c r="F44" s="23">
+        <f t="shared" si="0"/>
+        <v>43.415789473684214</v>
+      </c>
+      <c r="G44" s="23">
+        <f t="shared" si="0"/>
+        <v>43.421052631578945</v>
+      </c>
+      <c r="H44" s="23">
+        <f t="shared" si="0"/>
+        <v>48.226315789473688</v>
+      </c>
+      <c r="I44" s="23">
+        <f t="shared" si="0"/>
+        <v>53.03157894736843</v>
+      </c>
+      <c r="J44" s="23">
+        <f t="shared" si="0"/>
+        <v>60.336842105263159</v>
+      </c>
+      <c r="K44" s="23">
+        <f t="shared" si="0"/>
+        <v>67.642105263157887</v>
+      </c>
+      <c r="L44" s="23">
+        <f t="shared" si="0"/>
+        <v>74.94736842105263</v>
+      </c>
+      <c r="M44" s="23">
+        <f t="shared" si="0"/>
+        <v>75.452631578947361</v>
+      </c>
+      <c r="N44" s="23">
+        <f t="shared" si="0"/>
+        <v>75.957894736842093</v>
+      </c>
+      <c r="O44" s="23">
+        <f t="shared" si="0"/>
+        <v>76.463157894736838</v>
+      </c>
+      <c r="P44" s="23">
+        <f t="shared" si="0"/>
+        <v>76.968421052631584</v>
+      </c>
+      <c r="Q44" s="23">
+        <f t="shared" si="0"/>
+        <v>77.473684210526315</v>
+      </c>
+      <c r="R44" s="23">
+        <f t="shared" si="0"/>
+        <v>77.978947368421061</v>
+      </c>
+      <c r="S44" s="23">
+        <f t="shared" si="0"/>
+        <v>78.484210526315792</v>
+      </c>
+      <c r="T44" s="23">
+        <f t="shared" si="0"/>
+        <v>78.989473684210537</v>
+      </c>
+      <c r="U44" s="23">
+        <f t="shared" si="0"/>
+        <v>79.494736842105254</v>
+      </c>
+      <c r="V44" s="23">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -17310,7 +17806,7 @@
   <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17341,29 +17837,29 @@
       <c r="A1" s="4">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="23" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="31"/>
+      <c r="H1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="22" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="N1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="N1" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="O1" s="3">
         <v>0</v>
@@ -17372,7 +17868,7 @@
         <v>100</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T1" s="3">
         <v>0</v>
@@ -17381,7 +17877,7 @@
         <v>100</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y1" s="3">
         <v>0</v>
@@ -17396,7 +17892,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -17417,46 +17913,45 @@
         <v>11</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="L2" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O2" s="8">
         <f t="shared" ref="O2:O7" si="0">J4</f>
         <v>0.89</v>
       </c>
       <c r="P2" s="8">
-        <f t="shared" ref="P2:P7" si="1">J14</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="str">
-        <f t="shared" ref="Q2:Q7" si="2">"y="&amp;(P2-O2)&amp;"x"&amp;"+"&amp;O2*100</f>
-        <v>y=-0,69x+89</v>
+        <f t="shared" ref="Q2:Q7" si="1">"y="&amp;(P2-O2)&amp;"x"&amp;"+"&amp;O2*100</f>
+        <v>y=-0,89x+89</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T2" s="8">
-        <f t="shared" ref="T2:T7" si="3">K4</f>
+        <f t="shared" ref="T2:T7" si="2">K4</f>
         <v>0.4</v>
       </c>
       <c r="U2" s="8">
-        <f t="shared" ref="U2:U7" si="4">K14</f>
+        <f t="shared" ref="U2:U7" si="3">K14</f>
         <v>-0.4</v>
       </c>
       <c r="V2" t="str">
-        <f t="shared" ref="V2:V7" si="5">"y="&amp;(U2-T2)&amp;"x"&amp;"+"&amp;T2*100</f>
+        <f t="shared" ref="V2:V7" si="4">"y="&amp;(U2-T2)&amp;"x"&amp;"+"&amp;T2*100</f>
         <v>y=-0,8x+40</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y2" s="8">
         <f>L4</f>
@@ -17467,74 +17962,74 @@
         <v>-0.7</v>
       </c>
       <c r="AA2" t="str">
-        <f t="shared" ref="AA2:AA7" si="6">"y="&amp;(Z2-Y2)&amp;"x"&amp;"+"&amp;Y2*100</f>
+        <f t="shared" ref="AA2:AA7" si="5">"y="&amp;(Z2-Y2)&amp;"x"&amp;"+"&amp;Y2*100</f>
         <v>y=-1x+30</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6">
         <f>Противники!B4</f>
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="18"/>
       <c r="L3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O3" s="8">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="P3" s="8">
+        <f t="shared" ref="P2:P7" si="6">J15</f>
+        <v>0.3</v>
+      </c>
+      <c r="Q3" t="str">
         <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="Q3" t="str">
+        <v>y=0,25x+5</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="8">
         <f t="shared" si="2"/>
-        <v>y=0,25x+5</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="U3" s="8">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="U3" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="V3" t="str">
         <f t="shared" si="4"/>
-        <v>0.4</v>
-      </c>
-      <c r="V3" t="str">
-        <f t="shared" si="5"/>
         <v>y=0,25x+15</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y3" s="8">
         <f t="shared" ref="Y3:Y7" si="7">L5</f>
@@ -17545,13 +18040,13 @@
         <v>0.35</v>
       </c>
       <c r="AA3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>y=0,15x+20</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6">
         <f>Противники!B3*0.75</f>
@@ -17595,37 +18090,37 @@
         <v>0.3</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O4" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4" s="8">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+      <c r="Q4" t="str">
         <f t="shared" si="1"/>
+        <v>y=0,15x+0</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="8">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="U4" s="8">
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
-      <c r="Q4" t="str">
-        <f t="shared" si="2"/>
-        <v>y=0,15x+0</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="8">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="U4" s="8">
+      <c r="V4" t="str">
         <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="V4" t="str">
-        <f t="shared" si="5"/>
         <v>y=0,1x+5</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y4" s="8">
         <f t="shared" si="7"/>
@@ -17636,13 +18131,13 @@
         <v>0.2</v>
       </c>
       <c r="AA4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>y=0,15x+5</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6">
         <f>B4*1.75</f>
@@ -17686,37 +18181,37 @@
         <v>0.2</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O5" s="8">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="P5" s="8">
+        <f t="shared" si="6"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q5" t="str">
         <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="Q5" t="str">
+        <v>y=0x+1</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="8">
         <f t="shared" si="2"/>
-        <v>y=0x+1</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="U5" s="8">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="U5" s="8">
+      <c r="V5" t="str">
         <f t="shared" si="4"/>
-        <v>0.05</v>
-      </c>
-      <c r="V5" t="str">
-        <f t="shared" si="5"/>
         <v>y=0x+5</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" si="7"/>
@@ -17727,13 +18222,13 @@
         <v>0</v>
       </c>
       <c r="AA5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>y=0x+0</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6">
         <f>B5*2</f>
@@ -17777,37 +18272,37 @@
         <v>0.05</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="P6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q6" t="str">
         <f t="shared" si="1"/>
+        <v>y=0,25x+5</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="U6" s="8">
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="2"/>
-        <v>y=0,25x+5</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T6" s="8">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-      <c r="U6" s="8">
+      <c r="V6" t="str">
         <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="V6" t="str">
-        <f t="shared" si="5"/>
         <v>y=0,05x+25</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y6" s="8">
         <f t="shared" si="7"/>
@@ -17818,13 +18313,13 @@
         <v>0.3</v>
       </c>
       <c r="AA6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>y=0x+30</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="6">
         <f>(Противники!G7+Противники!K7)*2</f>
@@ -17867,37 +18362,37 @@
         <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P7" s="8">
+        <f t="shared" si="6"/>
+        <v>0.04</v>
+      </c>
+      <c r="Q7" t="str">
         <f t="shared" si="1"/>
-        <v>0.04</v>
-      </c>
-      <c r="Q7" t="str">
+        <v>y=0,04x+0</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="8">
         <f t="shared" si="2"/>
-        <v>y=0,04x+0</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="U7" s="8">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="U7" s="8">
+      <c r="V7" t="str">
         <f t="shared" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="V7" t="str">
-        <f t="shared" si="5"/>
         <v>y=0x+10</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y7" s="8">
         <f t="shared" si="7"/>
@@ -17908,13 +18403,13 @@
         <v>0.15</v>
       </c>
       <c r="AA7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>y=0x+15</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="6">
         <f>(B4+B5)/2</f>
@@ -17957,7 +18452,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="6">
         <f>B8*2</f>
@@ -18007,27 +18502,27 @@
       <c r="A11" s="4">
         <v>100</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="23" t="s">
+      <c r="E11" s="31"/>
+      <c r="F11" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -18035,7 +18530,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>10</v>
@@ -18056,18 +18551,18 @@
         <v>11</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="L12" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="6">
         <f>(1+(Баланс!$B$2 *Оружие!$A$11))*B3</f>
@@ -18075,22 +18570,22 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="18"/>
@@ -18098,7 +18593,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="6">
         <f>(1+(Баланс!$B$2 *Оружие!$A$11))*B4</f>
@@ -18144,7 +18639,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="6">
         <f>(1+(Баланс!$B$2 *Оружие!$A$11))*B5</f>
@@ -18190,7 +18685,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="6">
         <f>(1+(Баланс!$B$2 *Оружие!$A$11))*B6</f>
@@ -18236,7 +18731,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="6">
         <f>(1+(Баланс!$B$2 *Оружие!$A$11))*B7</f>
@@ -18282,7 +18777,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="6">
         <f>(1+(Баланс!$B$2 *Оружие!$A$11))*B8</f>
@@ -18328,7 +18823,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="6">
         <f>(1+(Баланс!$B$2 *Оружие!$A$11))*B9</f>
@@ -18548,29 +19043,29 @@
       <c r="A1" s="3">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="23" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="31"/>
+      <c r="H1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="22" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="N1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="N1" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="O1" s="3">
         <v>0</v>
@@ -18579,7 +19074,7 @@
         <v>100</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T1" s="3">
         <v>0</v>
@@ -18588,7 +19083,7 @@
         <v>100</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y1" s="3">
         <v>0</v>
@@ -18603,7 +19098,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -18624,16 +19119,16 @@
         <v>11</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O2" s="8">
         <f>J3</f>
@@ -18648,7 +19143,7 @@
         <v>y=-1,7x+85</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T2" s="8">
         <f>K4</f>
@@ -18663,7 +19158,7 @@
         <v>y=-0,15x+55</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y2" s="8">
         <v>0.5</v>
@@ -18678,7 +19173,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6">
         <f>Противники!C3/5</f>
@@ -18722,7 +19217,7 @@
         <v>0.5</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3" s="8">
         <f>J4</f>
@@ -18737,7 +19232,7 @@
         <v>y=0,35x+10</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T3" s="8">
         <f>K5</f>
@@ -18752,7 +19247,7 @@
         <v>y=0,15x+25</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y3" s="8">
         <v>0.27500000000000002</v>
@@ -18767,7 +19262,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="6">
         <f>Противники!C5*0.8</f>
@@ -18812,7 +19307,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O4" s="8">
         <f>J5</f>
@@ -18827,7 +19322,7 @@
         <v>y=0,2x+0</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T4" s="8">
         <f>K6</f>
@@ -18842,7 +19337,7 @@
         <v>y=-0,04x+14</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y4" s="8">
         <v>0.125</v>
@@ -18857,7 +19352,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="6">
         <f>Противники!C7/5</f>
@@ -18902,7 +19397,7 @@
         <v>0.125</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O5" s="8">
         <f>J6</f>
@@ -18917,7 +19412,7 @@
         <v>y=0,2x+5</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T5" s="8">
         <f>K7</f>
@@ -18932,7 +19427,7 @@
         <v>y=0,04x+6</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y5" s="8">
         <v>7.0000000000000007E-2</v>
@@ -18947,7 +19442,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6">
         <f>B4*2</f>
@@ -18992,7 +19487,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O6" s="8">
         <f>J7</f>
@@ -19007,7 +19502,7 @@
         <v>y=0,1x+0</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y6" s="8">
         <v>0.03</v>
@@ -19022,7 +19517,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6">
         <f>B5*2</f>
@@ -19071,27 +19566,27 @@
       <c r="A9" s="3">
         <v>100</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="31"/>
+      <c r="F9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -19099,7 +19594,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -19120,18 +19615,18 @@
         <v>11</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="L10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6">
         <f>(1+(Баланс!$B$2 *$A$9))*B3</f>
@@ -19177,7 +19672,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6">
         <f>(1+(Баланс!$B$2 *$A$9))*B4</f>
@@ -19223,7 +19718,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="6">
         <f>(1+(Баланс!$B$2 *$A$9))*B5</f>
@@ -19269,7 +19764,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="6">
         <f>(1+(Баланс!$B$2 *$A$9))*B6</f>
@@ -19315,7 +19810,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="6">
         <f>(1+(Баланс!$B$2 *$A$9))*B7</f>
@@ -19407,30 +19902,30 @@
       <c r="A1" s="3">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="10"/>
       <c r="N1" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O1" s="3">
         <v>0</v>
@@ -19439,7 +19934,7 @@
         <v>100</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T1" s="3">
         <v>0</v>
@@ -19448,7 +19943,7 @@
         <v>100</v>
       </c>
       <c r="X1" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y1" s="3">
         <v>0</v>
@@ -19463,7 +19958,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -19484,17 +19979,17 @@
         <v>11</v>
       </c>
       <c r="J2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="L2" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2" s="8">
         <v>0.67</v>
@@ -19507,7 +20002,7 @@
         <v>y=-0,34x+67</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T2" s="8">
         <v>0</v>
@@ -19520,7 +20015,7 @@
         <v>y=0x+0</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y2" s="8">
         <v>0.3</v>
@@ -19535,7 +20030,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -19579,7 +20074,7 @@
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O3" s="8">
         <v>0.22</v>
@@ -19592,7 +20087,7 @@
         <v>y=0,22x+22</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T3" s="8">
         <v>0.6</v>
@@ -19605,7 +20100,7 @@
         <v>y=0x+60</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y3" s="8">
         <v>0.4</v>
@@ -19620,7 +20115,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -19664,7 +20159,7 @@
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O4" s="8">
         <v>0.1</v>
@@ -19677,7 +20172,7 @@
         <v>y=0,11x+10</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T4" s="8">
         <v>0.3</v>
@@ -19690,7 +20185,7 @@
         <v>y=0x+30</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y4" s="8">
         <v>0.2</v>
@@ -19705,7 +20200,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3">
         <f>Игрок!B1*0.1</f>
@@ -19750,7 +20245,7 @@
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O5" s="8">
         <v>0.01</v>
@@ -19763,7 +20258,7 @@
         <v>y=0,01x+1</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T5" s="8">
         <v>0.1</v>
@@ -19776,7 +20271,7 @@
         <v>y=0x+10</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y5" s="8">
         <v>0.1</v>
@@ -19791,7 +20286,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3">
         <f>Игрок!B1*0.25</f>
@@ -19841,27 +20336,27 @@
       <c r="A8" s="3">
         <v>100</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -19869,7 +20364,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -19890,18 +20385,18 @@
         <v>11</v>
       </c>
       <c r="J9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="L9" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3">
         <f>(1+Баланс!$B$2*$A$8)*B3</f>
@@ -19947,7 +20442,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="3">
         <f>(1+Баланс!$B$2*$A$8)*B4</f>
@@ -19993,7 +20488,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3">
         <f>(1+Баланс!$B$2*$A$8)*B5</f>
@@ -20039,7 +20534,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3">
         <f>(1+Баланс!$B$2*$A$8)*B6</f>

--- a/GameBalance.xlsx
+++ b/GameBalance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmitr\source\repos\TextGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coder\source\repos\Ka666aH\TextGameAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D829DDD-EEB0-4FEA-9718-12A0B5D8595C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444D94B1-67E6-437C-9733-8227F7BBB4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E46E8D9-8B4F-4CE6-92DC-8BA3C6E9B9B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="4" xr2:uid="{4E46E8D9-8B4F-4CE6-92DC-8BA3C6E9B9B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Баланс" sheetId="7" r:id="rId1"/>
@@ -26,9 +26,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -149,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="58">
   <si>
     <t>ХП</t>
   </si>
@@ -501,7 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -511,29 +508,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -542,6 +524,20 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,20 +550,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -981,6 +963,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -988,7 +971,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1456,6 +1438,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1463,7 +1446,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1931,6 +1913,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1938,7 +1921,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3144,6 +3126,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3151,7 +3134,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3744,6 +3726,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3751,7 +3734,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4434,6 +4416,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4441,7 +4424,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5036,6 +5018,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5043,7 +5026,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5574,6 +5556,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5581,7 +5564,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6135,6 +6117,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6142,7 +6125,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6674,6 +6656,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6681,7 +6664,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7235,6 +7217,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7242,7 +7225,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -14161,7 +14143,7 @@
       <c r="A2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>0.01</v>
       </c>
     </row>
@@ -14169,7 +14151,7 @@
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <f>A3*B2</f>
         <v>0.1</v>
       </c>
@@ -14178,7 +14160,7 @@
       <c r="A4">
         <v>50</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <f>A4*B2</f>
         <v>0.5</v>
       </c>
@@ -14187,7 +14169,7 @@
       <c r="A5">
         <v>100</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <f>A5*B2</f>
         <v>1</v>
       </c>
@@ -14227,7 +14209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEFE8A6-7B0F-4C4F-B26F-9BE0B785C7AE}">
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -14242,7 +14224,7 @@
       <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="7">
         <v>0.3</v>
       </c>
       <c r="D1" t="s">
@@ -14349,137 +14331,137 @@
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>0.4</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="16">
         <f>ROUND(E1*$B$5/(E1*$B$5+100),3)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="16">
         <f t="shared" ref="F2:AJ2" si="0">ROUND(F1*$B$5/(F1*$B$5+100),3)</f>
         <v>1E-3</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="16">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="16">
         <f t="shared" si="0"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="16">
         <f t="shared" si="0"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="16">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="16">
         <f t="shared" si="0"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="16">
         <f t="shared" si="0"/>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="16">
         <f t="shared" si="0"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N2" s="25">
+      <c r="N2" s="16">
         <f t="shared" si="0"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="O2" s="25">
+      <c r="O2" s="16">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="P2" s="25">
+      <c r="P2" s="16">
         <f t="shared" si="0"/>
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="Q2" s="16">
         <f t="shared" si="0"/>
         <v>1.2E-2</v>
       </c>
-      <c r="R2" s="25">
+      <c r="R2" s="16">
         <f t="shared" si="0"/>
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="S2" s="25">
+      <c r="S2" s="16">
         <f t="shared" si="0"/>
         <v>1.4E-2</v>
       </c>
-      <c r="T2" s="25">
+      <c r="T2" s="16">
         <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="U2" s="25">
+      <c r="U2" s="16">
         <f t="shared" si="0"/>
         <v>1.6E-2</v>
       </c>
-      <c r="V2" s="25">
+      <c r="V2" s="16">
         <f t="shared" si="0"/>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="W2" s="25">
+      <c r="W2" s="16">
         <f t="shared" si="0"/>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="X2" s="25">
+      <c r="X2" s="16">
         <f t="shared" si="0"/>
         <v>1.9E-2</v>
       </c>
-      <c r="Y2" s="25">
+      <c r="Y2" s="16">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="Z2" s="25">
+      <c r="Z2" s="16">
         <f t="shared" si="0"/>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AA2" s="25">
+      <c r="AA2" s="16">
         <f t="shared" si="0"/>
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="AB2" s="25">
+      <c r="AB2" s="16">
         <f t="shared" si="0"/>
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="AC2" s="25">
+      <c r="AC2" s="16">
         <f t="shared" si="0"/>
         <v>2.3E-2</v>
       </c>
-      <c r="AD2" s="25">
+      <c r="AD2" s="16">
         <f t="shared" si="0"/>
         <v>2.4E-2</v>
       </c>
-      <c r="AE2" s="25">
+      <c r="AE2" s="16">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF2" s="25">
+      <c r="AF2" s="16">
         <f t="shared" si="0"/>
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="AG2" s="25">
+      <c r="AG2" s="16">
         <f t="shared" si="0"/>
         <v>2.7E-2</v>
       </c>
-      <c r="AH2" s="25">
+      <c r="AH2" s="16">
         <f t="shared" si="0"/>
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AI2" s="25">
+      <c r="AI2" s="16">
         <f t="shared" si="0"/>
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="AJ2" s="25">
+      <c r="AJ2" s="16">
         <f t="shared" si="0"/>
         <v>2.9000000000000001E-2</v>
       </c>
@@ -14488,137 +14470,137 @@
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>0.2</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="16">
         <f>1-((1-E2)^10)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="16">
         <f t="shared" ref="F3:Z3" si="1">1-((1-F2)^10)</f>
         <v>9.9551197902516542E-3</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="16">
         <f t="shared" si="1"/>
         <v>1.9820956648050503E-2</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="16">
         <f t="shared" si="1"/>
         <v>2.9598223051083061E-2</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="16">
         <f t="shared" si="1"/>
         <v>3.9287626497189754E-2</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="16">
         <f t="shared" si="1"/>
         <v>4.8889869534228025E-2</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="16">
         <f t="shared" si="1"/>
         <v>5.8405649789787573E-2</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="16">
         <f t="shared" si="1"/>
         <v>6.783566000075647E-2</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="16">
         <f t="shared" si="1"/>
         <v>7.7180588042736975E-2</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3" s="16">
         <f t="shared" si="1"/>
         <v>8.6441116959317443E-2</v>
       </c>
-      <c r="O3" s="25">
+      <c r="O3" s="16">
         <f t="shared" si="1"/>
         <v>9.5617924991195702E-2</v>
       </c>
-      <c r="P3" s="25">
+      <c r="P3" s="16">
         <f t="shared" si="1"/>
         <v>0.10471168560515287</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="Q3" s="16">
         <f t="shared" si="1"/>
         <v>0.11372306752288774</v>
       </c>
-      <c r="R3" s="25">
+      <c r="R3" s="16">
         <f t="shared" si="1"/>
         <v>0.12265273474969962</v>
       </c>
-      <c r="S3" s="25">
+      <c r="S3" s="16">
         <f t="shared" si="1"/>
         <v>0.13150134660302926</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="16">
         <f>1-((1-T2)^10)</f>
         <v>0.14026955774085692</v>
       </c>
-      <c r="U3" s="25">
+      <c r="U3" s="16">
         <f t="shared" si="1"/>
         <v>0.14895801818995635</v>
       </c>
-      <c r="V3" s="25">
+      <c r="V3" s="16">
         <f t="shared" si="1"/>
         <v>0.15756737337400273</v>
       </c>
-      <c r="W3" s="25">
+      <c r="W3" s="16">
         <f t="shared" si="1"/>
         <v>0.1660982641415415</v>
       </c>
-      <c r="X3" s="25">
+      <c r="X3" s="16">
         <f t="shared" si="1"/>
         <v>0.17455132679381646</v>
       </c>
-      <c r="Y3" s="25">
+      <c r="Y3" s="16">
         <f t="shared" si="1"/>
         <v>0.18292719311245342</v>
       </c>
-      <c r="Z3" s="25">
+      <c r="Z3" s="16">
         <f t="shared" si="1"/>
         <v>0.19122649038700312</v>
       </c>
-      <c r="AA3" s="25">
+      <c r="AA3" s="16">
         <f t="shared" ref="AA3" si="2">1-((1-AA2)^10)</f>
         <v>0.19944984144234978</v>
       </c>
-      <c r="AB3" s="25">
+      <c r="AB3" s="16">
         <f t="shared" ref="AB3" si="3">1-((1-AB2)^10)</f>
         <v>0.19944984144234978</v>
       </c>
-      <c r="AC3" s="25">
+      <c r="AC3" s="16">
         <f t="shared" ref="AC3" si="4">1-((1-AC2)^10)</f>
         <v>0.20759786466597252</v>
       </c>
-      <c r="AD3" s="25">
+      <c r="AD3" s="16">
         <f t="shared" ref="AD3" si="5">1-((1-AD2)^10)</f>
         <v>0.21567117403507274</v>
       </c>
-      <c r="AE3" s="25">
+      <c r="AE3" s="16">
         <f t="shared" ref="AE3" si="6">1-((1-AE2)^10)</f>
         <v>0.22367037914356247</v>
       </c>
-      <c r="AF3" s="25">
+      <c r="AF3" s="16">
         <f t="shared" ref="AF3" si="7">1-((1-AF2)^10)</f>
         <v>0.23159608522891328</v>
       </c>
-      <c r="AG3" s="25">
+      <c r="AG3" s="16">
         <f t="shared" ref="AG3:AH3" si="8">1-((1-AG2)^10)</f>
         <v>0.23944889319887064</v>
       </c>
-      <c r="AH3" s="25">
+      <c r="AH3" s="16">
         <f t="shared" si="8"/>
         <v>0.24722939965802815</v>
       </c>
-      <c r="AI3" s="25">
+      <c r="AI3" s="16">
         <f t="shared" ref="AI3:AJ3" si="9">1-((1-AI2)^10)</f>
         <v>0.25493819693426967</v>
       </c>
-      <c r="AJ3" s="25">
+      <c r="AJ3" s="16">
         <f t="shared" si="9"/>
         <v>0.25493819693426967</v>
       </c>
@@ -14627,7 +14609,7 @@
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>0.1</v>
       </c>
       <c r="D4">
@@ -14772,137 +14754,137 @@
       <c r="D5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="16">
         <f>PRODUCT($E$4:E4)</f>
         <v>1</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="16">
         <f>PRODUCT($E$4:E4)</f>
         <v>1</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="16">
         <f>PRODUCT($E$4:F4)</f>
         <v>0.99004488020974835</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="16">
         <f>PRODUCT($E$4:G4)</f>
         <v>0.97042124355948656</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="16">
         <f>PRODUCT($E$4:H4)</f>
         <v>0.94169849913910342</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="16">
         <f>PRODUCT($E$4:I4)</f>
         <v>0.90470140023196211</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="16">
         <f>PRODUCT($E$4:J4)</f>
         <v>0.86047066680718809</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="16">
         <f>PRODUCT($E$4:K4)</f>
         <v>0.81021431838726243</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="16">
         <f>PRODUCT($E$4:L4)</f>
         <v>0.75525289535739948</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="16">
         <f>PRODUCT($E$4:M4)</f>
         <v>0.69696203277273572</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="16">
         <f>PRODUCT($E$4:N4)</f>
         <v>0.63671585618162407</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="16">
         <f>PRODUCT($E$4:O4)</f>
         <v>0.5758344072045446</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="16">
         <f>PRODUCT($E$4:P4)</f>
         <v>0.51553781579671276</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R5" s="16">
         <f>PRODUCT($E$4:Q4)</f>
         <v>0.45690927396026115</v>
       </c>
-      <c r="S5" s="25">
+      <c r="S5" s="16">
         <f>PRODUCT($E$4:R4)</f>
         <v>0.40086810197653538</v>
       </c>
-      <c r="T5" s="25">
+      <c r="T5" s="16">
         <f>PRODUCT($E$4:S4)</f>
         <v>0.34815340675642054</v>
       </c>
-      <c r="U5" s="25">
+      <c r="U5" s="16">
         <f>PRODUCT($E$4:T4)</f>
         <v>0.29931808236472474</v>
       </c>
-      <c r="V5" s="25">
+      <c r="V5" s="16">
         <f>PRODUCT($E$4:U4)</f>
         <v>0.25473225400725724</v>
       </c>
-      <c r="W5" s="25">
+      <c r="W5" s="16">
         <f>PRODUCT($E$4:V4)</f>
         <v>0.21459476182969445</v>
       </c>
-      <c r="X5" s="25">
+      <c r="X5" s="16">
         <f>PRODUCT($E$4:W4)</f>
         <v>0.17895094439591466</v>
       </c>
-      <c r="Y5" s="25">
+      <c r="Y5" s="16">
         <f>PRODUCT($E$4:X4)</f>
         <v>0.14771481962060129</v>
       </c>
-      <c r="Z5" s="25">
+      <c r="Z5" s="16">
         <f>PRODUCT($E$4:Y4)</f>
         <v>0.12069376228629233</v>
       </c>
-      <c r="AA5" s="25">
+      <c r="AA5" s="16">
         <f>PRODUCT($E$4:Z4)</f>
         <v>9.7613917712681408E-2</v>
       </c>
-      <c r="AB5" s="25">
+      <c r="AB5" s="16">
         <f>PRODUCT($E$4:AA4)</f>
         <v>7.8144837302320524E-2</v>
       </c>
-      <c r="AC5" s="25">
+      <c r="AC5" s="16">
         <f>PRODUCT($E$4:AB4)</f>
         <v>6.255886189283448E-2</v>
       </c>
-      <c r="AD5" s="25">
+      <c r="AD5" s="16">
         <f>PRODUCT($E$4:AC4)</f>
         <v>4.9571775747948563E-2</v>
       </c>
-      <c r="AE5" s="25">
+      <c r="AE5" s="16">
         <f>PRODUCT($E$4:AD4)</f>
         <v>3.8880572673385148E-2</v>
       </c>
-      <c r="AF5" s="25">
+      <c r="AF5" s="16">
         <f>PRODUCT($E$4:AE4)</f>
         <v>3.0184140242210257E-2</v>
       </c>
-      <c r="AG5" s="25">
+      <c r="AG5" s="16">
         <f>PRODUCT($E$4:AF4)</f>
         <v>2.319361152611386E-2</v>
       </c>
-      <c r="AH5" s="25">
+      <c r="AH5" s="16">
         <f>PRODUCT($E$4:AG4)</f>
         <v>1.7639926916901326E-2</v>
       </c>
-      <c r="AI5" s="25">
+      <c r="AI5" s="16">
         <f>PRODUCT($E$4:AH4)</f>
         <v>1.327881837522432E-2</v>
       </c>
-      <c r="AJ5" s="25">
+      <c r="AJ5" s="16">
         <f>PRODUCT($E$4:AI4)</f>
         <v>9.8935403612269834E-3</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AJ6" s="25"/>
+      <c r="AJ6" s="16"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E7" s="2">
@@ -15063,7 +15045,7 @@
       <c r="D1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -15071,17 +15053,16 @@
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>0.3</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <f t="shared" ref="G2:G9" si="0">1-(1-D2)^5</f>
         <v>0</v>
       </c>
@@ -15108,41 +15089,40 @@
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>0.06</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>0.1</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f t="shared" si="0"/>
         <v>0.52957298240000017</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="17">
         <f t="shared" ref="I3:N3" si="1">_xlfn.BINOM.DIST(I2,$N$2,$D$3,FALSE)</f>
         <v>0.47042701759999994</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="17">
         <f t="shared" si="1"/>
         <v>0.38290571200000001</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="17">
         <f t="shared" si="1"/>
         <v>0.12466697600000003</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="17">
         <f t="shared" si="1"/>
         <v>2.0294624000000004E-2</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="17">
         <f t="shared" si="1"/>
         <v>1.651888000000002E-3</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="17">
         <f t="shared" si="1"/>
         <v>5.3782400000000043E-5</v>
       </c>
@@ -15151,17 +15131,16 @@
       <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>0.3</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15189,7 +15168,7 @@
         <f t="shared" si="2"/>
         <v>2.6891200000000022E-4</v>
       </c>
-      <c r="O4" s="27">
+      <c r="O4" s="18">
         <f>SUM(I4:N4)</f>
         <v>0.70000000000000007</v>
       </c>
@@ -15198,19 +15177,19 @@
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>0</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>0.05</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.04</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="19">
         <v>100</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>0.18462730240000003</v>
       </c>
@@ -15219,16 +15198,16 @@
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>0.2</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15237,16 +15216,16 @@
       <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>0.1</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>0.2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
         <v>0.80650823680000006</v>
       </c>
@@ -15255,16 +15234,16 @@
       <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>0.05</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>0.1</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>0.27</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f t="shared" si="0"/>
         <v>0.79269284070000001</v>
       </c>
@@ -15273,30 +15252,30 @@
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>0.15</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>0.25</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>0.27</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f t="shared" si="0"/>
         <v>0.79269284070000001</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <f>SUM(B2:B9)</f>
         <v>1</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <f>SUM(C2:C9)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f>SUM(D2:D9)</f>
         <v>1</v>
       </c>
@@ -15309,12 +15288,12 @@
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34">
+      <c r="D13" s="20"/>
+      <c r="E13" s="21">
         <f>B6*B14</f>
         <v>0.15000000000000002</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="23">
         <f>B3</f>
         <v>0.06</v>
       </c>
@@ -15323,20 +15302,20 @@
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>0.75</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>0.5</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="26">
         <f>E13-SUM(F13:F15)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="24">
         <f>B6*C3</f>
         <v>2.0000000000000004E-2</v>
       </c>
@@ -15345,9 +15324,9 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="38">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="25">
         <f>Комнаты!B4*O4</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -15356,12 +15335,12 @@
       <c r="A17" s="3">
         <v>0</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="F17" s="20"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -15379,19 +15358,18 @@
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <f>ROUND(Оружие!B4*Оружие!C4/10,0)</f>
         <v>11</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <f>$B19*(1-Баланс!$B$1)</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <f>$B19*(1+Баланс!$B$1)</f>
         <v>13.2</v>
       </c>
-      <c r="E19" s="10"/>
       <c r="G19" t="s">
         <v>55</v>
       </c>
@@ -15400,41 +15378,41 @@
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <f>((C4*B19+C5*E5+C7*G20+C8*H20+C9*I20)*1.1)*3/2</f>
         <v>35.355223200000005</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <f>$B20*(1-Баланс!$B$1)</f>
         <v>28.284178560000004</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <f>$B20*(1+Баланс!$B$1)</f>
         <v>42.426267840000001</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <f>SUM(G21:G26)</f>
         <v>22.23864</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <f t="shared" ref="H20:I20" si="3">SUM(H21:H26)</f>
         <v>6.7968000000000011</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G21" s="40">
+      <c r="G21" s="27">
         <f>AVERAGE(Оружие!H4*Оружие!K4)</f>
         <v>2.8800000000000003</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="27">
         <f>Броня!H3*Броня!K3</f>
         <v>0</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="27">
         <f>Хил!H3*Хил!K3</f>
         <v>0</v>
       </c>
@@ -15443,20 +15421,20 @@
       <c r="A22" s="3">
         <v>100</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="G22" s="40">
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="G22" s="27">
         <f>AVERAGE(Оружие!H5*Оружие!K5)</f>
         <v>4.4099999999999993</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="27">
         <f>Броня!H4*Броня!K4</f>
         <v>1.6896000000000004</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="27">
         <f>Хил!H4*Хил!K4</f>
         <v>14.399999999999999</v>
       </c>
@@ -15472,15 +15450,15 @@
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="27">
         <f>AVERAGE(Оружие!H6*Оружие!K6)</f>
         <v>2.2050000000000001</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="27">
         <f>Броня!H5*Броня!K5</f>
         <v>1.7280000000000004</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="27">
         <f>Хил!H5*Хил!K5</f>
         <v>15.6</v>
       </c>
@@ -15489,27 +15467,27 @@
       <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <f>(1+(Баланс!$B$2 *$A$22))*B19</f>
         <v>22</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <f>$B24*(1-Баланс!$B$1)</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <f>$B24*(1+Баланс!$B$1)</f>
         <v>26.4</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="27">
         <f>AVERAGE(Оружие!H7*Оружие!K7)</f>
         <v>0.36864000000000008</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="27">
         <f>Броня!H6*Броня!K6</f>
         <v>1.7203200000000005</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="27">
         <f>Хил!H6*Хил!K6</f>
         <v>2</v>
       </c>
@@ -15518,35 +15496,35 @@
       <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <f>(1+(Баланс!$B$2 *$A$22))*B20</f>
         <v>70.710446400000009</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <f>$B25*(1-Баланс!$B$1)</f>
         <v>56.568357120000009</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <f>$B25*(1+Баланс!$B$1)</f>
         <v>84.852535680000003</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25" s="27">
         <f>AVERAGE(Оружие!H8*Оружие!K8)</f>
         <v>8.25</v>
       </c>
-      <c r="H25" s="40">
+      <c r="H25" s="27">
         <f>Броня!H7*Броня!K7</f>
         <v>1.6588800000000004</v>
       </c>
-      <c r="I25" s="40"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G26" s="40">
+      <c r="G26" s="27">
         <f>AVERAGE(Оружие!H9*Оружие!K9)</f>
         <v>4.125</v>
       </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -15584,8 +15562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38E34A5-E026-47EB-BBDA-E748A36D966E}">
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15608,47 +15586,43 @@
       <c r="A1" s="3">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="N1" s="41">
+      <c r="K1" s="3"/>
+      <c r="N1" s="28">
         <v>0</v>
       </c>
-      <c r="O1" s="41">
+      <c r="O1" s="28">
         <v>10</v>
       </c>
-      <c r="P1" s="41">
+      <c r="P1" s="28">
         <v>100</v>
       </c>
-      <c r="Q1" s="42">
+      <c r="Q1" s="29">
         <v>200</v>
       </c>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -15678,16 +15652,16 @@
       <c r="M2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <v>0.6</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="7">
         <v>0.2</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="7">
         <v>0.2</v>
       </c>
       <c r="S2" t="str">
@@ -15701,210 +15675,221 @@
         <f>"у=20, при x&gt;=100"</f>
         <v>у=20, при x&gt;=100</v>
       </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <f>Игрок!$B$1*0.2</f>
         <v>20</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <f>Игрок!$B$1*0.1</f>
         <v>10</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f>B3*0.1</f>
         <v>2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <f>0.6</f>
         <v>0.6</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f>$B3*(1-Баланс!$B$1)</f>
         <v>16</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <f>$B3*(1+Баланс!$B$1)</f>
         <v>24</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <f>$C3*(1-Баланс!$B$1)</f>
         <v>8</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <f>$C3*(1+Баланс!$B$1)</f>
         <v>12</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f>$D3*(1-Баланс!$B$1)</f>
         <v>1.6</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <f>$D3*(1+Баланс!$B$1)</f>
         <v>2.4</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>0.24</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <v>0.18</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="7">
         <v>-0.24</v>
       </c>
-      <c r="Q3" s="24"/>
+      <c r="Q3" s="15"/>
       <c r="S3" t="str">
         <f>"y="&amp;(P3-N3)&amp;"x"&amp;"+"&amp;N3*100</f>
         <v>y=-0,48x+24</v>
       </c>
-      <c r="T3" s="9"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
+      <c r="T3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" t="str">
+        <f>"у=0, при x&gt;=50"</f>
+        <v>у=0, при x&gt;=50</v>
+      </c>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <f>Игрок!$B$1*0.1</f>
         <v>10</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <f>Игрок!$B$1*0.2</f>
         <v>20</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>B4*0.1</f>
         <v>1</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <f>0.3</f>
         <v>0.3</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>$B4*(1-Баланс!$B$1)</f>
         <v>8</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <f>$B4*(1+Баланс!$B$1)</f>
         <v>12</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f>$C4*(1-Баланс!$B$1)</f>
         <v>16</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f>$C4*(1+Баланс!$B$1)</f>
         <v>24</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <f>$D4*(1-Баланс!$B$1)</f>
         <v>0.8</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <f>$D4*(1+Баланс!$B$1)</f>
         <v>1.2</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>0.12</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <v>0.15</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <v>-0.1</v>
       </c>
-      <c r="Q4" s="24"/>
+      <c r="Q4" s="15"/>
       <c r="S4" t="str">
-        <f>"y="&amp;(O4-N4)*O1&amp;"x"&amp;"+"&amp;N4*100&amp;" при 0&gt;x&lt;10"</f>
-        <v>y=0,3x+12 при 0&gt;x&lt;10</v>
+        <f>"y="&amp;(O4-N4)*O1&amp;"x"&amp;"+"&amp;N4*100&amp;" при x&lt;10"</f>
+        <v>y=0,3x+12 при x&lt;10</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="U4" t="str">
-        <f>"y="&amp;ROUND((P4-O4)/(P1-O1)*100,5)&amp;"(x-"&amp;O1&amp;")"&amp;"+"&amp;O4*100&amp;" при 10&lt;=x&lt;100"</f>
-        <v>y=-0,27778(x-10)+15 при 10&lt;=x&lt;100</v>
-      </c>
-      <c r="V4" s="1"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
+        <f>"y="&amp;ROUND((P4-O4)/(P1-O1)*100,5)&amp;"(x-"&amp;O1&amp;")"&amp;"+"&amp;O4*100&amp;" при 10&lt;=x&lt;65"</f>
+        <v>y=-0,27778(x-10)+15 при 10&lt;=x&lt;65</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" t="str">
+        <f>"у=0, при x&gt;=65"</f>
+        <v>у=0, при x&gt;=65</v>
+      </c>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>Игрок!$B$1*0.5</f>
         <v>50</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <f>Игрок!$B$1*0.05</f>
         <v>5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>B5*0.05</f>
         <v>2.5</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <f>0.1</f>
         <v>0.1</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f>$B5*(1-Баланс!$B$1)</f>
         <v>40</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f>$B5*(1+Баланс!$B$1)</f>
         <v>60</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f>$C5*(1-Баланс!$B$1)</f>
         <v>4</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f>$C5*(1+Баланс!$B$1)</f>
         <v>6</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f>$D5*(1-Баланс!$B$1)</f>
         <v>2</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <f>$D5*(1+Баланс!$B$1)</f>
         <v>3</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>0.04</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="7">
         <v>0.24</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="15">
         <v>0.16</v>
       </c>
-      <c r="R5" s="43"/>
+      <c r="R5" s="30"/>
       <c r="S5" t="str">
-        <f>"y="&amp;(P5-N5)&amp;"x"&amp;"+"&amp;N5*100&amp;" при 10&lt;x&lt;=100"</f>
-        <v>y=0,2x+4 при 10&lt;x&lt;=100</v>
+        <f>"y="&amp;(P5-N5)&amp;"x"&amp;"+"&amp;N5*100&amp;" при x&lt;=100"</f>
+        <v>y=0,2x+4 при x&lt;=100</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>14</v>
@@ -15920,70 +15905,70 @@
         <f>"у=20, при x&gt;200"</f>
         <v>у=20, при x&gt;200</v>
       </c>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <f>B4*1.5</f>
         <v>15</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <f>C3*1.5</f>
         <v>15</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>0</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>0</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f>$B6*(1-Баланс!$B$1)</f>
         <v>12</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <f>$B6*(1+Баланс!$B$1)</f>
         <v>18</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f>$C6*(1-Баланс!$B$1)</f>
         <v>12</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f>$C6*(1+Баланс!$B$1)</f>
         <v>18</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f>$D6*(1-Баланс!$B$1)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <f>$D6*(1+Баланс!$B$1)</f>
         <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>0</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <v>0.04</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="7">
         <v>0.32</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="15">
         <v>0.24</v>
       </c>
-      <c r="R6" s="43"/>
+      <c r="R6" s="30"/>
       <c r="S6" t="str">
-        <f>"y="&amp;(P6-N6)&amp;"x"&amp;"+"&amp;N6*100</f>
-        <v>y=0,32x+0</v>
+        <f>"y="&amp;(P6-N6)&amp;"x"&amp;"+"&amp;N6*100&amp;" x&lt;=100"</f>
+        <v>y=0,32x+0 x&lt;=100</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>14</v>
@@ -15999,78 +15984,78 @@
         <f>"у=30, при x&gt;200"</f>
         <v>у=30, при x&gt;200</v>
       </c>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <f>B3*2</f>
         <v>40</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <f>C4*1.5</f>
         <v>30</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>B7*0.2</f>
         <v>8</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>0</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f>$B7*(1-Баланс!$B$1)</f>
         <v>32</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <f>$B7*(1+Баланс!$B$1)</f>
         <v>48</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <f>$C7*(1-Баланс!$B$1)</f>
         <v>24</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <f>$C7*(1+Баланс!$B$1)</f>
         <v>36</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <f>$D7*(1-Баланс!$B$1)</f>
         <v>6.4</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <f>$D7*(1+Баланс!$B$1)</f>
         <v>9.6</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>0</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>0</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <v>0.24</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="15">
         <v>0.4</v>
       </c>
-      <c r="R7" s="43"/>
+      <c r="R7" s="30"/>
       <c r="S7" t="str">
         <f>"у=0, при x&lt;=10"</f>
         <v>у=0, при x&lt;=10</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="T7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="U7" t="str">
-        <f>"y="&amp;ROUND((Q7-N7)/(Q1-O1)*100,5)&amp;"(x-"&amp;O1&amp;")"&amp;"+"&amp;N7*100&amp;" при x&gt;10"</f>
-        <v>y=0,21053(x-10)+0 при x&gt;10</v>
+        <f>"y="&amp;ROUND((Q7-N7)/(Q1-O1)*100,5)&amp;"(x-"&amp;O1&amp;")"&amp;"+"&amp;N7*100&amp;" при 100&lt;x&lt;=200"</f>
+        <v>y=0,21053(x-10)+0 при 100&lt;x&lt;=200</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>14</v>
@@ -16079,104 +16064,96 @@
         <f>"у=50, при x&gt;200"</f>
         <v>у=50, при x&gt;200</v>
       </c>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <f>B4*1.5</f>
         <v>15</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <f>Игрок!$B$1*0.1</f>
         <v>10</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <f>B8*0.3</f>
         <v>4.5</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <f>$B8*(1-Баланс!$B$1)</f>
         <v>12</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <f>$B8*(1+Баланс!$B$1)</f>
         <v>18</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <f>$C8*(1-Баланс!$B$1)</f>
         <v>8</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f>$C8*(1+Баланс!$B$1)</f>
         <v>12</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <f>$D8*(1-Баланс!$B$1)</f>
         <v>3.6</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <f>$D8*(1+Баланс!$B$1)</f>
         <v>5.3999999999999995</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <f>SUMIF(N2:N7,"&gt;0",N2:N7)</f>
         <v>1</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <f>SUMIF(O2:O7,"&gt;0",O2:O7)</f>
         <v>1</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="6">
         <f>SUMIF(P2:P7,"&gt;0",P2:P7)</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="6">
         <f>SUMIF(Q2:Q7,"&gt;0",Q2:Q7)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>10</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="5" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
+      <c r="K10" s="3"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -16208,42 +16185,42 @@
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <f>(1+($A$10*Баланс!$B$2))*B3</f>
         <v>22</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <f>(1+($A$10*Баланс!$B$2))*C3</f>
         <v>11</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <f>(1+($A$10*Баланс!$B$2))*D3</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>0.4</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f>(1+($A$10*Баланс!$B$2))*F3</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <f>(1+($A$10*Баланс!$B$2))*G3</f>
         <v>26.400000000000002</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <f>(1+($A$10*Баланс!$B$2))*H3</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <f>(1+($A$10*Баланс!$B$2))*I3</f>
         <v>13.200000000000001</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <f>(1+($A$10*Баланс!$B$2))*J3</f>
         <v>1.7600000000000002</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <f>(1+($A$10*Баланс!$B$2))*K3</f>
         <v>2.64</v>
       </c>
@@ -16252,42 +16229,42 @@
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <f>(1+($A$10*Баланс!$B$2))*B4</f>
         <v>11</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <f>(1+($A$10*Баланс!$B$2))*C4</f>
         <v>22</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <f>(1+($A$10*Баланс!$B$2))*D4</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>0.35</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f>(1+($A$10*Баланс!$B$2))*F4</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <f>(1+($A$10*Баланс!$B$2))*G4</f>
         <v>13.200000000000001</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <f>(1+($A$10*Баланс!$B$2))*H4</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <f>(1+($A$10*Баланс!$B$2))*I4</f>
         <v>26.400000000000002</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <f>(1+($A$10*Баланс!$B$2))*J4</f>
         <v>0.88000000000000012</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <f>(1+($A$10*Баланс!$B$2))*K4</f>
         <v>1.32</v>
       </c>
@@ -16296,42 +16273,42 @@
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <f>(1+($A$10*Баланс!$B$2))*B5</f>
         <v>55.000000000000007</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <f>(1+($A$10*Баланс!$B$2))*C5</f>
         <v>5.5</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <f>(1+($A$10*Баланс!$B$2))*D5</f>
         <v>2.75</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>0.15</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f>(1+($A$10*Баланс!$B$2))*F5</f>
         <v>44</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <f>(1+($A$10*Баланс!$B$2))*G5</f>
         <v>66</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <f>(1+($A$10*Баланс!$B$2))*H5</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <f>(1+($A$10*Баланс!$B$2))*I5</f>
         <v>6.6000000000000005</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <f>(1+($A$10*Баланс!$B$2))*J5</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <f>(1+($A$10*Баланс!$B$2))*K5</f>
         <v>3.3000000000000003</v>
       </c>
@@ -16340,42 +16317,42 @@
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <f>(1+($A$10*Баланс!$B$2))*B6</f>
         <v>16.5</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <f>(1+($A$10*Баланс!$B$2))*C6</f>
         <v>16.5</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <f>(1+($A$10*Баланс!$B$2))*D6</f>
         <v>0</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>0.1</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f>(1+($A$10*Баланс!$B$2))*F6</f>
         <v>13.200000000000001</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <f>(1+($A$10*Баланс!$B$2))*G6</f>
         <v>19.8</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <f>(1+($A$10*Баланс!$B$2))*H6</f>
         <v>13.200000000000001</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <f>(1+($A$10*Баланс!$B$2))*I6</f>
         <v>19.8</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <f>(1+($A$10*Баланс!$B$2))*J6</f>
         <v>0</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <f>(1+($A$10*Баланс!$B$2))*K6</f>
         <v>0</v>
       </c>
@@ -16384,117 +16361,117 @@
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <f>(1+($A$10*Баланс!$B$2))*B7</f>
         <v>44</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <f>(1+($A$10*Баланс!$B$2))*C7</f>
         <v>33</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f>(1+($A$10*Баланс!$B$2))*D7</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>0</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f>(1+($A$10*Баланс!$B$2))*F7</f>
         <v>35.200000000000003</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <f>(1+($A$10*Баланс!$B$2))*G7</f>
         <v>52.800000000000004</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <f>(1+($A$10*Баланс!$B$2))*H7</f>
         <v>26.400000000000002</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <f>(1+($A$10*Баланс!$B$2))*I7</f>
         <v>39.6</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <f>(1+($A$10*Баланс!$B$2))*J7</f>
         <v>7.0400000000000009</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <f>(1+($A$10*Баланс!$B$2))*K7</f>
         <v>10.56</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <f>(1+($A$10*Баланс!$B$2))*B8</f>
         <v>16.5</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <f>(1+($A$10*Баланс!$B$2))*C8</f>
         <v>11</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <f>(1+($A$10*Баланс!$B$2))*D8</f>
         <v>4.95</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f>(1+($A$10*Баланс!$B$2))*F8</f>
         <v>13.200000000000001</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <f>(1+($A$10*Баланс!$B$2))*G8</f>
         <v>19.8</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <f>(1+($A$10*Баланс!$B$2))*H8</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <f>(1+($A$10*Баланс!$B$2))*I8</f>
         <v>13.200000000000001</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <f>(1+($A$10*Баланс!$B$2))*J8</f>
         <v>3.9600000000000004</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <f>(1+($A$10*Баланс!$B$2))*K8</f>
         <v>5.9399999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>50</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="5" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5" t="s">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="5"/>
+      <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -16522,298 +16499,297 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <f>(1+($A$19*Баланс!$B$2))*B3</f>
         <v>30</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <f>(1+($A$19*Баланс!$B$2))*C3</f>
         <v>15</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <f>(1+($A$19*Баланс!$B$2))*D3</f>
         <v>3</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>0.15</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <f>(1+($A$19*Баланс!$B$2))*F3</f>
         <v>24</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <f>(1+($A$19*Баланс!$B$2))*G3</f>
         <v>36</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <f>(1+($A$19*Баланс!$B$2))*H3</f>
         <v>12</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <f>(1+($A$19*Баланс!$B$2))*I3</f>
         <v>18</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <f>(1+($A$19*Баланс!$B$2))*J3</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <f>(1+($A$19*Баланс!$B$2))*K3</f>
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <f>(1+($A$19*Баланс!$B$2))*B4</f>
         <v>15</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <f>(1+($A$19*Баланс!$B$2))*C4</f>
         <v>30</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <f>(1+($A$19*Баланс!$B$2))*D4</f>
         <v>1.5</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>0.25</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <f>(1+($A$19*Баланс!$B$2))*F4</f>
         <v>12</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <f>(1+($A$19*Баланс!$B$2))*G4</f>
         <v>18</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <f>(1+($A$19*Баланс!$B$2))*H4</f>
         <v>24</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <f>(1+($A$19*Баланс!$B$2))*I4</f>
         <v>36</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <f>(1+($A$19*Баланс!$B$2))*J4</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <f>(1+($A$19*Баланс!$B$2))*K4</f>
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <f>(1+($A$19*Баланс!$B$2))*B5</f>
         <v>75</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <f>(1+($A$19*Баланс!$B$2))*C5</f>
         <v>7.5</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <f>(1+($A$19*Баланс!$B$2))*D5</f>
         <v>3.75</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>0.25</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <f>(1+($A$19*Баланс!$B$2))*F5</f>
         <v>60</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <f>(1+($A$19*Баланс!$B$2))*G5</f>
         <v>90</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <f>(1+($A$19*Баланс!$B$2))*H5</f>
         <v>6</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <f>(1+($A$19*Баланс!$B$2))*I5</f>
         <v>9</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <f>(1+($A$19*Баланс!$B$2))*J5</f>
         <v>3</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <f>(1+($A$19*Баланс!$B$2))*K5</f>
         <v>4.5</v>
       </c>
-      <c r="R23" s="9"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <f>(1+($A$19*Баланс!$B$2))*B6</f>
         <v>22.5</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <f>(1+($A$19*Баланс!$B$2))*C6</f>
         <v>22.5</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <f>(1+($A$19*Баланс!$B$2))*D6</f>
         <v>0</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>0.25</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <f>(1+($A$19*Баланс!$B$2))*F6</f>
         <v>18</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <f>(1+($A$19*Баланс!$B$2))*G6</f>
         <v>27</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <f>(1+($A$19*Баланс!$B$2))*H6</f>
         <v>18</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <f>(1+($A$19*Баланс!$B$2))*I6</f>
         <v>27</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <f>(1+($A$19*Баланс!$B$2))*J6</f>
         <v>0</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <f>(1+($A$19*Баланс!$B$2))*K6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <f>(1+($A$19*Баланс!$B$2))*B7</f>
         <v>60</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <f>(1+($A$19*Баланс!$B$2))*C7</f>
         <v>45</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <f>(1+($A$19*Баланс!$B$2))*D7</f>
         <v>12</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>0.1</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <f>(1+($A$19*Баланс!$B$2))*F7</f>
         <v>48</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <f>(1+($A$19*Баланс!$B$2))*G7</f>
         <v>72</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <f>(1+($A$19*Баланс!$B$2))*H7</f>
         <v>36</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <f>(1+($A$19*Баланс!$B$2))*I7</f>
         <v>54</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <f>(1+($A$19*Баланс!$B$2))*J7</f>
         <v>9.6000000000000014</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <f>(1+($A$19*Баланс!$B$2))*K7</f>
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <f>(1+($A$19*Баланс!$B$2))*B8</f>
         <v>22.5</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <f>(1+($A$19*Баланс!$B$2))*C8</f>
         <v>15</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <f>(1+($A$19*Баланс!$B$2))*D8</f>
         <v>6.75</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <f>(1+($A$19*Баланс!$B$2))*F8</f>
         <v>18</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <f>(1+($A$19*Баланс!$B$2))*G8</f>
         <v>27</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <f>(1+($A$19*Баланс!$B$2))*H8</f>
         <v>12</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <f>(1+($A$19*Баланс!$B$2))*I8</f>
         <v>18</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <f>(1+($A$19*Баланс!$B$2))*J8</f>
         <v>5.4</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <f>(1+($A$19*Баланс!$B$2))*K8</f>
         <v>8.1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>100</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="5" t="s">
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="5"/>
+      <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -16841,134 +16817,134 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <f>(1+($A$28*Баланс!$B$2))*B3</f>
         <v>40</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <f>(1+($A$28*Баланс!$B$2))*C3</f>
         <v>20</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <f>(1+($A$28*Баланс!$B$2))*D3</f>
         <v>4</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <v>0.05</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <f>(1+($A$28*Баланс!$B$2))*F3</f>
         <v>32</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <f>(1+($A$28*Баланс!$B$2))*G3</f>
         <v>48</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <f>(1+($A$28*Баланс!$B$2))*H3</f>
         <v>16</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <f>(1+($A$28*Баланс!$B$2))*I3</f>
         <v>24</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <f>(1+($A$28*Баланс!$B$2))*J3</f>
         <v>3.2</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <f>(1+($A$28*Баланс!$B$2))*K3</f>
         <v>4.8</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <f>(1+($A$28*Баланс!$B$2))*B4</f>
         <v>20</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <f>(1+($A$28*Баланс!$B$2))*C4</f>
         <v>40</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <f>(1+($A$28*Баланс!$B$2))*D4</f>
         <v>2</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <v>0.1</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <f>(1+($A$28*Баланс!$B$2))*F4</f>
         <v>16</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <f>(1+($A$28*Баланс!$B$2))*G4</f>
         <v>24</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <f>(1+($A$28*Баланс!$B$2))*H4</f>
         <v>32</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="5">
         <f>(1+($A$28*Баланс!$B$2))*I4</f>
         <v>48</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <f>(1+($A$28*Баланс!$B$2))*J4</f>
         <v>1.6</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <f>(1+($A$28*Баланс!$B$2))*K4</f>
         <v>2.4</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <f>(1+($A$28*Баланс!$B$2))*B5</f>
         <v>100</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <f>(1+($A$28*Баланс!$B$2))*C5</f>
         <v>10</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <f>(1+($A$28*Баланс!$B$2))*D5</f>
         <v>5</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <v>0.25</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <f>(1+($A$28*Баланс!$B$2))*F5</f>
         <v>80</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <f>(1+($A$28*Баланс!$B$2))*G5</f>
         <v>120</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <f>(1+($A$28*Баланс!$B$2))*H5</f>
         <v>8</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="5">
         <f>(1+($A$28*Баланс!$B$2))*I5</f>
         <v>12</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <f>(1+($A$28*Баланс!$B$2))*J5</f>
         <v>4</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <f>(1+($A$28*Баланс!$B$2))*K5</f>
         <v>6</v>
       </c>
@@ -16977,42 +16953,42 @@
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <f>(1+($A$28*Баланс!$B$2))*B6</f>
         <v>30</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <f>(1+($A$28*Баланс!$B$2))*C6</f>
         <v>30</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <f>(1+($A$28*Баланс!$B$2))*D6</f>
         <v>0</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <v>0.35</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <f>(1+($A$28*Баланс!$B$2))*F6</f>
         <v>24</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <f>(1+($A$28*Баланс!$B$2))*G6</f>
         <v>36</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <f>(1+($A$28*Баланс!$B$2))*H6</f>
         <v>24</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="5">
         <f>(1+($A$28*Баланс!$B$2))*I6</f>
         <v>36</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="5">
         <f>(1+($A$28*Баланс!$B$2))*J6</f>
         <v>0</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <f>(1+($A$28*Баланс!$B$2))*K6</f>
         <v>0</v>
       </c>
@@ -17021,42 +16997,42 @@
       <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <f>(1+($A$28*Баланс!$B$2))*B7</f>
         <v>80</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <f>(1+($A$28*Баланс!$B$2))*C7</f>
         <v>60</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <f>(1+($A$28*Баланс!$B$2))*D7</f>
         <v>16</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="7">
         <v>0.25</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <f>(1+($A$28*Баланс!$B$2))*F7</f>
         <v>64</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <f>(1+($A$28*Баланс!$B$2))*G7</f>
         <v>96</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="5">
         <f>(1+($A$28*Баланс!$B$2))*H7</f>
         <v>48</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="5">
         <f>(1+($A$28*Баланс!$B$2))*I7</f>
         <v>72</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="5">
         <f>(1+($A$28*Баланс!$B$2))*J7</f>
         <v>12.8</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
         <f>(1+($A$28*Баланс!$B$2))*K7</f>
         <v>19.2</v>
       </c>
@@ -17065,40 +17041,40 @@
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <f>(1+($A$28*Баланс!$B$2))*B8</f>
         <v>30</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <f>(1+($A$28*Баланс!$B$2))*C8</f>
         <v>20</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <f>(1+($A$28*Баланс!$B$2))*D8</f>
         <v>9</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <f>(1+($A$28*Баланс!$B$2))*F8</f>
         <v>24</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <f>(1+($A$28*Баланс!$B$2))*G8</f>
         <v>36</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="5">
         <f>(1+($A$28*Баланс!$B$2))*H8</f>
         <v>16</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="5">
         <f>(1+($A$28*Баланс!$B$2))*I8</f>
         <v>24</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="5">
         <f>(1+($A$28*Баланс!$B$2))*J8</f>
         <v>7.2</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="5">
         <f>(1+($A$28*Баланс!$B$2))*K8</f>
         <v>10.799999999999999</v>
       </c>
@@ -17170,91 +17146,91 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="22">
-        <f>IF(B37&lt;100,($P$2-$N$2)*B37+$N$2*100,20)</f>
+      <c r="B38" s="13">
+        <f t="shared" ref="B38:V38" si="0">IF(B37&lt;100,($P$2-$N$2)*B37+$N$2*100,20)</f>
         <v>60</v>
       </c>
-      <c r="C38" s="22">
-        <f>IF(C37&lt;100,($P$2-$N$2)*C37+$N$2*100,20)</f>
+      <c r="C38" s="13">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="D38" s="22">
-        <f>IF(D37&lt;100,($P$2-$N$2)*D37+$N$2*100,20)</f>
+      <c r="D38" s="13">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="E38" s="22">
-        <f>IF(E37&lt;100,($P$2-$N$2)*E37+$N$2*100,20)</f>
+      <c r="E38" s="13">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="F38" s="22">
-        <f>IF(F37&lt;100,($P$2-$N$2)*F37+$N$2*100,20)</f>
+      <c r="F38" s="13">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="G38" s="22">
-        <f>IF(G37&lt;100,($P$2-$N$2)*G37+$N$2*100,20)</f>
+      <c r="G38" s="13">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H38" s="22">
-        <f>IF(H37&lt;100,($P$2-$N$2)*H37+$N$2*100,20)</f>
+      <c r="H38" s="13">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="I38" s="22">
-        <f>IF(I37&lt;100,($P$2-$N$2)*I37+$N$2*100,20)</f>
+      <c r="I38" s="13">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J38" s="22">
-        <f>IF(J37&lt;100,($P$2-$N$2)*J37+$N$2*100,20)</f>
+      <c r="J38" s="13">
+        <f t="shared" si="0"/>
         <v>28.000000000000004</v>
       </c>
-      <c r="K38" s="22">
-        <f>IF(K37&lt;100,($P$2-$N$2)*K37+$N$2*100,20)</f>
+      <c r="K38" s="13">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="L38" s="22">
-        <f>IF(L37&lt;100,($P$2-$N$2)*L37+$N$2*100,20)</f>
+      <c r="L38" s="13">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M38" s="22">
-        <f>IF(M37&lt;100,($P$2-$N$2)*M37+$N$2*100,20)</f>
+      <c r="M38" s="13">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="N38" s="22">
-        <f>IF(N37&lt;100,($P$2-$N$2)*N37+$N$2*100,20)</f>
+      <c r="N38" s="13">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="O38" s="22">
-        <f>IF(O37&lt;100,($P$2-$N$2)*O37+$N$2*100,20)</f>
+      <c r="O38" s="13">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="P38" s="22">
-        <f>IF(P37&lt;100,($P$2-$N$2)*P37+$N$2*100,20)</f>
+      <c r="P38" s="13">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Q38" s="22">
-        <f>IF(Q37&lt;100,($P$2-$N$2)*Q37+$N$2*100,20)</f>
+      <c r="Q38" s="13">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="R38" s="22">
-        <f>IF(R37&lt;100,($P$2-$N$2)*R37+$N$2*100,20)</f>
+      <c r="R38" s="13">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="S38" s="22">
-        <f>IF(S37&lt;100,($P$2-$N$2)*S37+$N$2*100,20)</f>
+      <c r="S38" s="13">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="T38" s="22">
-        <f>IF(T37&lt;100,($P$2-$N$2)*T37+$N$2*100,20)</f>
+      <c r="T38" s="13">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="U38" s="22">
-        <f>IF(U37&lt;100,($P$2-$N$2)*U37+$N$2*100,20)</f>
+      <c r="U38" s="13">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="V38" s="22">
-        <f>IF(V37&lt;100,($P$2-$N$2)*V37+$N$2*100,20)</f>
+      <c r="V38" s="13">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -17262,88 +17238,88 @@
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="22">
-        <f>($P$3-$N$3)*B37+$N$3*100</f>
+      <c r="B39" s="13">
+        <f t="shared" ref="B39:V39" si="1">($P$3-$N$3)*B37+$N$3*100</f>
         <v>24</v>
       </c>
-      <c r="C39" s="22">
-        <f>($P$3-$N$3)*C37+$N$3*100</f>
+      <c r="C39" s="13">
+        <f t="shared" si="1"/>
         <v>19.2</v>
       </c>
-      <c r="D39" s="22">
-        <f>($P$3-$N$3)*D37+$N$3*100</f>
+      <c r="D39" s="13">
+        <f t="shared" si="1"/>
         <v>14.4</v>
       </c>
-      <c r="E39" s="22">
-        <f>($P$3-$N$3)*E37+$N$3*100</f>
+      <c r="E39" s="13">
+        <f t="shared" si="1"/>
         <v>9.6000000000000014</v>
       </c>
-      <c r="F39" s="22">
-        <f>($P$3-$N$3)*F37+$N$3*100</f>
+      <c r="F39" s="13">
+        <f t="shared" si="1"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="G39" s="22">
-        <f>($P$3-$N$3)*G37+$N$3*100</f>
+      <c r="G39" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H39" s="22">
-        <f>($P$3-$N$3)*H37+$N$3*100</f>
+      <c r="H39" s="13">
+        <f t="shared" si="1"/>
         <v>-4.7999999999999972</v>
       </c>
-      <c r="I39" s="22">
-        <f>($P$3-$N$3)*I37+$N$3*100</f>
+      <c r="I39" s="13">
+        <f t="shared" si="1"/>
         <v>-9.6000000000000014</v>
       </c>
-      <c r="J39" s="22">
-        <f>($P$3-$N$3)*J37+$N$3*100</f>
+      <c r="J39" s="13">
+        <f t="shared" si="1"/>
         <v>-14.399999999999999</v>
       </c>
-      <c r="K39" s="22">
-        <f>($P$3-$N$3)*K37+$N$3*100</f>
+      <c r="K39" s="13">
+        <f t="shared" si="1"/>
         <v>-19.199999999999996</v>
       </c>
-      <c r="L39" s="22">
-        <f>($P$3-$N$3)*L37+$N$3*100</f>
+      <c r="L39" s="13">
+        <f t="shared" si="1"/>
         <v>-24</v>
       </c>
-      <c r="M39" s="22">
-        <f>($P$3-$N$3)*M37+$N$3*100</f>
+      <c r="M39" s="13">
+        <f t="shared" si="1"/>
         <v>-28.799999999999997</v>
       </c>
-      <c r="N39" s="22">
-        <f>($P$3-$N$3)*N37+$N$3*100</f>
+      <c r="N39" s="13">
+        <f t="shared" si="1"/>
         <v>-33.599999999999994</v>
       </c>
-      <c r="O39" s="22">
-        <f>($P$3-$N$3)*O37+$N$3*100</f>
+      <c r="O39" s="13">
+        <f t="shared" si="1"/>
         <v>-38.4</v>
       </c>
-      <c r="P39" s="22">
-        <f>($P$3-$N$3)*P37+$N$3*100</f>
+      <c r="P39" s="13">
+        <f t="shared" si="1"/>
         <v>-43.2</v>
       </c>
-      <c r="Q39" s="22">
-        <f>($P$3-$N$3)*Q37+$N$3*100</f>
+      <c r="Q39" s="13">
+        <f t="shared" si="1"/>
         <v>-48</v>
       </c>
-      <c r="R39" s="22">
-        <f>($P$3-$N$3)*R37+$N$3*100</f>
+      <c r="R39" s="13">
+        <f t="shared" si="1"/>
         <v>-52.8</v>
       </c>
-      <c r="S39" s="22">
-        <f>($P$3-$N$3)*S37+$N$3*100</f>
+      <c r="S39" s="13">
+        <f t="shared" si="1"/>
         <v>-57.599999999999994</v>
       </c>
-      <c r="T39" s="22">
-        <f>($P$3-$N$3)*T37+$N$3*100</f>
+      <c r="T39" s="13">
+        <f t="shared" si="1"/>
         <v>-62.399999999999991</v>
       </c>
-      <c r="U39" s="22">
-        <f>($P$3-$N$3)*U37+$N$3*100</f>
+      <c r="U39" s="13">
+        <f t="shared" si="1"/>
         <v>-67.2</v>
       </c>
-      <c r="V39" s="22">
-        <f>($P$3-$N$3)*V37+$N$3*100</f>
+      <c r="V39" s="13">
+        <f t="shared" si="1"/>
         <v>-72</v>
       </c>
     </row>
@@ -17351,88 +17327,88 @@
       <c r="A40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="6">
-        <f>IF(AND(B37&gt;=$N$1,B37&lt;=$O$1),($O$4-$N$4)*$O$1*B37+$N$4*100,($P$4-$O$4)*(B37-$O$1)+$O$4*$P$1)</f>
+      <c r="B40" s="5">
+        <f t="shared" ref="B40:V40" si="2">IF(AND(B37&gt;=$N$1,B37&lt;=$O$1),($O$4-$N$4)*$O$1*B37+$N$4*100,($P$4-$O$4)*(B37-$O$1)+$O$4*$P$1)</f>
         <v>12</v>
       </c>
-      <c r="C40" s="6">
-        <f>IF(AND(C37&gt;=$N$1,C37&lt;=$O$1),($O$4-$N$4)*$O$1*C37+$N$4*100,($P$4-$O$4)*(C37-$O$1)+$O$4*$P$1)</f>
+      <c r="C40" s="5">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="D40" s="6">
-        <f>IF(AND(D37&gt;=$N$1,D37&lt;=$O$1),($O$4-$N$4)*$O$1*D37+$N$4*100,($P$4-$O$4)*(D37-$O$1)+$O$4*$P$1)</f>
+      <c r="D40" s="5">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
-      <c r="E40" s="6">
-        <f>IF(AND(E37&gt;=$N$1,E37&lt;=$O$1),($O$4-$N$4)*$O$1*E37+$N$4*100,($P$4-$O$4)*(E37-$O$1)+$O$4*$P$1)</f>
+      <c r="E40" s="5">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F40" s="6">
-        <f>IF(AND(F37&gt;=$N$1,F37&lt;=$O$1),($O$4-$N$4)*$O$1*F37+$N$4*100,($P$4-$O$4)*(F37-$O$1)+$O$4*$P$1)</f>
+      <c r="F40" s="5">
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="G40" s="6">
-        <f>IF(AND(G37&gt;=$N$1,G37&lt;=$O$1),($O$4-$N$4)*$O$1*G37+$N$4*100,($P$4-$O$4)*(G37-$O$1)+$O$4*$P$1)</f>
+      <c r="G40" s="5">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H40" s="6">
-        <f>IF(AND(H37&gt;=$N$1,H37&lt;=$O$1),($O$4-$N$4)*$O$1*H37+$N$4*100,($P$4-$O$4)*(H37-$O$1)+$O$4*$P$1)</f>
+      <c r="H40" s="5">
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="I40" s="6">
-        <f>IF(AND(I37&gt;=$N$1,I37&lt;=$O$1),($O$4-$N$4)*$O$1*I37+$N$4*100,($P$4-$O$4)*(I37-$O$1)+$O$4*$P$1)</f>
+      <c r="I40" s="5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J40" s="6">
-        <f>IF(AND(J37&gt;=$N$1,J37&lt;=$O$1),($O$4-$N$4)*$O$1*J37+$N$4*100,($P$4-$O$4)*(J37-$O$1)+$O$4*$P$1)</f>
+      <c r="J40" s="5">
+        <f t="shared" si="2"/>
         <v>-2.5</v>
       </c>
-      <c r="K40" s="6">
-        <f>IF(AND(K37&gt;=$N$1,K37&lt;=$O$1),($O$4-$N$4)*$O$1*K37+$N$4*100,($P$4-$O$4)*(K37-$O$1)+$O$4*$P$1)</f>
+      <c r="K40" s="5">
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="L40" s="6">
-        <f>IF(AND(L37&gt;=$N$1,L37&lt;=$O$1),($O$4-$N$4)*$O$1*L37+$N$4*100,($P$4-$O$4)*(L37-$O$1)+$O$4*$P$1)</f>
+      <c r="L40" s="5">
+        <f t="shared" si="2"/>
         <v>-7.5</v>
       </c>
-      <c r="M40" s="6">
-        <f>IF(AND(M37&gt;=$N$1,M37&lt;=$O$1),($O$4-$N$4)*$O$1*M37+$N$4*100,($P$4-$O$4)*(M37-$O$1)+$O$4*$P$1)</f>
+      <c r="M40" s="5">
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="N40" s="6">
-        <f>IF(AND(N37&gt;=$N$1,N37&lt;=$O$1),($O$4-$N$4)*$O$1*N37+$N$4*100,($P$4-$O$4)*(N37-$O$1)+$O$4*$P$1)</f>
+      <c r="N40" s="5">
+        <f t="shared" si="2"/>
         <v>-12.5</v>
       </c>
-      <c r="O40" s="6">
-        <f>IF(AND(O37&gt;=$N$1,O37&lt;=$O$1),($O$4-$N$4)*$O$1*O37+$N$4*100,($P$4-$O$4)*(O37-$O$1)+$O$4*$P$1)</f>
+      <c r="O40" s="5">
+        <f t="shared" si="2"/>
         <v>-15</v>
       </c>
-      <c r="P40" s="6">
-        <f>IF(AND(P37&gt;=$N$1,P37&lt;=$O$1),($O$4-$N$4)*$O$1*P37+$N$4*100,($P$4-$O$4)*(P37-$O$1)+$O$4*$P$1)</f>
+      <c r="P40" s="5">
+        <f t="shared" si="2"/>
         <v>-17.5</v>
       </c>
-      <c r="Q40" s="6">
-        <f>IF(AND(Q37&gt;=$N$1,Q37&lt;=$O$1),($O$4-$N$4)*$O$1*Q37+$N$4*100,($P$4-$O$4)*(Q37-$O$1)+$O$4*$P$1)</f>
+      <c r="Q40" s="5">
+        <f t="shared" si="2"/>
         <v>-20</v>
       </c>
-      <c r="R40" s="6">
-        <f>IF(AND(R37&gt;=$N$1,R37&lt;=$O$1),($O$4-$N$4)*$O$1*R37+$N$4*100,($P$4-$O$4)*(R37-$O$1)+$O$4*$P$1)</f>
+      <c r="R40" s="5">
+        <f t="shared" si="2"/>
         <v>-22.5</v>
       </c>
-      <c r="S40" s="6">
-        <f>IF(AND(S37&gt;=$N$1,S37&lt;=$O$1),($O$4-$N$4)*$O$1*S37+$N$4*100,($P$4-$O$4)*(S37-$O$1)+$O$4*$P$1)</f>
+      <c r="S40" s="5">
+        <f t="shared" si="2"/>
         <v>-25</v>
       </c>
-      <c r="T40" s="6">
-        <f>IF(AND(T37&gt;=$N$1,T37&lt;=$O$1),($O$4-$N$4)*$O$1*T37+$N$4*100,($P$4-$O$4)*(T37-$O$1)+$O$4*$P$1)</f>
+      <c r="T40" s="5">
+        <f t="shared" si="2"/>
         <v>-27.5</v>
       </c>
-      <c r="U40" s="6">
-        <f>IF(AND(U37&gt;=$N$1,U37&lt;=$O$1),($O$4-$N$4)*$O$1*U37+$N$4*100,($P$4-$O$4)*(U37-$O$1)+$O$4*$P$1)</f>
+      <c r="U40" s="5">
+        <f t="shared" si="2"/>
         <v>-30</v>
       </c>
-      <c r="V40" s="6">
-        <f>IF(AND(V37&gt;=$N$1,V37&lt;=$O$1),($O$4-$N$4)*$O$1*V37+$N$4*100,($P$4-$O$4)*(V37-$O$1)+$O$4*$P$1)</f>
+      <c r="V40" s="5">
+        <f t="shared" si="2"/>
         <v>-32.5</v>
       </c>
     </row>
@@ -17440,88 +17416,88 @@
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="6">
-        <f>IF(B37&lt;=100,($P$5-$N$5)*B37+$N$5*100,(($Q$5-$P$5))*(B37-$P$1)+$P$5*100)</f>
+      <c r="B41" s="5">
+        <f t="shared" ref="B41:V41" si="3">IF(B37&lt;=100,($P$5-$N$5)*B37+$N$5*100,(($Q$5-$P$5))*(B37-$P$1)+$P$5*100)</f>
         <v>4</v>
       </c>
-      <c r="C41" s="6">
-        <f>IF(C37&lt;=100,($P$5-$N$5)*C37+$N$5*100,(($Q$5-$P$5))*(C37-$P$1)+$P$5*100)</f>
+      <c r="C41" s="5">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="D41" s="6">
-        <f>IF(D37&lt;=100,($P$5-$N$5)*D37+$N$5*100,(($Q$5-$P$5))*(D37-$P$1)+$P$5*100)</f>
+      <c r="D41" s="5">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="E41" s="6">
-        <f>IF(E37&lt;=100,($P$5-$N$5)*E37+$N$5*100,(($Q$5-$P$5))*(E37-$P$1)+$P$5*100)</f>
+      <c r="E41" s="5">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="F41" s="6">
-        <f>IF(F37&lt;=100,($P$5-$N$5)*F37+$N$5*100,(($Q$5-$P$5))*(F37-$P$1)+$P$5*100)</f>
+      <c r="F41" s="5">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G41" s="6">
-        <f>IF(G37&lt;=100,($P$5-$N$5)*G37+$N$5*100,(($Q$5-$P$5))*(G37-$P$1)+$P$5*100)</f>
+      <c r="G41" s="5">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="H41" s="6">
-        <f>IF(H37&lt;=100,($P$5-$N$5)*H37+$N$5*100,(($Q$5-$P$5))*(H37-$P$1)+$P$5*100)</f>
+      <c r="H41" s="5">
+        <f t="shared" si="3"/>
         <v>15.999999999999998</v>
       </c>
-      <c r="I41" s="6">
-        <f>IF(I37&lt;=100,($P$5-$N$5)*I37+$N$5*100,(($Q$5-$P$5))*(I37-$P$1)+$P$5*100)</f>
+      <c r="I41" s="5">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="J41" s="6">
-        <f>IF(J37&lt;=100,($P$5-$N$5)*J37+$N$5*100,(($Q$5-$P$5))*(J37-$P$1)+$P$5*100)</f>
+      <c r="J41" s="5">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K41" s="6">
-        <f>IF(K37&lt;=100,($P$5-$N$5)*K37+$N$5*100,(($Q$5-$P$5))*(K37-$P$1)+$P$5*100)</f>
+      <c r="K41" s="5">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="L41" s="6">
-        <f>IF(L37&lt;=100,($P$5-$N$5)*L37+$N$5*100,(($Q$5-$P$5))*(L37-$P$1)+$P$5*100)</f>
+      <c r="L41" s="5">
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="M41" s="6">
-        <f>IF(M37&lt;=100,($P$5-$N$5)*M37+$N$5*100,(($Q$5-$P$5))*(M37-$P$1)+$P$5*100)</f>
+      <c r="M41" s="5">
+        <f t="shared" si="3"/>
         <v>23.2</v>
       </c>
-      <c r="N41" s="6">
-        <f>IF(N37&lt;=100,($P$5-$N$5)*N37+$N$5*100,(($Q$5-$P$5))*(N37-$P$1)+$P$5*100)</f>
+      <c r="N41" s="5">
+        <f t="shared" si="3"/>
         <v>22.4</v>
       </c>
-      <c r="O41" s="6">
-        <f>IF(O37&lt;=100,($P$5-$N$5)*O37+$N$5*100,(($Q$5-$P$5))*(O37-$P$1)+$P$5*100)</f>
+      <c r="O41" s="5">
+        <f t="shared" si="3"/>
         <v>21.6</v>
       </c>
-      <c r="P41" s="6">
-        <f>IF(P37&lt;=100,($P$5-$N$5)*P37+$N$5*100,(($Q$5-$P$5))*(P37-$P$1)+$P$5*100)</f>
+      <c r="P41" s="5">
+        <f t="shared" si="3"/>
         <v>20.8</v>
       </c>
-      <c r="Q41" s="6">
-        <f>IF(Q37&lt;=100,($P$5-$N$5)*Q37+$N$5*100,(($Q$5-$P$5))*(Q37-$P$1)+$P$5*100)</f>
+      <c r="Q41" s="5">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="R41" s="6">
-        <f>IF(R37&lt;=100,($P$5-$N$5)*R37+$N$5*100,(($Q$5-$P$5))*(R37-$P$1)+$P$5*100)</f>
+      <c r="R41" s="5">
+        <f t="shared" si="3"/>
         <v>19.200000000000003</v>
       </c>
-      <c r="S41" s="6">
-        <f>IF(S37&lt;=100,($P$5-$N$5)*S37+$N$5*100,(($Q$5-$P$5))*(S37-$P$1)+$P$5*100)</f>
+      <c r="S41" s="5">
+        <f t="shared" si="3"/>
         <v>18.400000000000002</v>
       </c>
-      <c r="T41" s="6">
-        <f>IF(T37&lt;=100,($P$5-$N$5)*T37+$N$5*100,(($Q$5-$P$5))*(T37-$P$1)+$P$5*100)</f>
+      <c r="T41" s="5">
+        <f t="shared" si="3"/>
         <v>17.600000000000001</v>
       </c>
-      <c r="U41" s="6">
-        <f>IF(U37&lt;=100,($P$5-$N$5)*U37+$N$5*100,(($Q$5-$P$5))*(U37-$P$1)+$P$5*100)</f>
+      <c r="U41" s="5">
+        <f t="shared" si="3"/>
         <v>16.8</v>
       </c>
-      <c r="V41" s="6">
-        <f>IF(V37&lt;=100,($P$5-$N$5)*V37+$N$5*100,(($Q$5-$P$5))*(V37-$P$1)+$P$5*100)</f>
+      <c r="V41" s="5">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
@@ -17529,88 +17505,88 @@
       <c r="A42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="6">
-        <f>IF(B37&lt;=100,($P$6-$N$6)*B37+$N$6*100,(($Q$6-$P$6))*(B37-$P$1)+$P$6*100)</f>
+      <c r="B42" s="5">
+        <f t="shared" ref="B42:V42" si="4">IF(B37&lt;=100,($P$6-$N$6)*B37+$N$6*100,(($Q$6-$P$6))*(B37-$P$1)+$P$6*100)</f>
         <v>0</v>
       </c>
-      <c r="C42" s="6">
-        <f>IF(C37&lt;=100,($P$6-$N$6)*C37+$N$6*100,(($Q$6-$P$6))*(C37-$P$1)+$P$6*100)</f>
+      <c r="C42" s="5">
+        <f t="shared" si="4"/>
         <v>3.2</v>
       </c>
-      <c r="D42" s="6">
-        <f>IF(D37&lt;=100,($P$6-$N$6)*D37+$N$6*100,(($Q$6-$P$6))*(D37-$P$1)+$P$6*100)</f>
+      <c r="D42" s="5">
+        <f t="shared" si="4"/>
         <v>6.4</v>
       </c>
-      <c r="E42" s="6">
-        <f>IF(E37&lt;=100,($P$6-$N$6)*E37+$N$6*100,(($Q$6-$P$6))*(E37-$P$1)+$P$6*100)</f>
+      <c r="E42" s="5">
+        <f t="shared" si="4"/>
         <v>9.6</v>
       </c>
-      <c r="F42" s="6">
-        <f>IF(F37&lt;=100,($P$6-$N$6)*F37+$N$6*100,(($Q$6-$P$6))*(F37-$P$1)+$P$6*100)</f>
+      <c r="F42" s="5">
+        <f t="shared" si="4"/>
         <v>12.8</v>
       </c>
-      <c r="G42" s="6">
-        <f>IF(G37&lt;=100,($P$6-$N$6)*G37+$N$6*100,(($Q$6-$P$6))*(G37-$P$1)+$P$6*100)</f>
+      <c r="G42" s="5">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="H42" s="6">
-        <f>IF(H37&lt;=100,($P$6-$N$6)*H37+$N$6*100,(($Q$6-$P$6))*(H37-$P$1)+$P$6*100)</f>
+      <c r="H42" s="5">
+        <f t="shared" si="4"/>
         <v>19.2</v>
       </c>
-      <c r="I42" s="6">
-        <f>IF(I37&lt;=100,($P$6-$N$6)*I37+$N$6*100,(($Q$6-$P$6))*(I37-$P$1)+$P$6*100)</f>
+      <c r="I42" s="5">
+        <f t="shared" si="4"/>
         <v>22.400000000000002</v>
       </c>
-      <c r="J42" s="6">
-        <f>IF(J37&lt;=100,($P$6-$N$6)*J37+$N$6*100,(($Q$6-$P$6))*(J37-$P$1)+$P$6*100)</f>
+      <c r="J42" s="5">
+        <f t="shared" si="4"/>
         <v>25.6</v>
       </c>
-      <c r="K42" s="6">
-        <f>IF(K37&lt;=100,($P$6-$N$6)*K37+$N$6*100,(($Q$6-$P$6))*(K37-$P$1)+$P$6*100)</f>
+      <c r="K42" s="5">
+        <f t="shared" si="4"/>
         <v>28.8</v>
       </c>
-      <c r="L42" s="6">
-        <f>IF(L37&lt;=100,($P$6-$N$6)*L37+$N$6*100,(($Q$6-$P$6))*(L37-$P$1)+$P$6*100)</f>
+      <c r="L42" s="5">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="M42" s="6">
-        <f>IF(M37&lt;=100,($P$6-$N$6)*M37+$N$6*100,(($Q$6-$P$6))*(M37-$P$1)+$P$6*100)</f>
+      <c r="M42" s="5">
+        <f t="shared" si="4"/>
         <v>31.2</v>
       </c>
-      <c r="N42" s="6">
-        <f>IF(N37&lt;=100,($P$6-$N$6)*N37+$N$6*100,(($Q$6-$P$6))*(N37-$P$1)+$P$6*100)</f>
+      <c r="N42" s="5">
+        <f t="shared" si="4"/>
         <v>30.4</v>
       </c>
-      <c r="O42" s="6">
-        <f>IF(O37&lt;=100,($P$6-$N$6)*O37+$N$6*100,(($Q$6-$P$6))*(O37-$P$1)+$P$6*100)</f>
+      <c r="O42" s="5">
+        <f t="shared" si="4"/>
         <v>29.6</v>
       </c>
-      <c r="P42" s="6">
-        <f>IF(P37&lt;=100,($P$6-$N$6)*P37+$N$6*100,(($Q$6-$P$6))*(P37-$P$1)+$P$6*100)</f>
+      <c r="P42" s="5">
+        <f t="shared" si="4"/>
         <v>28.8</v>
       </c>
-      <c r="Q42" s="6">
-        <f>IF(Q37&lt;=100,($P$6-$N$6)*Q37+$N$6*100,(($Q$6-$P$6))*(Q37-$P$1)+$P$6*100)</f>
+      <c r="Q42" s="5">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="R42" s="6">
-        <f>IF(R37&lt;=100,($P$6-$N$6)*R37+$N$6*100,(($Q$6-$P$6))*(R37-$P$1)+$P$6*100)</f>
+      <c r="R42" s="5">
+        <f t="shared" si="4"/>
         <v>27.2</v>
       </c>
-      <c r="S42" s="6">
-        <f>IF(S37&lt;=100,($P$6-$N$6)*S37+$N$6*100,(($Q$6-$P$6))*(S37-$P$1)+$P$6*100)</f>
+      <c r="S42" s="5">
+        <f t="shared" si="4"/>
         <v>26.4</v>
       </c>
-      <c r="T42" s="6">
-        <f>IF(T37&lt;=100,($P$6-$N$6)*T37+$N$6*100,(($Q$6-$P$6))*(T37-$P$1)+$P$6*100)</f>
+      <c r="T42" s="5">
+        <f t="shared" si="4"/>
         <v>25.599999999999998</v>
       </c>
-      <c r="U42" s="6">
-        <f>IF(U37&lt;=100,($P$6-$N$6)*U37+$N$6*100,(($Q$6-$P$6))*(U37-$P$1)+$P$6*100)</f>
+      <c r="U42" s="5">
+        <f t="shared" si="4"/>
         <v>24.799999999999997</v>
       </c>
-      <c r="V42" s="6">
-        <f>IF(V37&lt;=100,($P$6-$N$6)*V37+$N$6*100,(($Q$6-$P$6))*(V37-$P$1)+$P$6*100)</f>
+      <c r="V42" s="5">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
     </row>
@@ -17618,174 +17594,174 @@
       <c r="A43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="6">
-        <f>IF(B37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(B37-$O$1))</f>
+      <c r="B43" s="5">
+        <f t="shared" ref="B43:V43" si="5">IF(B37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(B37-$O$1))</f>
         <v>0</v>
       </c>
-      <c r="C43" s="6">
-        <f>IF(C37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(C37-$O$1))</f>
+      <c r="C43" s="5">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D43" s="6">
-        <f>IF(D37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(D37-$O$1))</f>
+      <c r="D43" s="5">
+        <f t="shared" si="5"/>
         <v>2.1052631578947367</v>
       </c>
-      <c r="E43" s="6">
-        <f>IF(E37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(E37-$O$1))</f>
+      <c r="E43" s="5">
+        <f t="shared" si="5"/>
         <v>4.2105263157894735</v>
       </c>
-      <c r="F43" s="6">
-        <f>IF(F37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(F37-$O$1))</f>
+      <c r="F43" s="5">
+        <f t="shared" si="5"/>
         <v>6.3157894736842106</v>
       </c>
-      <c r="G43" s="6">
-        <f>IF(G37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(G37-$O$1))</f>
+      <c r="G43" s="5">
+        <f t="shared" si="5"/>
         <v>8.4210526315789469</v>
       </c>
-      <c r="H43" s="6">
-        <f>IF(H37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(H37-$O$1))</f>
+      <c r="H43" s="5">
+        <f t="shared" si="5"/>
         <v>10.526315789473683</v>
       </c>
-      <c r="I43" s="6">
-        <f>IF(I37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(I37-$O$1))</f>
+      <c r="I43" s="5">
+        <f t="shared" si="5"/>
         <v>12.631578947368421</v>
       </c>
-      <c r="J43" s="6">
-        <f>IF(J37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(J37-$O$1))</f>
+      <c r="J43" s="5">
+        <f t="shared" si="5"/>
         <v>14.736842105263158</v>
       </c>
-      <c r="K43" s="6">
-        <f>IF(K37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(K37-$O$1))</f>
+      <c r="K43" s="5">
+        <f t="shared" si="5"/>
         <v>16.842105263157894</v>
       </c>
-      <c r="L43" s="6">
-        <f>IF(L37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(L37-$O$1))</f>
+      <c r="L43" s="5">
+        <f t="shared" si="5"/>
         <v>18.94736842105263</v>
       </c>
-      <c r="M43" s="6">
-        <f>IF(M37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(M37-$O$1))</f>
+      <c r="M43" s="5">
+        <f t="shared" si="5"/>
         <v>21.052631578947366</v>
       </c>
-      <c r="N43" s="6">
-        <f>IF(N37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(N37-$O$1))</f>
+      <c r="N43" s="5">
+        <f t="shared" si="5"/>
         <v>23.157894736842103</v>
       </c>
-      <c r="O43" s="6">
-        <f>IF(O37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(O37-$O$1))</f>
+      <c r="O43" s="5">
+        <f t="shared" si="5"/>
         <v>25.263157894736842</v>
       </c>
-      <c r="P43" s="6">
-        <f>IF(P37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(P37-$O$1))</f>
+      <c r="P43" s="5">
+        <f t="shared" si="5"/>
         <v>27.368421052631579</v>
       </c>
-      <c r="Q43" s="6">
-        <f>IF(Q37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(Q37-$O$1))</f>
+      <c r="Q43" s="5">
+        <f t="shared" si="5"/>
         <v>29.473684210526315</v>
       </c>
-      <c r="R43" s="6">
-        <f>IF(R37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(R37-$O$1))</f>
+      <c r="R43" s="5">
+        <f t="shared" si="5"/>
         <v>31.578947368421051</v>
       </c>
-      <c r="S43" s="6">
-        <f>IF(S37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(S37-$O$1))</f>
+      <c r="S43" s="5">
+        <f t="shared" si="5"/>
         <v>33.684210526315788</v>
       </c>
-      <c r="T43" s="6">
-        <f>IF(T37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(T37-$O$1))</f>
+      <c r="T43" s="5">
+        <f t="shared" si="5"/>
         <v>35.789473684210527</v>
       </c>
-      <c r="U43" s="6">
-        <f>IF(U37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(U37-$O$1))</f>
+      <c r="U43" s="5">
+        <f t="shared" si="5"/>
         <v>37.89473684210526</v>
       </c>
-      <c r="V43" s="6">
-        <f>IF(V37&lt;=$O$1,$O$7,($Q$7-$O$7)/($Q$1-$O$1)*$P$1*(V37-$O$1))</f>
+      <c r="V43" s="5">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B44" s="23">
+      <c r="B44" s="14">
         <f>SUMIF(B39:B43,"&gt;0",B39:B43)</f>
         <v>40</v>
       </c>
-      <c r="C44" s="23">
-        <f t="shared" ref="C44:V44" si="0">SUMIF(C39:C43,"&gt;0",C39:C43)</f>
+      <c r="C44" s="14">
+        <f t="shared" ref="C44:V44" si="6">SUMIF(C39:C43,"&gt;0",C39:C43)</f>
         <v>43.400000000000006</v>
       </c>
-      <c r="D44" s="23">
-        <f t="shared" si="0"/>
+      <c r="D44" s="14">
+        <f t="shared" si="6"/>
         <v>43.405263157894737</v>
       </c>
-      <c r="E44" s="23">
-        <f t="shared" si="0"/>
+      <c r="E44" s="14">
+        <f t="shared" si="6"/>
         <v>43.410526315789475</v>
       </c>
-      <c r="F44" s="23">
-        <f t="shared" si="0"/>
+      <c r="F44" s="14">
+        <f t="shared" si="6"/>
         <v>43.415789473684214</v>
       </c>
-      <c r="G44" s="23">
-        <f t="shared" si="0"/>
+      <c r="G44" s="14">
+        <f t="shared" si="6"/>
         <v>43.421052631578945</v>
       </c>
-      <c r="H44" s="23">
-        <f t="shared" si="0"/>
+      <c r="H44" s="14">
+        <f t="shared" si="6"/>
         <v>48.226315789473688</v>
       </c>
-      <c r="I44" s="23">
-        <f t="shared" si="0"/>
+      <c r="I44" s="14">
+        <f t="shared" si="6"/>
         <v>53.03157894736843</v>
       </c>
-      <c r="J44" s="23">
-        <f t="shared" si="0"/>
+      <c r="J44" s="14">
+        <f t="shared" si="6"/>
         <v>60.336842105263159</v>
       </c>
-      <c r="K44" s="23">
-        <f t="shared" si="0"/>
+      <c r="K44" s="14">
+        <f t="shared" si="6"/>
         <v>67.642105263157887</v>
       </c>
-      <c r="L44" s="23">
-        <f t="shared" si="0"/>
+      <c r="L44" s="14">
+        <f t="shared" si="6"/>
         <v>74.94736842105263</v>
       </c>
-      <c r="M44" s="23">
-        <f t="shared" si="0"/>
+      <c r="M44" s="14">
+        <f t="shared" si="6"/>
         <v>75.452631578947361</v>
       </c>
-      <c r="N44" s="23">
-        <f t="shared" si="0"/>
+      <c r="N44" s="14">
+        <f t="shared" si="6"/>
         <v>75.957894736842093</v>
       </c>
-      <c r="O44" s="23">
-        <f t="shared" si="0"/>
+      <c r="O44" s="14">
+        <f t="shared" si="6"/>
         <v>76.463157894736838</v>
       </c>
-      <c r="P44" s="23">
-        <f t="shared" si="0"/>
+      <c r="P44" s="14">
+        <f t="shared" si="6"/>
         <v>76.968421052631584</v>
       </c>
-      <c r="Q44" s="23">
-        <f t="shared" si="0"/>
+      <c r="Q44" s="14">
+        <f t="shared" si="6"/>
         <v>77.473684210526315</v>
       </c>
-      <c r="R44" s="23">
-        <f t="shared" si="0"/>
+      <c r="R44" s="14">
+        <f t="shared" si="6"/>
         <v>77.978947368421061</v>
       </c>
-      <c r="S44" s="23">
-        <f t="shared" si="0"/>
+      <c r="S44" s="14">
+        <f t="shared" si="6"/>
         <v>78.484210526315792</v>
       </c>
-      <c r="T44" s="23">
-        <f t="shared" si="0"/>
+      <c r="T44" s="14">
+        <f t="shared" si="6"/>
         <v>78.989473684210537</v>
       </c>
-      <c r="U44" s="23">
-        <f t="shared" si="0"/>
+      <c r="U44" s="14">
+        <f t="shared" si="6"/>
         <v>79.494736842105254</v>
       </c>
-      <c r="V44" s="23">
-        <f t="shared" si="0"/>
+      <c r="V44" s="14">
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
     </row>
@@ -17803,7 +17779,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AA5C88-78CF-41FA-ADC3-A5739524DA6F}">
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
@@ -17837,27 +17813,27 @@
       <c r="A1" s="4">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="28" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
       <c r="N1" s="3" t="s">
         <v>32</v>
       </c>
@@ -17876,7 +17852,7 @@
       <c r="U1" s="3">
         <v>100</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="3" t="s">
         <v>39</v>
       </c>
       <c r="Y1" s="3">
@@ -17918,17 +17894,17 @@
       <c r="K2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="7">
         <f t="shared" ref="O2:O7" si="0">J4</f>
         <v>0.89</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="7">
         <v>0</v>
       </c>
       <c r="Q2" t="str">
@@ -17938,11 +17914,11 @@
       <c r="S2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="7">
         <f t="shared" ref="T2:T7" si="2">K4</f>
         <v>0.4</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="7">
         <f t="shared" ref="U2:U7" si="3">K14</f>
         <v>-0.4</v>
       </c>
@@ -17953,11 +17929,11 @@
       <c r="X2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="7">
         <f>L4</f>
         <v>0.3</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="Z2" s="7">
         <f>L14</f>
         <v>-0.7</v>
       </c>
@@ -17970,43 +17946,43 @@
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <f>Противники!B4</f>
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="18"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="3"/>
       <c r="N3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="P3" s="8">
-        <f t="shared" ref="P2:P7" si="6">J15</f>
+      <c r="P3" s="7">
+        <f t="shared" ref="P3:P7" si="6">J15</f>
         <v>0.3</v>
       </c>
       <c r="Q3" t="str">
@@ -18016,11 +17992,11 @@
       <c r="S3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="7">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="7">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
@@ -18031,11 +18007,11 @@
       <c r="X3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Y3" s="7">
         <f t="shared" ref="Y3:Y7" si="7">L5</f>
         <v>0.2</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="Z3" s="7">
         <f t="shared" ref="Z3:Z7" si="8">L15</f>
         <v>0.35</v>
       </c>
@@ -18048,55 +18024,55 @@
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <f>Противники!B3*0.75</f>
         <v>15</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <f>B4/2</f>
         <v>7.5</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>$B4*(1-Баланс!$B$1)</f>
         <v>12</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f>$B4*(1 +Баланс!$B$1)</f>
         <v>18</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>$C4*(1-Баланс!$B$1)</f>
         <v>6</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <f>$C4*(1+Баланс!$B$1)</f>
         <v>9</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f t="shared" ref="H4:I8" si="9">IF($C4&lt;&gt;"",(D4*F4)/10,D4*2)</f>
         <v>7.2</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f t="shared" si="9"/>
         <v>16.2</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>0.89</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>0.4</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>0.3</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
@@ -18107,11 +18083,11 @@
       <c r="S4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="7">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="7">
         <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
@@ -18122,11 +18098,11 @@
       <c r="X4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="7">
         <f t="shared" si="7"/>
         <v>0.05</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="7">
         <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
@@ -18139,55 +18115,55 @@
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>B4*1.75</f>
         <v>26.25</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <f>B5/1.5</f>
         <v>17.5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>$B5*(1-Баланс!$B$1)</f>
         <v>21</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f>$B5*(1 +Баланс!$B$1)</f>
         <v>31.5</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f>$C5*(1-Баланс!$B$1)</f>
         <v>14</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f>$C5*(1+Баланс!$B$1)</f>
         <v>21</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f t="shared" si="9"/>
         <v>29.4</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f t="shared" si="9"/>
         <v>66.150000000000006</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>0.05</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>0.15</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>0.2</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="7">
         <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
@@ -18198,11 +18174,11 @@
       <c r="S5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="7">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="7">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
@@ -18213,11 +18189,11 @@
       <c r="X5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -18230,55 +18206,55 @@
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <f>B5*2</f>
         <v>52.5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <f>B6/4</f>
         <v>13.125</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f>$B6*(1-Баланс!$B$1)</f>
         <v>42</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <f>$B6*(1 +Баланс!$B$1)</f>
         <v>63</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f>$C6*(1-Баланс!$B$1)</f>
         <v>10.5</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <f>$C6*(1+Баланс!$B$1)</f>
         <v>15.75</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f t="shared" si="9"/>
         <v>44.1</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f t="shared" si="9"/>
         <v>99.224999999999994</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>0</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>0.05</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>0.05</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="7">
         <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
@@ -18289,11 +18265,11 @@
       <c r="S6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="7">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="7">
         <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
@@ -18304,11 +18280,11 @@
       <c r="X6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Y6" s="7">
         <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="7">
         <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
@@ -18321,54 +18297,54 @@
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <f>(Противники!G7+Противники!K7)*2</f>
         <v>115.2</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>$B7*(1-Баланс!$B$1)</f>
         <v>92.160000000000011</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f>$B7*(1 +Баланс!$B$1)</f>
         <v>138.24</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f>$C7*(1-Баланс!$B$1)</f>
         <v>0.8</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <f>$C7*(1+Баланс!$B$1)</f>
         <v>1.2</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <f t="shared" si="9"/>
         <v>7.3728000000000007</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <f t="shared" si="9"/>
         <v>16.588799999999999</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>0.01</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>0.05</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <f t="shared" si="6"/>
         <v>0.04</v>
       </c>
@@ -18379,11 +18355,11 @@
       <c r="S7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="7">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="7">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
@@ -18394,11 +18370,11 @@
       <c r="X7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Y7" s="7">
         <f t="shared" si="7"/>
         <v>0.15</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="Z7" s="7">
         <f t="shared" si="8"/>
         <v>0.15</v>
       </c>
@@ -18411,42 +18387,42 @@
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <f>(B4+B5)/2</f>
         <v>20.625</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <f>$B8*(1-Баланс!$B$1)</f>
         <v>16.5</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <f>$B8*(1 +Баланс!$B$1)</f>
         <v>24.75</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <f>$C8*(1-Баланс!$B$1)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <f>$C8*(1+Баланс!$B$1)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <f t="shared" si="9"/>
         <v>33</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f t="shared" si="9"/>
         <v>49.5</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>0.05</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>0.25</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>0.3</v>
       </c>
     </row>
@@ -18454,46 +18430,46 @@
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <f>B8*2</f>
         <v>41.25</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>0</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <f>B9</f>
         <v>41.25</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f>$C9*(1-Баланс!$B$1)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <f>$C9*(1+Баланс!$B$1)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="5">
         <f>B9</f>
         <v>41.25</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="5">
         <f>B9</f>
         <v>41.25</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>0</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>0.1</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>0.15</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="L10" s="20">
+      <c r="L10" s="12">
         <f>SUM(L4:L9)</f>
         <v>1</v>
       </c>
@@ -18502,27 +18478,27 @@
       <c r="A11" s="4">
         <v>100</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="29" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="29" t="s">
+      <c r="E11" s="34"/>
+      <c r="F11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="29" t="s">
+      <c r="G11" s="34"/>
+      <c r="H11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="28" t="s">
+      <c r="I11" s="34"/>
+      <c r="J11" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -18556,7 +18532,7 @@
       <c r="K12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -18564,76 +18540,76 @@
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <f>(1+(Баланс!$B$2 *Оружие!$A$11))*B3</f>
         <v>20</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="14" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="18"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="10"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <f>(1+(Баланс!$B$2 *Оружие!$A$11))*B4</f>
         <v>30</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <f>C4</f>
         <v>7.5</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <f>$B14*(1-Баланс!$B$1)</f>
         <v>24</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <f>$B14*(1 +Баланс!$B$1)</f>
         <v>36</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f>$C14*(1-Баланс!$B$1)</f>
         <v>6</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <f>$C14*(1+Баланс!$B$1)</f>
         <v>9</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <f t="shared" ref="H14:I18" si="10">IF($C14&lt;&gt;"",(D14*F14)/10,D14*2)</f>
         <v>14.4</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <f t="shared" si="10"/>
         <v>32.4</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>0.2</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>-0.4</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>-0.7</v>
       </c>
     </row>
@@ -18641,45 +18617,45 @@
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <f>(1+(Баланс!$B$2 *Оружие!$A$11))*B5</f>
         <v>52.5</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <f t="shared" ref="C15:C19" si="11">C5</f>
         <v>17.5</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <f>$B15*(1-Баланс!$B$1)</f>
         <v>42</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f>$B15*(1 +Баланс!$B$1)</f>
         <v>63</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f>$C15*(1-Баланс!$B$1)</f>
         <v>14</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <f>$C15*(1+Баланс!$B$1)</f>
         <v>21</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <f t="shared" si="10"/>
         <v>58.8</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <f t="shared" si="10"/>
         <v>132.30000000000001</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>0.3</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>0.4</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>0.35</v>
       </c>
     </row>
@@ -18687,45 +18663,45 @@
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <f>(1+(Баланс!$B$2 *Оружие!$A$11))*B6</f>
         <v>105</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <f t="shared" si="11"/>
         <v>13.125</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f>$B16*(1-Баланс!$B$1)</f>
         <v>84</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f>$B16*(1 +Баланс!$B$1)</f>
         <v>126</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f>$C16*(1-Баланс!$B$1)</f>
         <v>10.5</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <f>$C16*(1+Баланс!$B$1)</f>
         <v>15.75</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <f t="shared" si="10"/>
         <v>88.2</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <f t="shared" si="10"/>
         <v>198.45</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>0.15</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>0.15</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>0.2</v>
       </c>
     </row>
@@ -18733,45 +18709,45 @@
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <f>(1+(Баланс!$B$2 *Оружие!$A$11))*B7</f>
         <v>230.4</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <f>$B17*(1-Баланс!$B$1)</f>
         <v>184.32000000000002</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <f>$B17*(1 +Баланс!$B$1)</f>
         <v>276.48</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f>$C17*(1-Баланс!$B$1)</f>
         <v>0.8</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <f>$C17*(1+Баланс!$B$1)</f>
         <v>1.2</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <f t="shared" si="10"/>
         <v>14.745600000000001</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <f t="shared" si="10"/>
         <v>33.177599999999998</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <v>0.01</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>0.05</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18779,45 +18755,45 @@
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <f>(1+(Баланс!$B$2 *Оружие!$A$11))*B8</f>
         <v>41.25</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <f>$B18*(1-Баланс!$B$1)</f>
         <v>33</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <f>$B18*(1 +Баланс!$B$1)</f>
         <v>49.5</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <f>$C18*(1-Баланс!$B$1)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <f>$C18*(1+Баланс!$B$1)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <v>0.3</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <v>0.3</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <v>0.3</v>
       </c>
     </row>
@@ -18825,167 +18801,49 @@
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <f>(1+(Баланс!$B$2 *Оружие!$A$11))*B9</f>
         <v>82.5</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>0</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <f>B19</f>
         <v>82.5</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <f>$C19*(1-Баланс!$B$1)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <f>$C19*(1+Баланс!$B$1)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="5">
         <f>B19</f>
         <v>82.5</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="5">
         <f>B19</f>
         <v>82.5</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <v>0.04</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <v>0.1</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <v>0.15</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="L20" s="20"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
+      <c r="L20" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -19043,27 +18901,27 @@
       <c r="A1" s="3">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="28" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
       <c r="N1" s="3" t="s">
         <v>32</v>
       </c>
@@ -19130,11 +18988,11 @@
       <c r="N2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="7">
         <f>J3</f>
         <v>0.85</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="7">
         <f>J11</f>
         <v>-0.85</v>
       </c>
@@ -19145,11 +19003,11 @@
       <c r="S2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="7">
         <f>K4</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="7">
         <f>K12</f>
         <v>0.4</v>
       </c>
@@ -19160,10 +19018,10 @@
       <c r="X2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="7">
         <v>0.5</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="Z2" s="7">
         <v>-1.17</v>
       </c>
       <c r="AA2" t="str">
@@ -19175,55 +19033,55 @@
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <f>Противники!C3/5</f>
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <f>B3*1.5</f>
         <v>3</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f>$B3*(1-Баланс!$B$1)</f>
         <v>1.6</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f>$B3*(1+Баланс!$B$1)</f>
         <v>2.4</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f>$C3*(1-Баланс!$B$1)</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <f>$C3*(1+Баланс!$B$1)</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <f>(D3*F3)/10</f>
         <v>0.38400000000000006</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <f>(E3*G3)/10</f>
         <v>0.86399999999999988</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>0.85</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>0.5</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <f>J4</f>
         <v>0.1</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="7">
         <f>J12</f>
         <v>0.45</v>
       </c>
@@ -19234,11 +19092,11 @@
       <c r="S3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="7">
         <f>K5</f>
         <v>0.25</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="7">
         <f>K13</f>
         <v>0.4</v>
       </c>
@@ -19249,10 +19107,10 @@
       <c r="X3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Y3" s="7">
         <v>0.27500000000000002</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="Z3" s="7">
         <v>0.3</v>
       </c>
       <c r="AA3" t="str">
@@ -19264,56 +19122,56 @@
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <f>Противники!C5*0.8</f>
         <v>4</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <f>B4*3</f>
         <v>12</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>$B4*(1-Баланс!$B$1)</f>
         <v>3.2</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f>$B4*(1+Баланс!$B$1)</f>
         <v>4.8</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>$C4*(1-Баланс!$B$1)</f>
         <v>9.6000000000000014</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <f>$C4*(1+Баланс!$B$1)</f>
         <v>14.399999999999999</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f t="shared" ref="H4:H7" si="1">(D4*F4)/10</f>
         <v>3.0720000000000005</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f t="shared" ref="I4:I7" si="2">(E4*G4)/10</f>
         <v>6.911999999999999</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>0.1</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <f>K4*0.5</f>
         <v>0.27500000000000002</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <f>J5</f>
         <v>0</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <f>J13</f>
         <v>0.2</v>
       </c>
@@ -19324,11 +19182,11 @@
       <c r="S4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="7">
         <f>K6</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="7">
         <f>K14</f>
         <v>0.1</v>
       </c>
@@ -19339,10 +19197,10 @@
       <c r="X4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="7">
         <v>0.125</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="7">
         <v>0.5</v>
       </c>
       <c r="AA4" t="str">
@@ -19354,56 +19212,56 @@
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>Противники!C7/5</f>
         <v>6</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <f>B5*3</f>
         <v>18</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>$B5*(1-Баланс!$B$1)</f>
         <v>4.8000000000000007</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f>$B5*(1+Баланс!$B$1)</f>
         <v>7.1999999999999993</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f>$C5*(1-Баланс!$B$1)</f>
         <v>14.4</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f>$C5*(1+Баланс!$B$1)</f>
         <v>21.599999999999998</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f t="shared" si="1"/>
         <v>6.9120000000000017</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f t="shared" si="2"/>
         <v>15.551999999999998</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>0</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>0.25</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <f t="shared" ref="L5:L7" si="3">K5*0.5</f>
         <v>0.125</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <f>J6</f>
         <v>0.05</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="7">
         <f>J14</f>
         <v>0.25</v>
       </c>
@@ -19414,11 +19272,11 @@
       <c r="S5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="7">
         <f>K7</f>
         <v>0.06</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="7">
         <f>K15</f>
         <v>0.1</v>
       </c>
@@ -19429,10 +19287,10 @@
       <c r="X5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="7">
         <v>0.08</v>
       </c>
       <c r="AA5" t="str">
@@ -19444,56 +19302,56 @@
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <f>B4*2</f>
         <v>8</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <f>B6*3</f>
         <v>24</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f>$B6*(1-Баланс!$B$1)</f>
         <v>6.4</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <f>$B6*(1+Баланс!$B$1)</f>
         <v>9.6</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f>$C6*(1-Баланс!$B$1)</f>
         <v>19.200000000000003</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <f>$C6*(1+Баланс!$B$1)</f>
         <v>28.799999999999997</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f t="shared" si="1"/>
         <v>12.288000000000002</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f t="shared" si="2"/>
         <v>27.647999999999996</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>0.05</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <f>J7</f>
         <v>0</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="7">
         <f>J15</f>
         <v>0.1</v>
       </c>
@@ -19504,10 +19362,10 @@
       <c r="X6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Y6" s="7">
         <v>0.03</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="7">
         <v>0.12</v>
       </c>
       <c r="AA6" t="str">
@@ -19519,45 +19377,45 @@
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <f>B5*2</f>
         <v>12</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <f>B7*3</f>
         <v>36</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>$B7*(1-Баланс!$B$1)</f>
         <v>9.6000000000000014</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f>$B7*(1+Баланс!$B$1)</f>
         <v>14.399999999999999</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f>$C7*(1-Баланс!$B$1)</f>
         <v>28.8</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <f>$C7*(1+Баланс!$B$1)</f>
         <v>43.199999999999996</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <f t="shared" si="1"/>
         <v>27.648000000000007</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <f t="shared" si="2"/>
         <v>62.207999999999991</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>0</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>0.06</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
@@ -19566,27 +19424,27 @@
       <c r="A9" s="3">
         <v>100</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="29" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="29" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="29" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="28" t="s">
+      <c r="I9" s="34"/>
+      <c r="J9" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -19628,45 +19486,45 @@
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f>(1+(Баланс!$B$2 *$A$9))*B3</f>
         <v>4</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <f>C3</f>
         <v>3</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f>$B11*(1-Баланс!$B$1)</f>
         <v>3.2</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <f>$B11*(1+Баланс!$B$1)</f>
         <v>4.8</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f>$C11*(1-Баланс!$B$1)</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <f>$C11*(1+Баланс!$B$1)</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <f>(D11*F11)/10</f>
         <v>0.76800000000000013</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <f>(E11*G11)/10</f>
         <v>1.7279999999999998</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>-0.85</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>0</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>-1.17</v>
       </c>
     </row>
@@ -19674,45 +19532,45 @@
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <f>(1+(Баланс!$B$2 *$A$9))*B4</f>
         <v>8</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <f t="shared" ref="C12:C15" si="4">C4</f>
         <v>12</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <f>$B12*(1-Баланс!$B$1)</f>
         <v>6.4</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <f>$B12*(1+Баланс!$B$1)</f>
         <v>9.6</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f>$C12*(1-Баланс!$B$1)</f>
         <v>9.6000000000000014</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <f>$C12*(1+Баланс!$B$1)</f>
         <v>14.399999999999999</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <f t="shared" ref="H12:H15" si="5">(D12*F12)/10</f>
         <v>6.144000000000001</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <f t="shared" ref="I12:I15" si="6">(E12*G12)/10</f>
         <v>13.823999999999998</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>0.45</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>0.4</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>0.3</v>
       </c>
     </row>
@@ -19720,45 +19578,45 @@
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <f>(1+(Баланс!$B$2 *$A$9))*B5</f>
         <v>12</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <f>$B13*(1-Баланс!$B$1)</f>
         <v>9.6000000000000014</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <f>$B13*(1+Баланс!$B$1)</f>
         <v>14.399999999999999</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f>$C13*(1-Баланс!$B$1)</f>
         <v>14.4</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <f>$C13*(1+Баланс!$B$1)</f>
         <v>21.599999999999998</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <f t="shared" si="5"/>
         <v>13.824000000000003</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <f t="shared" si="6"/>
         <v>31.103999999999996</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>0.2</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>0.4</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>0.5</v>
       </c>
     </row>
@@ -19766,45 +19624,45 @@
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <f>(1+(Баланс!$B$2 *$A$9))*B6</f>
         <v>16</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <f>$B14*(1-Баланс!$B$1)</f>
         <v>12.8</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <f>$B14*(1+Баланс!$B$1)</f>
         <v>19.2</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f>$C14*(1-Баланс!$B$1)</f>
         <v>19.200000000000003</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <f>$C14*(1+Баланс!$B$1)</f>
         <v>28.799999999999997</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <f t="shared" si="5"/>
         <v>24.576000000000004</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <f t="shared" si="6"/>
         <v>55.295999999999992</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>0.25</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>0.1</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>0.08</v>
       </c>
     </row>
@@ -19812,45 +19670,45 @@
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <f>(1+(Баланс!$B$2 *$A$9))*B7</f>
         <v>24</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <f>$B15*(1-Баланс!$B$1)</f>
         <v>19.200000000000003</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f>$B15*(1+Баланс!$B$1)</f>
         <v>28.799999999999997</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f>$C15*(1-Баланс!$B$1)</f>
         <v>28.8</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <f>$C15*(1+Баланс!$B$1)</f>
         <v>43.199999999999996</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <f t="shared" si="5"/>
         <v>55.296000000000014</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <f t="shared" si="6"/>
         <v>124.41599999999998</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>0.1</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>0.1</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>0.12</v>
       </c>
     </row>
@@ -19902,29 +19760,28 @@
       <c r="A1" s="3">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="17" t="s">
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="N1" s="9" t="s">
         <v>32</v>
       </c>
       <c r="O1" s="3">
@@ -19933,7 +19790,7 @@
       <c r="P1" s="3">
         <v>100</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="9" t="s">
         <v>33</v>
       </c>
       <c r="T1" s="3">
@@ -19942,7 +19799,7 @@
       <c r="U1" s="3">
         <v>100</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="X1" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Y1" s="3">
@@ -19978,23 +19835,22 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="10"/>
       <c r="N2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="7">
         <v>0.67</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="7">
         <v>0.33</v>
       </c>
       <c r="Q2" t="str">
@@ -20004,10 +19860,10 @@
       <c r="S2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="7">
         <v>0</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="7">
         <v>0</v>
       </c>
       <c r="V2" t="str">
@@ -20017,10 +19873,10 @@
       <c r="X2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="7">
         <v>0.3</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="Z2" s="7">
         <v>0.15</v>
       </c>
       <c r="AA2" t="str">
@@ -20063,23 +19919,23 @@
         <f>(E3*5)+(G3*0.5)</f>
         <v>12</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>0.67</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>0.3</v>
       </c>
-      <c r="M3" s="11"/>
+      <c r="M3" s="8"/>
       <c r="N3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <v>0.22</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="7">
         <v>0.44</v>
       </c>
       <c r="Q3" t="str">
@@ -20089,10 +19945,10 @@
       <c r="S3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="7">
         <v>0.6</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="7">
         <v>0.6</v>
       </c>
       <c r="V3" t="str">
@@ -20102,10 +19958,10 @@
       <c r="X3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Y3" s="7">
         <v>0.4</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="Z3" s="7">
         <v>0.5</v>
       </c>
       <c r="AA3" t="str">
@@ -20148,23 +20004,23 @@
         <f t="shared" ref="I4:I5" si="4">(E4*5)+(G4*0.5)</f>
         <v>36</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>0.22</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>0.6</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>0.4</v>
       </c>
-      <c r="M4" s="11"/>
+      <c r="M4" s="8"/>
       <c r="N4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <v>0.1</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <v>0.21</v>
       </c>
       <c r="Q4" t="str">
@@ -20174,10 +20030,10 @@
       <c r="S4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="7">
         <v>0.3</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="7">
         <v>0.3</v>
       </c>
       <c r="V4" t="str">
@@ -20187,10 +20043,10 @@
       <c r="X4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="7">
         <v>0.2</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="7">
         <v>0.25</v>
       </c>
       <c r="AA4" t="str">
@@ -20234,23 +20090,23 @@
         <f t="shared" si="4"/>
         <v>78</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>0.1</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>0.3</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>0.2</v>
       </c>
-      <c r="M5" s="11"/>
+      <c r="M5" s="8"/>
       <c r="N5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <v>0.01</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="7">
         <v>0.02</v>
       </c>
       <c r="Q5" t="str">
@@ -20260,10 +20116,10 @@
       <c r="S5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="7">
         <v>0.1</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="7">
         <v>0.1</v>
       </c>
       <c r="V5" t="str">
@@ -20273,10 +20129,10 @@
       <c r="X5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="7">
         <v>0.1</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="7">
         <v>0.1</v>
       </c>
       <c r="AA5" t="str">
@@ -20312,51 +20168,51 @@
         <f>C6</f>
         <v>50</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="11">
         <f>AVERAGE(H3:I3)*2</f>
         <v>20</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="11">
         <f>H6</f>
         <v>20</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>0.01</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>0.1</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>0.1</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>100</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28" t="s">
+      <c r="E8" s="31"/>
+      <c r="F8" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28" t="s">
+      <c r="G8" s="31"/>
+      <c r="H8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28" t="s">
+      <c r="I8" s="31"/>
+      <c r="J8" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -20384,13 +20240,13 @@
       <c r="I9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -20430,13 +20286,13 @@
         <f>(E10*5)+(G10*0.5)</f>
         <v>12</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>0.33</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>0</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>0.15</v>
       </c>
     </row>
@@ -20476,13 +20332,13 @@
         <f t="shared" ref="I11:I12" si="6">(E11*5)+(G11*0.5)</f>
         <v>72</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>0.44</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>0.6</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>0.5</v>
       </c>
     </row>
@@ -20522,13 +20378,13 @@
         <f t="shared" si="6"/>
         <v>156</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>0.21</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>0.3</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>0.25</v>
       </c>
     </row>
@@ -20560,26 +20416,26 @@
         <f>C13</f>
         <v>100</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="11">
         <f>AVERAGE(H10:I10)*2</f>
         <v>20</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="11">
         <f>H13</f>
         <v>20</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>0.02</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>0.1</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="J14" s="20"/>
+      <c r="J14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/GameBalance.xlsx
+++ b/GameBalance.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coder\source\repos\Ka666aH\TextGameAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444D94B1-67E6-437C-9733-8227F7BBB4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C9C831-257E-4AD4-A80D-A93B8C7A24FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="4" xr2:uid="{4E46E8D9-8B4F-4CE6-92DC-8BA3C6E9B9B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="3" activeTab="3" xr2:uid="{4E46E8D9-8B4F-4CE6-92DC-8BA3C6E9B9B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Баланс" sheetId="7" r:id="rId1"/>
-    <sheet name="Игрок" sheetId="1" r:id="rId2"/>
-    <sheet name="Комнаты" sheetId="9" r:id="rId3"/>
+    <sheet name="Баланс" sheetId="7" state="hidden" r:id="rId1"/>
+    <sheet name="Игрок" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="Комнаты" sheetId="9" state="hidden" r:id="rId3"/>
     <sheet name="Предметы" sheetId="8" r:id="rId4"/>
-    <sheet name="Противники" sheetId="2" r:id="rId5"/>
+    <sheet name="Противники" sheetId="2" state="hidden" r:id="rId5"/>
     <sheet name="Оружие" sheetId="3" r:id="rId6"/>
     <sheet name="Броня" sheetId="5" r:id="rId7"/>
     <sheet name="Хил" sheetId="6" r:id="rId8"/>
@@ -14209,7 +14209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEFE8A6-7B0F-4C4F-B26F-9BE0B785C7AE}">
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -15022,7 +15022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62381594-8D3E-489F-BDC2-402FECB14F0E}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -15562,7 +15562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38E34A5-E026-47EB-BBDA-E748A36D966E}">
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>

--- a/GameBalance.xlsx
+++ b/GameBalance.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coder\source\repos\Ka666aH\TextGameAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C9C831-257E-4AD4-A80D-A93B8C7A24FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEB17D3-3847-453C-994D-2EC91AA47FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="3" activeTab="3" xr2:uid="{4E46E8D9-8B4F-4CE6-92DC-8BA3C6E9B9B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{4E46E8D9-8B4F-4CE6-92DC-8BA3C6E9B9B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Баланс" sheetId="7" state="hidden" r:id="rId1"/>
-    <sheet name="Игрок" sheetId="1" state="hidden" r:id="rId2"/>
-    <sheet name="Комнаты" sheetId="9" state="hidden" r:id="rId3"/>
+    <sheet name="Баланс" sheetId="7" r:id="rId1"/>
+    <sheet name="Игрок" sheetId="1" r:id="rId2"/>
+    <sheet name="Комнаты" sheetId="9" r:id="rId3"/>
     <sheet name="Предметы" sheetId="8" r:id="rId4"/>
-    <sheet name="Противники" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="Противники" sheetId="2" r:id="rId5"/>
     <sheet name="Оружие" sheetId="3" r:id="rId6"/>
     <sheet name="Броня" sheetId="5" r:id="rId7"/>
     <sheet name="Хил" sheetId="6" r:id="rId8"/>
@@ -378,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -493,12 +493,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -550,6 +565,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -14209,7 +14227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEFE8A6-7B0F-4C4F-B26F-9BE0B785C7AE}">
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -15022,8 +15040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62381594-8D3E-489F-BDC2-402FECB14F0E}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15194,17 +15212,17 @@
         <v>0.18462730240000003</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="37">
         <v>0.2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="37">
         <v>0</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="37">
         <v>0</v>
       </c>
       <c r="G6" s="6">
@@ -15213,16 +15231,16 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="35">
         <v>0.1</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="35">
         <v>0.2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="35">
         <v>0.28000000000000003</v>
       </c>
       <c r="G7" s="6">
@@ -15562,8 +15580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38E34A5-E026-47EB-BBDA-E748A36D966E}">
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17781,7 +17799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AA5C88-78CF-41FA-ADC3-A5739524DA6F}">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -18867,8 +18885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2CD9FF-C807-4A2F-A500-2F255D657DD7}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19734,7 +19752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AE4E99-011F-49E2-A8A1-00960F03427B}">
   <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
